--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Croatia Prva HNL</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>Istra 1961</t>
+  </si>
+  <si>
+    <t>['13', '19', '28', '49', '79']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7450955</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45506.66666666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>1.73</v>
+      </c>
+      <c r="R2">
+        <v>2.6</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>1.32</v>
+      </c>
+      <c r="U2">
+        <v>3.26</v>
+      </c>
+      <c r="V2">
+        <v>2.63</v>
+      </c>
+      <c r="W2">
+        <v>1.46</v>
+      </c>
+      <c r="X2">
+        <v>6.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.11</v>
+      </c>
+      <c r="Z2">
+        <v>1.25</v>
+      </c>
+      <c r="AA2">
+        <v>5.75</v>
+      </c>
+      <c r="AB2">
+        <v>9.5</v>
+      </c>
+      <c r="AC2">
+        <v>1.03</v>
+      </c>
+      <c r="AD2">
+        <v>15</v>
+      </c>
+      <c r="AE2">
+        <v>1.23</v>
+      </c>
+      <c r="AF2">
+        <v>3.75</v>
+      </c>
+      <c r="AG2">
+        <v>1.7</v>
+      </c>
+      <c r="AH2">
+        <v>2.1</v>
+      </c>
+      <c r="AI2">
+        <v>2.38</v>
+      </c>
+      <c r="AJ2">
+        <v>1.53</v>
+      </c>
+      <c r="AK2">
+        <v>1.04</v>
+      </c>
+      <c r="AL2">
+        <v>1.16</v>
+      </c>
+      <c r="AM2">
+        <v>3.5</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>11</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>2</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>13</v>
+      </c>
+      <c r="AZ2">
+        <v>3</v>
+      </c>
+      <c r="BA2">
+        <v>6</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>6</v>
+      </c>
+      <c r="BD2">
+        <v>1.24</v>
+      </c>
+      <c r="BE2">
+        <v>13</v>
+      </c>
+      <c r="BF2">
+        <v>4.85</v>
+      </c>
+      <c r="BG2">
+        <v>1.36</v>
+      </c>
+      <c r="BH2">
+        <v>2.79</v>
+      </c>
+      <c r="BI2">
+        <v>1.68</v>
+      </c>
+      <c r="BJ2">
+        <v>2.06</v>
+      </c>
+      <c r="BK2">
+        <v>2.12</v>
+      </c>
+      <c r="BL2">
+        <v>1.61</v>
+      </c>
+      <c r="BM2">
+        <v>2.84</v>
+      </c>
+      <c r="BN2">
+        <v>1.35</v>
+      </c>
+      <c r="BO2">
+        <v>3.4</v>
+      </c>
+      <c r="BP2">
+        <v>1.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,7 +229,13 @@
     <t>Dinamo Zagreb</t>
   </si>
   <si>
+    <t>Gorica</t>
+  </si>
+  <si>
     <t>Istra 1961</t>
+  </si>
+  <si>
+    <t>Varaždin</t>
   </si>
   <si>
     <t>['13', '19', '28', '49', '79']</t>
@@ -597,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +838,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -853,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2">
         <v>1.73</v>
@@ -1013,6 +1019,212 @@
       </c>
       <c r="BP2">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7450956</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45507.66666666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3">
+        <v>3.1</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>3.6</v>
+      </c>
+      <c r="T3">
+        <v>1.42</v>
+      </c>
+      <c r="U3">
+        <v>2.74</v>
+      </c>
+      <c r="V3">
+        <v>3.17</v>
+      </c>
+      <c r="W3">
+        <v>1.33</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>1.06</v>
+      </c>
+      <c r="Z3">
+        <v>2.35</v>
+      </c>
+      <c r="AA3">
+        <v>3.1</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>1.05</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>1.36</v>
+      </c>
+      <c r="AF3">
+        <v>2.9</v>
+      </c>
+      <c r="AG3">
+        <v>2.08</v>
+      </c>
+      <c r="AH3">
+        <v>1.73</v>
+      </c>
+      <c r="AI3">
+        <v>1.83</v>
+      </c>
+      <c r="AJ3">
+        <v>1.83</v>
+      </c>
+      <c r="AK3">
+        <v>1.45</v>
+      </c>
+      <c r="AL3">
+        <v>1.32</v>
+      </c>
+      <c r="AM3">
+        <v>1.51</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>8</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>6</v>
+      </c>
+      <c r="AY3">
+        <v>5</v>
+      </c>
+      <c r="AZ3">
+        <v>14</v>
+      </c>
+      <c r="BA3">
+        <v>4</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+      <c r="BC3">
+        <v>11</v>
+      </c>
+      <c r="BD3">
+        <v>1.95</v>
+      </c>
+      <c r="BE3">
+        <v>7.1</v>
+      </c>
+      <c r="BF3">
+        <v>2.25</v>
+      </c>
+      <c r="BG3">
+        <v>1.32</v>
+      </c>
+      <c r="BH3">
+        <v>2.98</v>
+      </c>
+      <c r="BI3">
+        <v>1.59</v>
+      </c>
+      <c r="BJ3">
+        <v>2.16</v>
+      </c>
+      <c r="BK3">
+        <v>2.04</v>
+      </c>
+      <c r="BL3">
+        <v>1.69</v>
+      </c>
+      <c r="BM3">
+        <v>2.67</v>
+      </c>
+      <c r="BN3">
+        <v>1.39</v>
+      </c>
+      <c r="BO3">
+        <v>3.74</v>
+      </c>
+      <c r="BP3">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,16 +232,49 @@
     <t>Gorica</t>
   </si>
   <si>
+    <t>Rijeka</t>
+  </si>
+  <si>
+    <t>Osijek</t>
+  </si>
+  <si>
+    <t>Hajduk Split</t>
+  </si>
+  <si>
     <t>Istra 1961</t>
   </si>
   <si>
     <t>Varaždin</t>
   </si>
   <si>
+    <t>Lokomotiva Zagreb</t>
+  </si>
+  <si>
+    <t>Šibenik</t>
+  </si>
+  <si>
+    <t>Slaven Koprivnica</t>
+  </si>
+  <si>
     <t>['13', '19', '28', '49', '79']</t>
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['13', '28', '70', '83']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['18', '37']</t>
+  </si>
+  <si>
+    <t>['8', '61']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -603,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,7 +871,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -859,10 +892,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q2">
         <v>1.73</v>
@@ -1044,7 +1077,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1065,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -1225,6 +1258,624 @@
       </c>
       <c r="BP3">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7450957</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45508.57638888889</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>2.05</v>
+      </c>
+      <c r="R4">
+        <v>2.4</v>
+      </c>
+      <c r="S4">
+        <v>5.5</v>
+      </c>
+      <c r="T4">
+        <v>1.33</v>
+      </c>
+      <c r="U4">
+        <v>3.25</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>1.5</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>1.13</v>
+      </c>
+      <c r="Z4">
+        <v>1.5</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4">
+        <v>5.5</v>
+      </c>
+      <c r="AC4">
+        <v>1.02</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>1.22</v>
+      </c>
+      <c r="AF4">
+        <v>3.8</v>
+      </c>
+      <c r="AG4">
+        <v>1.7</v>
+      </c>
+      <c r="AH4">
+        <v>2.1</v>
+      </c>
+      <c r="AI4">
+        <v>1.8</v>
+      </c>
+      <c r="AJ4">
+        <v>1.91</v>
+      </c>
+      <c r="AK4">
+        <v>1.13</v>
+      </c>
+      <c r="AL4">
+        <v>1.2</v>
+      </c>
+      <c r="AM4">
+        <v>2.41</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>8</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>7</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>15</v>
+      </c>
+      <c r="AZ4">
+        <v>7</v>
+      </c>
+      <c r="BA4">
+        <v>2</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
+        <v>5</v>
+      </c>
+      <c r="BD4">
+        <v>1.37</v>
+      </c>
+      <c r="BE4">
+        <v>8</v>
+      </c>
+      <c r="BF4">
+        <v>4.26</v>
+      </c>
+      <c r="BG4">
+        <v>1.23</v>
+      </c>
+      <c r="BH4">
+        <v>3.56</v>
+      </c>
+      <c r="BI4">
+        <v>1.43</v>
+      </c>
+      <c r="BJ4">
+        <v>2.54</v>
+      </c>
+      <c r="BK4">
+        <v>2</v>
+      </c>
+      <c r="BL4">
+        <v>1.8</v>
+      </c>
+      <c r="BM4">
+        <v>2.25</v>
+      </c>
+      <c r="BN4">
+        <v>1.54</v>
+      </c>
+      <c r="BO4">
+        <v>3.04</v>
+      </c>
+      <c r="BP4">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7450954</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5">
+        <v>1.91</v>
+      </c>
+      <c r="R5">
+        <v>2.5</v>
+      </c>
+      <c r="S5">
+        <v>6.5</v>
+      </c>
+      <c r="T5">
+        <v>1.29</v>
+      </c>
+      <c r="U5">
+        <v>3.4</v>
+      </c>
+      <c r="V5">
+        <v>2.25</v>
+      </c>
+      <c r="W5">
+        <v>1.57</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>1.13</v>
+      </c>
+      <c r="Z5">
+        <v>1.44</v>
+      </c>
+      <c r="AA5">
+        <v>4.2</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>1.03</v>
+      </c>
+      <c r="AD5">
+        <v>12</v>
+      </c>
+      <c r="AE5">
+        <v>1.17</v>
+      </c>
+      <c r="AF5">
+        <v>4.5</v>
+      </c>
+      <c r="AG5">
+        <v>1.6</v>
+      </c>
+      <c r="AH5">
+        <v>2.3</v>
+      </c>
+      <c r="AI5">
+        <v>1.8</v>
+      </c>
+      <c r="AJ5">
+        <v>1.91</v>
+      </c>
+      <c r="AK5">
+        <v>1.04</v>
+      </c>
+      <c r="AL5">
+        <v>1.14</v>
+      </c>
+      <c r="AM5">
+        <v>2.75</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>10</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>10</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>20</v>
+      </c>
+      <c r="AZ5">
+        <v>5</v>
+      </c>
+      <c r="BA5">
+        <v>16</v>
+      </c>
+      <c r="BB5">
+        <v>2</v>
+      </c>
+      <c r="BC5">
+        <v>18</v>
+      </c>
+      <c r="BD5">
+        <v>1.25</v>
+      </c>
+      <c r="BE5">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF5">
+        <v>5.45</v>
+      </c>
+      <c r="BG5">
+        <v>1.31</v>
+      </c>
+      <c r="BH5">
+        <v>3.04</v>
+      </c>
+      <c r="BI5">
+        <v>1.57</v>
+      </c>
+      <c r="BJ5">
+        <v>2.19</v>
+      </c>
+      <c r="BK5">
+        <v>2</v>
+      </c>
+      <c r="BL5">
+        <v>1.72</v>
+      </c>
+      <c r="BM5">
+        <v>2.6</v>
+      </c>
+      <c r="BN5">
+        <v>1.41</v>
+      </c>
+      <c r="BO5">
+        <v>3.65</v>
+      </c>
+      <c r="BP5">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7450958</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6">
+        <v>1.62</v>
+      </c>
+      <c r="R6">
+        <v>2.75</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>1.29</v>
+      </c>
+      <c r="U6">
+        <v>3.5</v>
+      </c>
+      <c r="V6">
+        <v>2.25</v>
+      </c>
+      <c r="W6">
+        <v>1.57</v>
+      </c>
+      <c r="X6">
+        <v>5.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.14</v>
+      </c>
+      <c r="Z6">
+        <v>1.2</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>12</v>
+      </c>
+      <c r="AC6">
+        <v>1.02</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>1.17</v>
+      </c>
+      <c r="AF6">
+        <v>4.5</v>
+      </c>
+      <c r="AG6">
+        <v>1.57</v>
+      </c>
+      <c r="AH6">
+        <v>2.35</v>
+      </c>
+      <c r="AI6">
+        <v>2.2</v>
+      </c>
+      <c r="AJ6">
+        <v>1.62</v>
+      </c>
+      <c r="AK6">
+        <v>1.03</v>
+      </c>
+      <c r="AL6">
+        <v>1.13</v>
+      </c>
+      <c r="AM6">
+        <v>3.56</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>5</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>3</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>5</v>
+      </c>
+      <c r="BA6">
+        <v>4</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6">
+        <v>7</v>
+      </c>
+      <c r="BD6">
+        <v>1.14</v>
+      </c>
+      <c r="BE6">
+        <v>12.5</v>
+      </c>
+      <c r="BF6">
+        <v>7.55</v>
+      </c>
+      <c r="BG6">
+        <v>1.27</v>
+      </c>
+      <c r="BH6">
+        <v>3.28</v>
+      </c>
+      <c r="BI6">
+        <v>1.51</v>
+      </c>
+      <c r="BJ6">
+        <v>2.32</v>
+      </c>
+      <c r="BK6">
+        <v>1.89</v>
+      </c>
+      <c r="BL6">
+        <v>1.81</v>
+      </c>
+      <c r="BM6">
+        <v>2.45</v>
+      </c>
+      <c r="BN6">
+        <v>1.46</v>
+      </c>
+      <c r="BO6">
+        <v>3.34</v>
+      </c>
+      <c r="BP6">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,6 +241,9 @@
     <t>Hajduk Split</t>
   </si>
   <si>
+    <t>Šibenik</t>
+  </si>
+  <si>
     <t>Istra 1961</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
     <t>Lokomotiva Zagreb</t>
   </si>
   <si>
-    <t>Šibenik</t>
-  </si>
-  <si>
     <t>Slaven Koprivnica</t>
   </si>
   <si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>['18', '37']</t>
+  </si>
+  <si>
+    <t>['13', '22']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -636,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +874,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -1077,7 +1080,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1283,7 +1286,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1489,7 +1492,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1513,7 +1516,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1719,7 +1722,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -1876,6 +1879,212 @@
       </c>
       <c r="BP6">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7450959</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45513.5625</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7">
+        <v>2.63</v>
+      </c>
+      <c r="R7">
+        <v>2.25</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>1.3</v>
+      </c>
+      <c r="U7">
+        <v>3.4</v>
+      </c>
+      <c r="V7">
+        <v>2.5</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>1.13</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>3.3</v>
+      </c>
+      <c r="AB7">
+        <v>3.5</v>
+      </c>
+      <c r="AC7">
+        <v>1.01</v>
+      </c>
+      <c r="AD7">
+        <v>11</v>
+      </c>
+      <c r="AE7">
+        <v>1.18</v>
+      </c>
+      <c r="AF7">
+        <v>4.05</v>
+      </c>
+      <c r="AG7">
+        <v>1.8</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>1.67</v>
+      </c>
+      <c r="AJ7">
+        <v>2.1</v>
+      </c>
+      <c r="AK7">
+        <v>1.36</v>
+      </c>
+      <c r="AL7">
+        <v>1.3</v>
+      </c>
+      <c r="AM7">
+        <v>1.7</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0.92</v>
+      </c>
+      <c r="AT7">
+        <v>0.92</v>
+      </c>
+      <c r="AU7">
+        <v>6</v>
+      </c>
+      <c r="AV7">
+        <v>7</v>
+      </c>
+      <c r="AW7">
+        <v>4</v>
+      </c>
+      <c r="AX7">
+        <v>8</v>
+      </c>
+      <c r="AY7">
+        <v>10</v>
+      </c>
+      <c r="AZ7">
+        <v>15</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>7</v>
+      </c>
+      <c r="BC7">
+        <v>10</v>
+      </c>
+      <c r="BD7">
+        <v>1.65</v>
+      </c>
+      <c r="BE7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF7">
+        <v>2.76</v>
+      </c>
+      <c r="BG7">
+        <v>1.36</v>
+      </c>
+      <c r="BH7">
+        <v>2.9</v>
+      </c>
+      <c r="BI7">
+        <v>1.61</v>
+      </c>
+      <c r="BJ7">
+        <v>2.28</v>
+      </c>
+      <c r="BK7">
+        <v>2</v>
+      </c>
+      <c r="BL7">
+        <v>1.8</v>
+      </c>
+      <c r="BM7">
+        <v>2.56</v>
+      </c>
+      <c r="BN7">
+        <v>1.48</v>
+      </c>
+      <c r="BO7">
+        <v>3.3</v>
+      </c>
+      <c r="BP7">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -274,10 +274,16 @@
     <t>['13', '22']</t>
   </si>
   <si>
+    <t>['71', '89']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
     <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1522,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1722,7 +1728,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2085,6 +2091,212 @@
       </c>
       <c r="BP7">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7450962</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45514.66666666666</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8">
+        <v>2.6</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>4.75</v>
+      </c>
+      <c r="T8">
+        <v>1.44</v>
+      </c>
+      <c r="U8">
+        <v>2.68</v>
+      </c>
+      <c r="V8">
+        <v>3.27</v>
+      </c>
+      <c r="W8">
+        <v>1.32</v>
+      </c>
+      <c r="X8">
+        <v>8.4</v>
+      </c>
+      <c r="Y8">
+        <v>1.05</v>
+      </c>
+      <c r="Z8">
+        <v>1.9</v>
+      </c>
+      <c r="AA8">
+        <v>3.4</v>
+      </c>
+      <c r="AB8">
+        <v>3.9</v>
+      </c>
+      <c r="AC8">
+        <v>1.05</v>
+      </c>
+      <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>1.38</v>
+      </c>
+      <c r="AF8">
+        <v>2.8</v>
+      </c>
+      <c r="AG8">
+        <v>2.2</v>
+      </c>
+      <c r="AH8">
+        <v>1.65</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
+      </c>
+      <c r="AJ8">
+        <v>1.73</v>
+      </c>
+      <c r="AK8">
+        <v>1.22</v>
+      </c>
+      <c r="AL8">
+        <v>1.3</v>
+      </c>
+      <c r="AM8">
+        <v>1.85</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>6</v>
+      </c>
+      <c r="AV8">
+        <v>5</v>
+      </c>
+      <c r="AW8">
+        <v>9</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
+      <c r="AY8">
+        <v>15</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8">
+        <v>8</v>
+      </c>
+      <c r="BD8">
+        <v>1.54</v>
+      </c>
+      <c r="BE8">
+        <v>7.8</v>
+      </c>
+      <c r="BF8">
+        <v>3.2</v>
+      </c>
+      <c r="BG8">
+        <v>1.35</v>
+      </c>
+      <c r="BH8">
+        <v>2.84</v>
+      </c>
+      <c r="BI8">
+        <v>1.85</v>
+      </c>
+      <c r="BJ8">
+        <v>1.95</v>
+      </c>
+      <c r="BK8">
+        <v>2.12</v>
+      </c>
+      <c r="BL8">
+        <v>1.64</v>
+      </c>
+      <c r="BM8">
+        <v>2.84</v>
+      </c>
+      <c r="BN8">
+        <v>1.35</v>
+      </c>
+      <c r="BO8">
+        <v>4</v>
+      </c>
+      <c r="BP8">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,12 +247,12 @@
     <t>Istra 1961</t>
   </si>
   <si>
+    <t>Lokomotiva Zagreb</t>
+  </si>
+  <si>
     <t>Varaždin</t>
   </si>
   <si>
-    <t>Lokomotiva Zagreb</t>
-  </si>
-  <si>
     <t>Slaven Koprivnica</t>
   </si>
   <si>
@@ -277,6 +277,12 @@
     <t>['71', '89']</t>
   </si>
   <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -284,6 +290,12 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['21', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1086,7 +1098,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1292,7 +1304,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1522,7 +1534,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1728,7 +1740,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2140,7 +2152,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2297,6 +2309,624 @@
       </c>
       <c r="BP8">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7450960</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45515.5625</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9">
+        <v>4.33</v>
+      </c>
+      <c r="R9">
+        <v>2.38</v>
+      </c>
+      <c r="S9">
+        <v>2.38</v>
+      </c>
+      <c r="T9">
+        <v>1.33</v>
+      </c>
+      <c r="U9">
+        <v>3.15</v>
+      </c>
+      <c r="V9">
+        <v>2.56</v>
+      </c>
+      <c r="W9">
+        <v>1.48</v>
+      </c>
+      <c r="X9">
+        <v>6.05</v>
+      </c>
+      <c r="Y9">
+        <v>1.11</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>3.7</v>
+      </c>
+      <c r="AB9">
+        <v>1.75</v>
+      </c>
+      <c r="AC9">
+        <v>1.02</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>1.22</v>
+      </c>
+      <c r="AF9">
+        <v>3.8</v>
+      </c>
+      <c r="AG9">
+        <v>1.67</v>
+      </c>
+      <c r="AH9">
+        <v>2.15</v>
+      </c>
+      <c r="AI9">
+        <v>1.67</v>
+      </c>
+      <c r="AJ9">
+        <v>2.1</v>
+      </c>
+      <c r="AK9">
+        <v>1.9</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.24</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9">
+        <v>7</v>
+      </c>
+      <c r="AW9">
+        <v>8</v>
+      </c>
+      <c r="AX9">
+        <v>4</v>
+      </c>
+      <c r="AY9">
+        <v>14</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>13</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>16</v>
+      </c>
+      <c r="BD9">
+        <v>2.71</v>
+      </c>
+      <c r="BE9">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF9">
+        <v>1.67</v>
+      </c>
+      <c r="BG9">
+        <v>1.25</v>
+      </c>
+      <c r="BH9">
+        <v>3.42</v>
+      </c>
+      <c r="BI9">
+        <v>1.48</v>
+      </c>
+      <c r="BJ9">
+        <v>2.4</v>
+      </c>
+      <c r="BK9">
+        <v>1.98</v>
+      </c>
+      <c r="BL9">
+        <v>1.82</v>
+      </c>
+      <c r="BM9">
+        <v>2.38</v>
+      </c>
+      <c r="BN9">
+        <v>1.49</v>
+      </c>
+      <c r="BO9">
+        <v>3.2</v>
+      </c>
+      <c r="BP9">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7450961</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10">
+        <v>4.75</v>
+      </c>
+      <c r="R10">
+        <v>2.2</v>
+      </c>
+      <c r="S10">
+        <v>2.4</v>
+      </c>
+      <c r="T10">
+        <v>1.38</v>
+      </c>
+      <c r="U10">
+        <v>2.87</v>
+      </c>
+      <c r="V10">
+        <v>2.94</v>
+      </c>
+      <c r="W10">
+        <v>1.36</v>
+      </c>
+      <c r="X10">
+        <v>7.4</v>
+      </c>
+      <c r="Y10">
+        <v>1.07</v>
+      </c>
+      <c r="Z10">
+        <v>4.2</v>
+      </c>
+      <c r="AA10">
+        <v>3.7</v>
+      </c>
+      <c r="AB10">
+        <v>1.75</v>
+      </c>
+      <c r="AC10">
+        <v>1.03</v>
+      </c>
+      <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AE10">
+        <v>1.3</v>
+      </c>
+      <c r="AF10">
+        <v>3.2</v>
+      </c>
+      <c r="AG10">
+        <v>1.95</v>
+      </c>
+      <c r="AH10">
+        <v>1.85</v>
+      </c>
+      <c r="AI10">
+        <v>1.83</v>
+      </c>
+      <c r="AJ10">
+        <v>1.83</v>
+      </c>
+      <c r="AK10">
+        <v>1.94</v>
+      </c>
+      <c r="AL10">
+        <v>1.27</v>
+      </c>
+      <c r="AM10">
+        <v>1.21</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>8</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>7</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>6</v>
+      </c>
+      <c r="BC10">
+        <v>11</v>
+      </c>
+      <c r="BD10">
+        <v>3</v>
+      </c>
+      <c r="BE10">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF10">
+        <v>1.57</v>
+      </c>
+      <c r="BG10">
+        <v>1.28</v>
+      </c>
+      <c r="BH10">
+        <v>3.2</v>
+      </c>
+      <c r="BI10">
+        <v>1.53</v>
+      </c>
+      <c r="BJ10">
+        <v>2.28</v>
+      </c>
+      <c r="BK10">
+        <v>1.93</v>
+      </c>
+      <c r="BL10">
+        <v>1.78</v>
+      </c>
+      <c r="BM10">
+        <v>2.51</v>
+      </c>
+      <c r="BN10">
+        <v>1.44</v>
+      </c>
+      <c r="BO10">
+        <v>3.42</v>
+      </c>
+      <c r="BP10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7450963</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2.2</v>
+      </c>
+      <c r="S11">
+        <v>2.3</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>3.01</v>
+      </c>
+      <c r="V11">
+        <v>2.83</v>
+      </c>
+      <c r="W11">
+        <v>1.4</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.08</v>
+      </c>
+      <c r="Z11">
+        <v>5.25</v>
+      </c>
+      <c r="AA11">
+        <v>3.6</v>
+      </c>
+      <c r="AB11">
+        <v>1.67</v>
+      </c>
+      <c r="AC11">
+        <v>1.03</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>1.29</v>
+      </c>
+      <c r="AF11">
+        <v>3.3</v>
+      </c>
+      <c r="AG11">
+        <v>1.95</v>
+      </c>
+      <c r="AH11">
+        <v>1.85</v>
+      </c>
+      <c r="AI11">
+        <v>1.83</v>
+      </c>
+      <c r="AJ11">
+        <v>1.83</v>
+      </c>
+      <c r="AK11">
+        <v>1.93</v>
+      </c>
+      <c r="AL11">
+        <v>1.27</v>
+      </c>
+      <c r="AM11">
+        <v>1.22</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>3.14</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3.14</v>
+      </c>
+      <c r="AU11">
+        <v>3</v>
+      </c>
+      <c r="AV11">
+        <v>6</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>7</v>
+      </c>
+      <c r="AY11">
+        <v>6</v>
+      </c>
+      <c r="AZ11">
+        <v>13</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>7</v>
+      </c>
+      <c r="BC11">
+        <v>7</v>
+      </c>
+      <c r="BD11">
+        <v>2.81</v>
+      </c>
+      <c r="BE11">
+        <v>8</v>
+      </c>
+      <c r="BF11">
+        <v>1.64</v>
+      </c>
+      <c r="BG11">
+        <v>1.33</v>
+      </c>
+      <c r="BH11">
+        <v>2.93</v>
+      </c>
+      <c r="BI11">
+        <v>1.61</v>
+      </c>
+      <c r="BJ11">
+        <v>2.12</v>
+      </c>
+      <c r="BK11">
+        <v>2.07</v>
+      </c>
+      <c r="BL11">
+        <v>1.67</v>
+      </c>
+      <c r="BM11">
+        <v>2.71</v>
+      </c>
+      <c r="BN11">
+        <v>1.38</v>
+      </c>
+      <c r="BO11">
+        <v>3.74</v>
+      </c>
+      <c r="BP11">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['6', '19', '56']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -657,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1537,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1740,7 +1743,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2152,7 +2155,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2358,7 +2361,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2770,7 +2773,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2927,6 +2930,212 @@
       </c>
       <c r="BP11">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7450964</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45520.66666666666</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12">
+        <v>1.57</v>
+      </c>
+      <c r="R12">
+        <v>2.88</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <v>1.29</v>
+      </c>
+      <c r="U12">
+        <v>3.25</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.12</v>
+      </c>
+      <c r="Z12">
+        <v>1.18</v>
+      </c>
+      <c r="AA12">
+        <v>7</v>
+      </c>
+      <c r="AB12">
+        <v>13</v>
+      </c>
+      <c r="AC12">
+        <v>1.01</v>
+      </c>
+      <c r="AD12">
+        <v>15</v>
+      </c>
+      <c r="AE12">
+        <v>1.17</v>
+      </c>
+      <c r="AF12">
+        <v>4.5</v>
+      </c>
+      <c r="AG12">
+        <v>1.53</v>
+      </c>
+      <c r="AH12">
+        <v>2.4</v>
+      </c>
+      <c r="AI12">
+        <v>2.38</v>
+      </c>
+      <c r="AJ12">
+        <v>1.53</v>
+      </c>
+      <c r="AK12">
+        <v>1.02</v>
+      </c>
+      <c r="AL12">
+        <v>1.09</v>
+      </c>
+      <c r="AM12">
+        <v>3.7</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>1.5</v>
+      </c>
+      <c r="AR12">
+        <v>2.03</v>
+      </c>
+      <c r="AS12">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT12">
+        <v>2.84</v>
+      </c>
+      <c r="AU12">
+        <v>6</v>
+      </c>
+      <c r="AV12">
+        <v>3</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>10</v>
+      </c>
+      <c r="AZ12">
+        <v>5</v>
+      </c>
+      <c r="BA12">
+        <v>5</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>5</v>
+      </c>
+      <c r="BD12">
+        <v>1.09</v>
+      </c>
+      <c r="BE12">
+        <v>14.5</v>
+      </c>
+      <c r="BF12">
+        <v>9.65</v>
+      </c>
+      <c r="BG12">
+        <v>1.35</v>
+      </c>
+      <c r="BH12">
+        <v>2.84</v>
+      </c>
+      <c r="BI12">
+        <v>1.65</v>
+      </c>
+      <c r="BJ12">
+        <v>2.11</v>
+      </c>
+      <c r="BK12">
+        <v>2.07</v>
+      </c>
+      <c r="BL12">
+        <v>1.64</v>
+      </c>
+      <c r="BM12">
+        <v>2.78</v>
+      </c>
+      <c r="BN12">
+        <v>1.36</v>
+      </c>
+      <c r="BO12">
+        <v>3.4</v>
+      </c>
+      <c r="BP12">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -286,6 +286,9 @@
     <t>['6', '19', '56']</t>
   </si>
   <si>
+    <t>['6', '62']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -299,6 +302,9 @@
   </si>
   <si>
     <t>['21', '90+5']</t>
+  </si>
+  <si>
+    <t>['22', '37']</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1412,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1537,7 +1543,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1743,7 +1749,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2155,7 +2161,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2361,7 +2367,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2773,7 +2779,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3136,6 +3142,212 @@
       </c>
       <c r="BP12">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7450968</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45521.66666666666</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13">
+        <v>3.25</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
+        <v>3.1</v>
+      </c>
+      <c r="T13">
+        <v>1.33</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2.5</v>
+      </c>
+      <c r="W13">
+        <v>1.48</v>
+      </c>
+      <c r="X13">
+        <v>5.75</v>
+      </c>
+      <c r="Y13">
+        <v>1.1</v>
+      </c>
+      <c r="Z13">
+        <v>2.63</v>
+      </c>
+      <c r="AA13">
+        <v>3.5</v>
+      </c>
+      <c r="AB13">
+        <v>2.45</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
+        <v>1.25</v>
+      </c>
+      <c r="AF13">
+        <v>3.6</v>
+      </c>
+      <c r="AG13">
+        <v>1.8</v>
+      </c>
+      <c r="AH13">
+        <v>2</v>
+      </c>
+      <c r="AI13">
+        <v>1.67</v>
+      </c>
+      <c r="AJ13">
+        <v>2.1</v>
+      </c>
+      <c r="AK13">
+        <v>1.53</v>
+      </c>
+      <c r="AL13">
+        <v>1.3</v>
+      </c>
+      <c r="AM13">
+        <v>1.48</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>0.5</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1.15</v>
+      </c>
+      <c r="AT13">
+        <v>1.15</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>10</v>
+      </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>6</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>16</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>12</v>
+      </c>
+      <c r="BC13">
+        <v>17</v>
+      </c>
+      <c r="BD13">
+        <v>2.2</v>
+      </c>
+      <c r="BE13">
+        <v>7.3</v>
+      </c>
+      <c r="BF13">
+        <v>1.97</v>
+      </c>
+      <c r="BG13">
+        <v>1.29</v>
+      </c>
+      <c r="BH13">
+        <v>3.14</v>
+      </c>
+      <c r="BI13">
+        <v>1.54</v>
+      </c>
+      <c r="BJ13">
+        <v>2.25</v>
+      </c>
+      <c r="BK13">
+        <v>2</v>
+      </c>
+      <c r="BL13">
+        <v>1.8</v>
+      </c>
+      <c r="BM13">
+        <v>2.54</v>
+      </c>
+      <c r="BN13">
+        <v>1.43</v>
+      </c>
+      <c r="BO13">
+        <v>3.48</v>
+      </c>
+      <c r="BP13">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,6 +289,15 @@
     <t>['6', '62']</t>
   </si>
   <si>
+    <t>['56', '74']</t>
+  </si>
+  <si>
+    <t>['38', '82']</t>
+  </si>
+  <si>
+    <t>['18', '24', '27', '66']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -305,6 +314,12 @@
   </si>
   <si>
     <t>['22', '37']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['53', '61']</t>
   </si>
 </sst>
 </file>
@@ -666,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1212,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1543,7 +1558,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1749,7 +1764,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2161,7 +2176,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2367,7 +2382,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2779,7 +2794,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3191,7 +3206,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3348,6 +3363,624 @@
       </c>
       <c r="BP13">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7450967</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45522.57638888889</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2.38</v>
+      </c>
+      <c r="S14">
+        <v>6.5</v>
+      </c>
+      <c r="T14">
+        <v>1.3</v>
+      </c>
+      <c r="U14">
+        <v>3.15</v>
+      </c>
+      <c r="V14">
+        <v>2.45</v>
+      </c>
+      <c r="W14">
+        <v>1.5</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>1.12</v>
+      </c>
+      <c r="Z14">
+        <v>1.45</v>
+      </c>
+      <c r="AA14">
+        <v>4.5</v>
+      </c>
+      <c r="AB14">
+        <v>6.5</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>16</v>
+      </c>
+      <c r="AE14">
+        <v>1.2</v>
+      </c>
+      <c r="AF14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>1.85</v>
+      </c>
+      <c r="AH14">
+        <v>1.95</v>
+      </c>
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>1.73</v>
+      </c>
+      <c r="AK14">
+        <v>1.09</v>
+      </c>
+      <c r="AL14">
+        <v>1.15</v>
+      </c>
+      <c r="AM14">
+        <v>2.9</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
+      <c r="AR14">
+        <v>1.27</v>
+      </c>
+      <c r="AS14">
+        <v>1.87</v>
+      </c>
+      <c r="AT14">
+        <v>3.14</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>9</v>
+      </c>
+      <c r="AZ14">
+        <v>6</v>
+      </c>
+      <c r="BA14">
+        <v>10</v>
+      </c>
+      <c r="BB14">
+        <v>7</v>
+      </c>
+      <c r="BC14">
+        <v>17</v>
+      </c>
+      <c r="BD14">
+        <v>1.34</v>
+      </c>
+      <c r="BE14">
+        <v>8.4</v>
+      </c>
+      <c r="BF14">
+        <v>4.46</v>
+      </c>
+      <c r="BG14">
+        <v>1.26</v>
+      </c>
+      <c r="BH14">
+        <v>3.34</v>
+      </c>
+      <c r="BI14">
+        <v>1.49</v>
+      </c>
+      <c r="BJ14">
+        <v>2.38</v>
+      </c>
+      <c r="BK14">
+        <v>1.87</v>
+      </c>
+      <c r="BL14">
+        <v>1.83</v>
+      </c>
+      <c r="BM14">
+        <v>2.4</v>
+      </c>
+      <c r="BN14">
+        <v>1.48</v>
+      </c>
+      <c r="BO14">
+        <v>3.28</v>
+      </c>
+      <c r="BP14">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7450965</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45522.66666666666</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>2.2</v>
+      </c>
+      <c r="S15">
+        <v>2.38</v>
+      </c>
+      <c r="T15">
+        <v>1.42</v>
+      </c>
+      <c r="U15">
+        <v>2.7</v>
+      </c>
+      <c r="V15">
+        <v>2.85</v>
+      </c>
+      <c r="W15">
+        <v>1.38</v>
+      </c>
+      <c r="X15">
+        <v>8</v>
+      </c>
+      <c r="Y15">
+        <v>1.08</v>
+      </c>
+      <c r="Z15">
+        <v>4.75</v>
+      </c>
+      <c r="AA15">
+        <v>3.6</v>
+      </c>
+      <c r="AB15">
+        <v>1.75</v>
+      </c>
+      <c r="AC15">
+        <v>1.05</v>
+      </c>
+      <c r="AD15">
+        <v>10.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.3</v>
+      </c>
+      <c r="AF15">
+        <v>3.15</v>
+      </c>
+      <c r="AG15">
+        <v>1.95</v>
+      </c>
+      <c r="AH15">
+        <v>1.85</v>
+      </c>
+      <c r="AI15">
+        <v>1.91</v>
+      </c>
+      <c r="AJ15">
+        <v>1.8</v>
+      </c>
+      <c r="AK15">
+        <v>2.05</v>
+      </c>
+      <c r="AL15">
+        <v>1.24</v>
+      </c>
+      <c r="AM15">
+        <v>1.17</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU15">
+        <v>9</v>
+      </c>
+      <c r="AV15">
+        <v>7</v>
+      </c>
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>8</v>
+      </c>
+      <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
+        <v>15</v>
+      </c>
+      <c r="BA15">
+        <v>4</v>
+      </c>
+      <c r="BB15">
+        <v>5</v>
+      </c>
+      <c r="BC15">
+        <v>9</v>
+      </c>
+      <c r="BD15">
+        <v>2.81</v>
+      </c>
+      <c r="BE15">
+        <v>8</v>
+      </c>
+      <c r="BF15">
+        <v>1.64</v>
+      </c>
+      <c r="BG15">
+        <v>1.27</v>
+      </c>
+      <c r="BH15">
+        <v>3.28</v>
+      </c>
+      <c r="BI15">
+        <v>1.51</v>
+      </c>
+      <c r="BJ15">
+        <v>2.32</v>
+      </c>
+      <c r="BK15">
+        <v>1.9</v>
+      </c>
+      <c r="BL15">
+        <v>1.8</v>
+      </c>
+      <c r="BM15">
+        <v>2.45</v>
+      </c>
+      <c r="BN15">
+        <v>1.46</v>
+      </c>
+      <c r="BO15">
+        <v>3.34</v>
+      </c>
+      <c r="BP15">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7450966</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45522.66666666666</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16">
+        <v>2.1</v>
+      </c>
+      <c r="R16">
+        <v>2.25</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>1.35</v>
+      </c>
+      <c r="U16">
+        <v>3.1</v>
+      </c>
+      <c r="V16">
+        <v>2.76</v>
+      </c>
+      <c r="W16">
+        <v>1.42</v>
+      </c>
+      <c r="X16">
+        <v>6.6</v>
+      </c>
+      <c r="Y16">
+        <v>1.09</v>
+      </c>
+      <c r="Z16">
+        <v>1.55</v>
+      </c>
+      <c r="AA16">
+        <v>4.1</v>
+      </c>
+      <c r="AB16">
+        <v>5.5</v>
+      </c>
+      <c r="AC16">
+        <v>1.02</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>1.25</v>
+      </c>
+      <c r="AF16">
+        <v>3.6</v>
+      </c>
+      <c r="AG16">
+        <v>1.95</v>
+      </c>
+      <c r="AH16">
+        <v>1.85</v>
+      </c>
+      <c r="AI16">
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <v>1.73</v>
+      </c>
+      <c r="AK16">
+        <v>1.09</v>
+      </c>
+      <c r="AL16">
+        <v>1.16</v>
+      </c>
+      <c r="AM16">
+        <v>2.75</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1.93</v>
+      </c>
+      <c r="AS16">
+        <v>0.58</v>
+      </c>
+      <c r="AT16">
+        <v>2.51</v>
+      </c>
+      <c r="AU16">
+        <v>6</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>4</v>
+      </c>
+      <c r="AX16">
+        <v>6</v>
+      </c>
+      <c r="AY16">
+        <v>10</v>
+      </c>
+      <c r="AZ16">
+        <v>8</v>
+      </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>6</v>
+      </c>
+      <c r="BD16">
+        <v>1.28</v>
+      </c>
+      <c r="BE16">
+        <v>9</v>
+      </c>
+      <c r="BF16">
+        <v>5.06</v>
+      </c>
+      <c r="BG16">
+        <v>1.35</v>
+      </c>
+      <c r="BH16">
+        <v>2.84</v>
+      </c>
+      <c r="BI16">
+        <v>1.66</v>
+      </c>
+      <c r="BJ16">
+        <v>2.09</v>
+      </c>
+      <c r="BK16">
+        <v>2.1</v>
+      </c>
+      <c r="BL16">
+        <v>1.62</v>
+      </c>
+      <c r="BM16">
+        <v>2.79</v>
+      </c>
+      <c r="BN16">
+        <v>1.36</v>
+      </c>
+      <c r="BO16">
+        <v>3.6</v>
+      </c>
+      <c r="BP16">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -2546,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7450961</v>
+        <v>7450963</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -2561,70 +2561,70 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q10">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R10">
         <v>2.2</v>
       </c>
       <c r="S10">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T10">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U10">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="V10">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="W10">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X10">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y10">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z10">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="AA10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB10">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AC10">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>9</v>
       </c>
       <c r="AE10">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF10">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG10">
         <v>1.95</v>
@@ -2651,100 +2651,100 @@
         <v>1.83</v>
       </c>
       <c r="AK10">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="AL10">
         <v>1.27</v>
       </c>
       <c r="AM10">
+        <v>1.22</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>3.14</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3.14</v>
+      </c>
+      <c r="AU10">
+        <v>3</v>
+      </c>
+      <c r="AV10">
+        <v>6</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>7</v>
+      </c>
+      <c r="AY10">
+        <v>6</v>
+      </c>
+      <c r="AZ10">
+        <v>13</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>7</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>2.81</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>1.64</v>
+      </c>
+      <c r="BG10">
+        <v>1.33</v>
+      </c>
+      <c r="BH10">
+        <v>2.93</v>
+      </c>
+      <c r="BI10">
+        <v>1.61</v>
+      </c>
+      <c r="BJ10">
+        <v>2.12</v>
+      </c>
+      <c r="BK10">
+        <v>2.07</v>
+      </c>
+      <c r="BL10">
+        <v>1.67</v>
+      </c>
+      <c r="BM10">
+        <v>2.71</v>
+      </c>
+      <c r="BN10">
+        <v>1.38</v>
+      </c>
+      <c r="BO10">
+        <v>3.74</v>
+      </c>
+      <c r="BP10">
         <v>1.21</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>3</v>
-      </c>
-      <c r="AW10">
-        <v>8</v>
-      </c>
-      <c r="AX10">
-        <v>4</v>
-      </c>
-      <c r="AY10">
-        <v>8</v>
-      </c>
-      <c r="AZ10">
-        <v>7</v>
-      </c>
-      <c r="BA10">
-        <v>5</v>
-      </c>
-      <c r="BB10">
-        <v>6</v>
-      </c>
-      <c r="BC10">
-        <v>11</v>
-      </c>
-      <c r="BD10">
-        <v>3</v>
-      </c>
-      <c r="BE10">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF10">
-        <v>1.57</v>
-      </c>
-      <c r="BG10">
-        <v>1.28</v>
-      </c>
-      <c r="BH10">
-        <v>3.2</v>
-      </c>
-      <c r="BI10">
-        <v>1.53</v>
-      </c>
-      <c r="BJ10">
-        <v>2.28</v>
-      </c>
-      <c r="BK10">
-        <v>1.93</v>
-      </c>
-      <c r="BL10">
-        <v>1.78</v>
-      </c>
-      <c r="BM10">
-        <v>2.51</v>
-      </c>
-      <c r="BN10">
-        <v>1.44</v>
-      </c>
-      <c r="BO10">
-        <v>3.42</v>
-      </c>
-      <c r="BP10">
-        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7450963</v>
+        <v>7450961</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2767,70 +2767,70 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R11">
         <v>2.2</v>
       </c>
       <c r="S11">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T11">
+        <v>1.38</v>
+      </c>
+      <c r="U11">
+        <v>2.87</v>
+      </c>
+      <c r="V11">
+        <v>2.94</v>
+      </c>
+      <c r="W11">
         <v>1.36</v>
       </c>
-      <c r="U11">
-        <v>3.01</v>
-      </c>
-      <c r="V11">
-        <v>2.83</v>
-      </c>
-      <c r="W11">
-        <v>1.4</v>
-      </c>
       <c r="X11">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Y11">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z11">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="AA11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB11">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AC11">
         <v>1.03</v>
@@ -2839,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="AE11">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF11">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG11">
         <v>1.95</v>
@@ -2857,13 +2857,13 @@
         <v>1.83</v>
       </c>
       <c r="AK11">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AL11">
         <v>1.27</v>
       </c>
       <c r="AM11">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -2872,85 +2872,85 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV11">
+        <v>3</v>
+      </c>
+      <c r="AW11">
+        <v>8</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>7</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
         <v>6</v>
       </c>
-      <c r="AW11">
-        <v>3</v>
-      </c>
-      <c r="AX11">
-        <v>7</v>
-      </c>
-      <c r="AY11">
-        <v>6</v>
-      </c>
-      <c r="AZ11">
-        <v>13</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>7</v>
-      </c>
       <c r="BC11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD11">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="BE11">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF11">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="BG11">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BH11">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BI11">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="BJ11">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BK11">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BL11">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="BM11">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="BN11">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BO11">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
       <c r="BP11">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>['53', '61']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2460,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3081,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3981,6 +3984,212 @@
       </c>
       <c r="BP16">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7451014</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17">
+        <v>2.5</v>
+      </c>
+      <c r="R17">
+        <v>2.25</v>
+      </c>
+      <c r="S17">
+        <v>4.33</v>
+      </c>
+      <c r="T17">
+        <v>1.36</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>2.75</v>
+      </c>
+      <c r="W17">
+        <v>1.4</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>1.1</v>
+      </c>
+      <c r="Z17">
+        <v>1.9</v>
+      </c>
+      <c r="AA17">
+        <v>3.7</v>
+      </c>
+      <c r="AB17">
+        <v>3.8</v>
+      </c>
+      <c r="AC17">
+        <v>1.01</v>
+      </c>
+      <c r="AD17">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>1.24</v>
+      </c>
+      <c r="AF17">
+        <v>3.48</v>
+      </c>
+      <c r="AG17">
+        <v>1.8</v>
+      </c>
+      <c r="AH17">
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <v>1.67</v>
+      </c>
+      <c r="AJ17">
+        <v>2.1</v>
+      </c>
+      <c r="AK17">
+        <v>1.35</v>
+      </c>
+      <c r="AL17">
+        <v>1.28</v>
+      </c>
+      <c r="AM17">
+        <v>1.65</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1.5</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>1.8</v>
+      </c>
+      <c r="AS17">
+        <v>0.76</v>
+      </c>
+      <c r="AT17">
+        <v>2.56</v>
+      </c>
+      <c r="AU17">
+        <v>4</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>12</v>
+      </c>
+      <c r="AX17">
+        <v>5</v>
+      </c>
+      <c r="AY17">
+        <v>16</v>
+      </c>
+      <c r="AZ17">
+        <v>7</v>
+      </c>
+      <c r="BA17">
+        <v>13</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>14</v>
+      </c>
+      <c r="BD17">
+        <v>1.59</v>
+      </c>
+      <c r="BE17">
+        <v>7.8</v>
+      </c>
+      <c r="BF17">
+        <v>3</v>
+      </c>
+      <c r="BG17">
+        <v>1.25</v>
+      </c>
+      <c r="BH17">
+        <v>3.42</v>
+      </c>
+      <c r="BI17">
+        <v>1.47</v>
+      </c>
+      <c r="BJ17">
+        <v>2.42</v>
+      </c>
+      <c r="BK17">
+        <v>2.38</v>
+      </c>
+      <c r="BL17">
+        <v>1.87</v>
+      </c>
+      <c r="BM17">
+        <v>2.34</v>
+      </c>
+      <c r="BN17">
+        <v>1.5</v>
+      </c>
+      <c r="BO17">
+        <v>3.18</v>
+      </c>
+      <c r="BP17">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,12 @@
     <t>['18', '24', '27', '66']</t>
   </si>
   <si>
+    <t>['64', '78']</t>
+  </si>
+  <si>
+    <t>['6', '57']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -323,6 +329,9 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1570,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1767,7 +1776,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2179,7 +2188,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2385,7 +2394,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2591,7 +2600,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2875,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3209,7 +3218,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3415,7 +3424,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3621,7 +3630,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4033,7 +4042,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4190,6 +4199,418 @@
       </c>
       <c r="BP17">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7450970</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45528.55208333334</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18">
+        <v>2.5</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>4.33</v>
+      </c>
+      <c r="T18">
+        <v>1.34</v>
+      </c>
+      <c r="U18">
+        <v>3.12</v>
+      </c>
+      <c r="V18">
+        <v>2.74</v>
+      </c>
+      <c r="W18">
+        <v>1.43</v>
+      </c>
+      <c r="X18">
+        <v>6.6</v>
+      </c>
+      <c r="Y18">
+        <v>1.09</v>
+      </c>
+      <c r="Z18">
+        <v>1.9</v>
+      </c>
+      <c r="AA18">
+        <v>3.6</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>1.02</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>1.25</v>
+      </c>
+      <c r="AF18">
+        <v>3.6</v>
+      </c>
+      <c r="AG18">
+        <v>1.85</v>
+      </c>
+      <c r="AH18">
+        <v>1.95</v>
+      </c>
+      <c r="AI18">
+        <v>1.73</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>1.24</v>
+      </c>
+      <c r="AL18">
+        <v>1.26</v>
+      </c>
+      <c r="AM18">
+        <v>1.89</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS18">
+        <v>1.46</v>
+      </c>
+      <c r="AT18">
+        <v>2.27</v>
+      </c>
+      <c r="AU18">
+        <v>6</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>6</v>
+      </c>
+      <c r="AX18">
+        <v>4</v>
+      </c>
+      <c r="AY18">
+        <v>12</v>
+      </c>
+      <c r="AZ18">
+        <v>4</v>
+      </c>
+      <c r="BA18">
+        <v>2</v>
+      </c>
+      <c r="BB18">
+        <v>6</v>
+      </c>
+      <c r="BC18">
+        <v>8</v>
+      </c>
+      <c r="BD18">
+        <v>1.57</v>
+      </c>
+      <c r="BE18">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF18">
+        <v>3</v>
+      </c>
+      <c r="BG18">
+        <v>1.26</v>
+      </c>
+      <c r="BH18">
+        <v>3.34</v>
+      </c>
+      <c r="BI18">
+        <v>1.48</v>
+      </c>
+      <c r="BJ18">
+        <v>2.4</v>
+      </c>
+      <c r="BK18">
+        <v>2.38</v>
+      </c>
+      <c r="BL18">
+        <v>1.85</v>
+      </c>
+      <c r="BM18">
+        <v>2.34</v>
+      </c>
+      <c r="BN18">
+        <v>1.5</v>
+      </c>
+      <c r="BO18">
+        <v>3.2</v>
+      </c>
+      <c r="BP18">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7450973</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45528.64583333334</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19">
+        <v>1.62</v>
+      </c>
+      <c r="R19">
+        <v>2.88</v>
+      </c>
+      <c r="S19">
+        <v>9.5</v>
+      </c>
+      <c r="T19">
+        <v>1.25</v>
+      </c>
+      <c r="U19">
+        <v>3.72</v>
+      </c>
+      <c r="V19">
+        <v>2.17</v>
+      </c>
+      <c r="W19">
+        <v>1.64</v>
+      </c>
+      <c r="X19">
+        <v>4.7</v>
+      </c>
+      <c r="Y19">
+        <v>1.17</v>
+      </c>
+      <c r="Z19">
+        <v>1.2</v>
+      </c>
+      <c r="AA19">
+        <v>6.5</v>
+      </c>
+      <c r="AB19">
+        <v>12</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>1.12</v>
+      </c>
+      <c r="AF19">
+        <v>5.25</v>
+      </c>
+      <c r="AG19">
+        <v>1.48</v>
+      </c>
+      <c r="AH19">
+        <v>2.6</v>
+      </c>
+      <c r="AI19">
+        <v>2.1</v>
+      </c>
+      <c r="AJ19">
+        <v>1.67</v>
+      </c>
+      <c r="AK19">
+        <v>1.01</v>
+      </c>
+      <c r="AL19">
+        <v>1.06</v>
+      </c>
+      <c r="AM19">
+        <v>5.45</v>
+      </c>
+      <c r="AN19">
+        <v>3</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1.9</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>2.9</v>
+      </c>
+      <c r="AU19">
+        <v>9</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>13</v>
+      </c>
+      <c r="AZ19">
+        <v>5</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>9</v>
+      </c>
+      <c r="BC19">
+        <v>11</v>
+      </c>
+      <c r="BD19">
+        <v>1.11</v>
+      </c>
+      <c r="BE19">
+        <v>23</v>
+      </c>
+      <c r="BF19">
+        <v>6.89</v>
+      </c>
+      <c r="BG19">
+        <v>1.32</v>
+      </c>
+      <c r="BH19">
+        <v>3.1</v>
+      </c>
+      <c r="BI19">
+        <v>1.57</v>
+      </c>
+      <c r="BJ19">
+        <v>2.31</v>
+      </c>
+      <c r="BK19">
+        <v>2</v>
+      </c>
+      <c r="BL19">
+        <v>1.79</v>
+      </c>
+      <c r="BM19">
+        <v>2.61</v>
+      </c>
+      <c r="BN19">
+        <v>1.45</v>
+      </c>
+      <c r="BO19">
+        <v>3.4</v>
+      </c>
+      <c r="BP19">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,9 @@
     <t>['6', '57']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -332,6 +335,12 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['13', '60']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1579,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1776,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2188,7 +2197,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2266,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2394,7 +2403,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2600,7 +2609,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2887,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3218,7 +3227,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3424,7 +3433,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3630,7 +3639,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4042,7 +4051,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4454,7 +4463,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4611,6 +4620,418 @@
       </c>
       <c r="BP19">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7450971</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45529.55208333334</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>2.25</v>
+      </c>
+      <c r="S20">
+        <v>2.25</v>
+      </c>
+      <c r="T20">
+        <v>1.36</v>
+      </c>
+      <c r="U20">
+        <v>3.01</v>
+      </c>
+      <c r="V20">
+        <v>2.84</v>
+      </c>
+      <c r="W20">
+        <v>1.4</v>
+      </c>
+      <c r="X20">
+        <v>7.1</v>
+      </c>
+      <c r="Y20">
+        <v>1.08</v>
+      </c>
+      <c r="Z20">
+        <v>4.75</v>
+      </c>
+      <c r="AA20">
+        <v>3.9</v>
+      </c>
+      <c r="AB20">
+        <v>1.65</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>9</v>
+      </c>
+      <c r="AE20">
+        <v>1.29</v>
+      </c>
+      <c r="AF20">
+        <v>3.3</v>
+      </c>
+      <c r="AG20">
+        <v>1.85</v>
+      </c>
+      <c r="AH20">
+        <v>1.95</v>
+      </c>
+      <c r="AI20">
+        <v>1.83</v>
+      </c>
+      <c r="AJ20">
+        <v>1.83</v>
+      </c>
+      <c r="AK20">
+        <v>2</v>
+      </c>
+      <c r="AL20">
+        <v>1.29</v>
+      </c>
+      <c r="AM20">
+        <v>1.22</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1.92</v>
+      </c>
+      <c r="AS20">
+        <v>1.56</v>
+      </c>
+      <c r="AT20">
+        <v>3.48</v>
+      </c>
+      <c r="AU20">
+        <v>2</v>
+      </c>
+      <c r="AV20">
+        <v>10</v>
+      </c>
+      <c r="AW20">
+        <v>7</v>
+      </c>
+      <c r="AX20">
+        <v>5</v>
+      </c>
+      <c r="AY20">
+        <v>9</v>
+      </c>
+      <c r="AZ20">
+        <v>15</v>
+      </c>
+      <c r="BA20">
+        <v>2</v>
+      </c>
+      <c r="BB20">
+        <v>5</v>
+      </c>
+      <c r="BC20">
+        <v>7</v>
+      </c>
+      <c r="BD20">
+        <v>2.81</v>
+      </c>
+      <c r="BE20">
+        <v>7.8</v>
+      </c>
+      <c r="BF20">
+        <v>1.65</v>
+      </c>
+      <c r="BG20">
+        <v>1.34</v>
+      </c>
+      <c r="BH20">
+        <v>2.88</v>
+      </c>
+      <c r="BI20">
+        <v>1.63</v>
+      </c>
+      <c r="BJ20">
+        <v>2.09</v>
+      </c>
+      <c r="BK20">
+        <v>2.11</v>
+      </c>
+      <c r="BL20">
+        <v>1.65</v>
+      </c>
+      <c r="BM20">
+        <v>2.79</v>
+      </c>
+      <c r="BN20">
+        <v>1.36</v>
+      </c>
+      <c r="BO20">
+        <v>3.95</v>
+      </c>
+      <c r="BP20">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7450972</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45529.65625</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>3.6</v>
+      </c>
+      <c r="T21">
+        <v>1.37</v>
+      </c>
+      <c r="U21">
+        <v>2.96</v>
+      </c>
+      <c r="V21">
+        <v>2.9</v>
+      </c>
+      <c r="W21">
+        <v>1.39</v>
+      </c>
+      <c r="X21">
+        <v>7.2</v>
+      </c>
+      <c r="Y21">
+        <v>1.08</v>
+      </c>
+      <c r="Z21">
+        <v>2.25</v>
+      </c>
+      <c r="AA21">
+        <v>3.4</v>
+      </c>
+      <c r="AB21">
+        <v>3.1</v>
+      </c>
+      <c r="AC21">
+        <v>1.03</v>
+      </c>
+      <c r="AD21">
+        <v>9</v>
+      </c>
+      <c r="AE21">
+        <v>1.29</v>
+      </c>
+      <c r="AF21">
+        <v>3.3</v>
+      </c>
+      <c r="AG21">
+        <v>1.95</v>
+      </c>
+      <c r="AH21">
+        <v>1.85</v>
+      </c>
+      <c r="AI21">
+        <v>1.73</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>1.6</v>
+      </c>
+      <c r="AL21">
+        <v>1.3</v>
+      </c>
+      <c r="AM21">
+        <v>1.36</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>2.05</v>
+      </c>
+      <c r="AS21">
+        <v>1.06</v>
+      </c>
+      <c r="AT21">
+        <v>3.11</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>6</v>
+      </c>
+      <c r="AX21">
+        <v>3</v>
+      </c>
+      <c r="AY21">
+        <v>9</v>
+      </c>
+      <c r="AZ21">
+        <v>7</v>
+      </c>
+      <c r="BA21">
+        <v>11</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>15</v>
+      </c>
+      <c r="BD21">
+        <v>2.03</v>
+      </c>
+      <c r="BE21">
+        <v>7.2</v>
+      </c>
+      <c r="BF21">
+        <v>2.14</v>
+      </c>
+      <c r="BG21">
+        <v>1.29</v>
+      </c>
+      <c r="BH21">
+        <v>3.14</v>
+      </c>
+      <c r="BI21">
+        <v>1.55</v>
+      </c>
+      <c r="BJ21">
+        <v>2.23</v>
+      </c>
+      <c r="BK21">
+        <v>1.98</v>
+      </c>
+      <c r="BL21">
+        <v>1.74</v>
+      </c>
+      <c r="BM21">
+        <v>2.57</v>
+      </c>
+      <c r="BN21">
+        <v>1.42</v>
+      </c>
+      <c r="BO21">
+        <v>3.56</v>
+      </c>
+      <c r="BP21">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,9 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['42', '76']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -341,6 +344,9 @@
   </si>
   <si>
     <t>['13', '60']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1579,7 +1585,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1660,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1785,7 +1791,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2197,7 +2203,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2403,7 +2409,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2609,7 +2615,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3102,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3227,7 +3233,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3433,7 +3439,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3639,7 +3645,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4051,7 +4057,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4132,7 +4138,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -4463,7 +4469,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4669,7 +4675,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4875,7 +4881,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5032,6 +5038,212 @@
       </c>
       <c r="BP21">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7450974</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22">
+        <v>2.88</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>1.44</v>
+      </c>
+      <c r="U22">
+        <v>2.63</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>9</v>
+      </c>
+      <c r="Y22">
+        <v>1.07</v>
+      </c>
+      <c r="Z22">
+        <v>2.05</v>
+      </c>
+      <c r="AA22">
+        <v>3.4</v>
+      </c>
+      <c r="AB22">
+        <v>3.2</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>9</v>
+      </c>
+      <c r="AE22">
+        <v>1.29</v>
+      </c>
+      <c r="AF22">
+        <v>3.3</v>
+      </c>
+      <c r="AG22">
+        <v>2.1</v>
+      </c>
+      <c r="AH22">
+        <v>1.7</v>
+      </c>
+      <c r="AI22">
+        <v>1.91</v>
+      </c>
+      <c r="AJ22">
+        <v>1.8</v>
+      </c>
+      <c r="AK22">
+        <v>1.42</v>
+      </c>
+      <c r="AL22">
+        <v>1.25</v>
+      </c>
+      <c r="AM22">
+        <v>1.55</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <v>1.67</v>
+      </c>
+      <c r="AQ22">
+        <v>1.5</v>
+      </c>
+      <c r="AR22">
+        <v>1.22</v>
+      </c>
+      <c r="AS22">
+        <v>0.75</v>
+      </c>
+      <c r="AT22">
+        <v>1.97</v>
+      </c>
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>6</v>
+      </c>
+      <c r="AZ22">
+        <v>10</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>8</v>
+      </c>
+      <c r="BC22">
+        <v>8</v>
+      </c>
+      <c r="BD22">
+        <v>1.87</v>
+      </c>
+      <c r="BE22">
+        <v>7.3</v>
+      </c>
+      <c r="BF22">
+        <v>2.39</v>
+      </c>
+      <c r="BG22">
+        <v>1.35</v>
+      </c>
+      <c r="BH22">
+        <v>2.84</v>
+      </c>
+      <c r="BI22">
+        <v>1.63</v>
+      </c>
+      <c r="BJ22">
+        <v>2.09</v>
+      </c>
+      <c r="BK22">
+        <v>2.11</v>
+      </c>
+      <c r="BL22">
+        <v>1.65</v>
+      </c>
+      <c r="BM22">
+        <v>2.79</v>
+      </c>
+      <c r="BN22">
+        <v>1.36</v>
+      </c>
+      <c r="BO22">
+        <v>3.92</v>
+      </c>
+      <c r="BP22">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,9 @@
     <t>['42', '76']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -347,6 +350,9 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1585,7 +1591,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1791,7 +1797,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2203,7 +2209,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2409,7 +2415,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2615,7 +2621,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3233,7 +3239,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3311,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3439,7 +3445,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3645,7 +3651,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3726,7 +3732,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -3932,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.93</v>
@@ -4057,7 +4063,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4469,7 +4475,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4675,7 +4681,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4881,7 +4887,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5087,7 +5093,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5244,6 +5250,418 @@
       </c>
       <c r="BP22">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7450977</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45535.55208333334</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23">
+        <v>3.6</v>
+      </c>
+      <c r="R23">
+        <v>2.1</v>
+      </c>
+      <c r="S23">
+        <v>3.1</v>
+      </c>
+      <c r="T23">
+        <v>1.41</v>
+      </c>
+      <c r="U23">
+        <v>2.79</v>
+      </c>
+      <c r="V23">
+        <v>3.1</v>
+      </c>
+      <c r="W23">
+        <v>1.35</v>
+      </c>
+      <c r="X23">
+        <v>8.25</v>
+      </c>
+      <c r="Y23">
+        <v>1.07</v>
+      </c>
+      <c r="Z23">
+        <v>2.88</v>
+      </c>
+      <c r="AA23">
+        <v>3.2</v>
+      </c>
+      <c r="AB23">
+        <v>2.35</v>
+      </c>
+      <c r="AC23">
+        <v>1.05</v>
+      </c>
+      <c r="AD23">
+        <v>10.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.3</v>
+      </c>
+      <c r="AF23">
+        <v>3.15</v>
+      </c>
+      <c r="AG23">
+        <v>2.08</v>
+      </c>
+      <c r="AH23">
+        <v>1.73</v>
+      </c>
+      <c r="AI23">
+        <v>1.83</v>
+      </c>
+      <c r="AJ23">
+        <v>1.83</v>
+      </c>
+      <c r="AK23">
+        <v>1.4</v>
+      </c>
+      <c r="AL23">
+        <v>1.3</v>
+      </c>
+      <c r="AM23">
+        <v>1.5</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1.43</v>
+      </c>
+      <c r="AS23">
+        <v>0.84</v>
+      </c>
+      <c r="AT23">
+        <v>2.27</v>
+      </c>
+      <c r="AU23">
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>3</v>
+      </c>
+      <c r="AW23">
+        <v>6</v>
+      </c>
+      <c r="AX23">
+        <v>6</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>9</v>
+      </c>
+      <c r="BA23">
+        <v>4</v>
+      </c>
+      <c r="BB23">
+        <v>4</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>1.9</v>
+      </c>
+      <c r="BE23">
+        <v>7.3</v>
+      </c>
+      <c r="BF23">
+        <v>2.35</v>
+      </c>
+      <c r="BG23">
+        <v>1.4</v>
+      </c>
+      <c r="BH23">
+        <v>2.7</v>
+      </c>
+      <c r="BI23">
+        <v>1.7</v>
+      </c>
+      <c r="BJ23">
+        <v>2.11</v>
+      </c>
+      <c r="BK23">
+        <v>2.14</v>
+      </c>
+      <c r="BL23">
+        <v>1.68</v>
+      </c>
+      <c r="BM23">
+        <v>2.62</v>
+      </c>
+      <c r="BN23">
+        <v>1.42</v>
+      </c>
+      <c r="BO23">
+        <v>3.6</v>
+      </c>
+      <c r="BP23">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7450976</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45535.65625</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24">
+        <v>2.1</v>
+      </c>
+      <c r="R24">
+        <v>2.4</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.2</v>
+      </c>
+      <c r="V24">
+        <v>2.56</v>
+      </c>
+      <c r="W24">
+        <v>1.48</v>
+      </c>
+      <c r="X24">
+        <v>5.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.11</v>
+      </c>
+      <c r="Z24">
+        <v>1.55</v>
+      </c>
+      <c r="AA24">
+        <v>4.1</v>
+      </c>
+      <c r="AB24">
+        <v>4.75</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
+        <v>1.2</v>
+      </c>
+      <c r="AF24">
+        <v>4</v>
+      </c>
+      <c r="AG24">
+        <v>1.6</v>
+      </c>
+      <c r="AH24">
+        <v>2.3</v>
+      </c>
+      <c r="AI24">
+        <v>1.67</v>
+      </c>
+      <c r="AJ24">
+        <v>2.1</v>
+      </c>
+      <c r="AK24">
+        <v>1.22</v>
+      </c>
+      <c r="AL24">
+        <v>1.29</v>
+      </c>
+      <c r="AM24">
+        <v>2</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>1.41</v>
+      </c>
+      <c r="AS24">
+        <v>1.86</v>
+      </c>
+      <c r="AT24">
+        <v>3.27</v>
+      </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>5</v>
+      </c>
+      <c r="AX24">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>10</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
+      <c r="BA24">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>7</v>
+      </c>
+      <c r="BD24">
+        <v>1.6</v>
+      </c>
+      <c r="BE24">
+        <v>7.5</v>
+      </c>
+      <c r="BF24">
+        <v>3.01</v>
+      </c>
+      <c r="BG24">
+        <v>1.23</v>
+      </c>
+      <c r="BH24">
+        <v>3.56</v>
+      </c>
+      <c r="BI24">
+        <v>1.48</v>
+      </c>
+      <c r="BJ24">
+        <v>2.57</v>
+      </c>
+      <c r="BK24">
+        <v>2.38</v>
+      </c>
+      <c r="BL24">
+        <v>1.95</v>
+      </c>
+      <c r="BM24">
+        <v>2.28</v>
+      </c>
+      <c r="BN24">
+        <v>1.61</v>
+      </c>
+      <c r="BO24">
+        <v>3.05</v>
+      </c>
+      <c r="BP24">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -353,6 +356,12 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +1269,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1463,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1591,7 +1600,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1797,7 +1806,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2209,7 +2218,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2415,7 +2424,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2493,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2621,7 +2630,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2702,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>3.14</v>
@@ -3239,7 +3248,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3445,7 +3454,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3526,7 +3535,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.27</v>
@@ -3651,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3935,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4063,7 +4072,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4141,7 +4150,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4475,7 +4484,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4681,7 +4690,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4887,7 +4896,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5093,7 +5102,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5299,7 +5308,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5662,6 +5671,418 @@
       </c>
       <c r="BP24">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7450978</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45536.55208333334</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25">
+        <v>2.88</v>
+      </c>
+      <c r="R25">
+        <v>2.2</v>
+      </c>
+      <c r="S25">
+        <v>3.75</v>
+      </c>
+      <c r="T25">
+        <v>1.35</v>
+      </c>
+      <c r="U25">
+        <v>3.06</v>
+      </c>
+      <c r="V25">
+        <v>2.79</v>
+      </c>
+      <c r="W25">
+        <v>1.41</v>
+      </c>
+      <c r="X25">
+        <v>6.85</v>
+      </c>
+      <c r="Y25">
+        <v>1.08</v>
+      </c>
+      <c r="Z25">
+        <v>2.1</v>
+      </c>
+      <c r="AA25">
+        <v>3.3</v>
+      </c>
+      <c r="AB25">
+        <v>3.1</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>10</v>
+      </c>
+      <c r="AE25">
+        <v>1.22</v>
+      </c>
+      <c r="AF25">
+        <v>3.8</v>
+      </c>
+      <c r="AG25">
+        <v>1.95</v>
+      </c>
+      <c r="AH25">
+        <v>1.85</v>
+      </c>
+      <c r="AI25">
+        <v>1.73</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>1.33</v>
+      </c>
+      <c r="AL25">
+        <v>1.28</v>
+      </c>
+      <c r="AM25">
+        <v>1.66</v>
+      </c>
+      <c r="AN25">
+        <v>0.5</v>
+      </c>
+      <c r="AO25">
+        <v>0.5</v>
+      </c>
+      <c r="AP25">
+        <v>0.33</v>
+      </c>
+      <c r="AQ25">
+        <v>1.33</v>
+      </c>
+      <c r="AR25">
+        <v>1.8</v>
+      </c>
+      <c r="AS25">
+        <v>1.49</v>
+      </c>
+      <c r="AT25">
+        <v>3.29</v>
+      </c>
+      <c r="AU25">
+        <v>3</v>
+      </c>
+      <c r="AV25">
+        <v>8</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>10</v>
+      </c>
+      <c r="AY25">
+        <v>8</v>
+      </c>
+      <c r="AZ25">
+        <v>18</v>
+      </c>
+      <c r="BA25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <v>6</v>
+      </c>
+      <c r="BC25">
+        <v>10</v>
+      </c>
+      <c r="BD25">
+        <v>1.62</v>
+      </c>
+      <c r="BE25">
+        <v>7.7</v>
+      </c>
+      <c r="BF25">
+        <v>2.91</v>
+      </c>
+      <c r="BG25">
+        <v>1.21</v>
+      </c>
+      <c r="BH25">
+        <v>3.74</v>
+      </c>
+      <c r="BI25">
+        <v>1.41</v>
+      </c>
+      <c r="BJ25">
+        <v>2.6</v>
+      </c>
+      <c r="BK25">
+        <v>2.38</v>
+      </c>
+      <c r="BL25">
+        <v>1.92</v>
+      </c>
+      <c r="BM25">
+        <v>2.14</v>
+      </c>
+      <c r="BN25">
+        <v>1.67</v>
+      </c>
+      <c r="BO25">
+        <v>2.93</v>
+      </c>
+      <c r="BP25">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7450975</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45536.65625</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26">
+        <v>5.5</v>
+      </c>
+      <c r="R26">
+        <v>2.25</v>
+      </c>
+      <c r="S26">
+        <v>2.25</v>
+      </c>
+      <c r="T26">
+        <v>1.35</v>
+      </c>
+      <c r="U26">
+        <v>3.06</v>
+      </c>
+      <c r="V26">
+        <v>2.79</v>
+      </c>
+      <c r="W26">
+        <v>1.41</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+      <c r="Y26">
+        <v>1.09</v>
+      </c>
+      <c r="Z26">
+        <v>4.75</v>
+      </c>
+      <c r="AA26">
+        <v>3.75</v>
+      </c>
+      <c r="AB26">
+        <v>1.62</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>9</v>
+      </c>
+      <c r="AE26">
+        <v>1.25</v>
+      </c>
+      <c r="AF26">
+        <v>3.6</v>
+      </c>
+      <c r="AG26">
+        <v>1.8</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
+      <c r="AI26">
+        <v>1.83</v>
+      </c>
+      <c r="AJ26">
+        <v>1.83</v>
+      </c>
+      <c r="AK26">
+        <v>1.7</v>
+      </c>
+      <c r="AL26">
+        <v>1.3</v>
+      </c>
+      <c r="AM26">
+        <v>1.35</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AP26">
+        <v>2.33</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>1.71</v>
+      </c>
+      <c r="AS26">
+        <v>1.9</v>
+      </c>
+      <c r="AT26">
+        <v>3.61</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>9</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>4</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>7</v>
+      </c>
+      <c r="BD26">
+        <v>2.52</v>
+      </c>
+      <c r="BE26">
+        <v>7.5</v>
+      </c>
+      <c r="BF26">
+        <v>1.79</v>
+      </c>
+      <c r="BG26">
+        <v>1.46</v>
+      </c>
+      <c r="BH26">
+        <v>2.59</v>
+      </c>
+      <c r="BI26">
+        <v>1.82</v>
+      </c>
+      <c r="BJ26">
+        <v>1.98</v>
+      </c>
+      <c r="BK26">
+        <v>2.23</v>
+      </c>
+      <c r="BL26">
+        <v>1.62</v>
+      </c>
+      <c r="BM26">
+        <v>3.08</v>
+      </c>
+      <c r="BN26">
+        <v>1.3</v>
+      </c>
+      <c r="BO26">
+        <v>3.8</v>
+      </c>
+      <c r="BP26">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2505,7 +2508,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3120,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -4562,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4771,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -6083,6 +6086,212 @@
       </c>
       <c r="BP26">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7450982</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27">
+        <v>2.2</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>1.33</v>
+      </c>
+      <c r="U27">
+        <v>3.14</v>
+      </c>
+      <c r="V27">
+        <v>2.57</v>
+      </c>
+      <c r="W27">
+        <v>1.47</v>
+      </c>
+      <c r="X27">
+        <v>6.2</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>1.53</v>
+      </c>
+      <c r="AA27">
+        <v>3.75</v>
+      </c>
+      <c r="AB27">
+        <v>5.75</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>11</v>
+      </c>
+      <c r="AE27">
+        <v>1.2</v>
+      </c>
+      <c r="AF27">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>2.08</v>
+      </c>
+      <c r="AH27">
+        <v>1.73</v>
+      </c>
+      <c r="AI27">
+        <v>2.1</v>
+      </c>
+      <c r="AJ27">
+        <v>1.67</v>
+      </c>
+      <c r="AK27">
+        <v>1.18</v>
+      </c>
+      <c r="AL27">
+        <v>1.24</v>
+      </c>
+      <c r="AM27">
+        <v>2.09</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>2.25</v>
+      </c>
+      <c r="AQ27">
+        <v>1.67</v>
+      </c>
+      <c r="AR27">
+        <v>1.84</v>
+      </c>
+      <c r="AS27">
+        <v>1.81</v>
+      </c>
+      <c r="AT27">
+        <v>3.65</v>
+      </c>
+      <c r="AU27">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>3</v>
+      </c>
+      <c r="AW27">
+        <v>12</v>
+      </c>
+      <c r="AX27">
+        <v>5</v>
+      </c>
+      <c r="AY27">
+        <v>17</v>
+      </c>
+      <c r="AZ27">
+        <v>8</v>
+      </c>
+      <c r="BA27">
+        <v>8</v>
+      </c>
+      <c r="BB27">
+        <v>5</v>
+      </c>
+      <c r="BC27">
+        <v>13</v>
+      </c>
+      <c r="BD27">
+        <v>1.37</v>
+      </c>
+      <c r="BE27">
+        <v>8</v>
+      </c>
+      <c r="BF27">
+        <v>4.26</v>
+      </c>
+      <c r="BG27">
+        <v>1.4</v>
+      </c>
+      <c r="BH27">
+        <v>2.7</v>
+      </c>
+      <c r="BI27">
+        <v>1.67</v>
+      </c>
+      <c r="BJ27">
+        <v>2.1</v>
+      </c>
+      <c r="BK27">
+        <v>2.1</v>
+      </c>
+      <c r="BL27">
+        <v>1.67</v>
+      </c>
+      <c r="BM27">
+        <v>2.62</v>
+      </c>
+      <c r="BN27">
+        <v>1.42</v>
+      </c>
+      <c r="BO27">
+        <v>3.6</v>
+      </c>
+      <c r="BP27">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['28', '86']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1478,7 +1484,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2299,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2920,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3332,7 +3338,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3741,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4771,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1.67</v>
@@ -4980,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5183,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -6291,6 +6297,418 @@
         <v>3.6</v>
       </c>
       <c r="BP27">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7450980</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45549.52083333334</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28">
+        <v>3.1</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
+        <v>3.75</v>
+      </c>
+      <c r="T28">
+        <v>1.42</v>
+      </c>
+      <c r="U28">
+        <v>2.74</v>
+      </c>
+      <c r="V28">
+        <v>2.99</v>
+      </c>
+      <c r="W28">
+        <v>1.36</v>
+      </c>
+      <c r="X28">
+        <v>7.7</v>
+      </c>
+      <c r="Y28">
+        <v>1.06</v>
+      </c>
+      <c r="Z28">
+        <v>2.3</v>
+      </c>
+      <c r="AA28">
+        <v>3.2</v>
+      </c>
+      <c r="AB28">
+        <v>2.9</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>8.4</v>
+      </c>
+      <c r="AE28">
+        <v>1.31</v>
+      </c>
+      <c r="AF28">
+        <v>3.04</v>
+      </c>
+      <c r="AG28">
+        <v>2.25</v>
+      </c>
+      <c r="AH28">
+        <v>1.62</v>
+      </c>
+      <c r="AI28">
+        <v>1.91</v>
+      </c>
+      <c r="AJ28">
+        <v>1.8</v>
+      </c>
+      <c r="AK28">
+        <v>1.41</v>
+      </c>
+      <c r="AL28">
+        <v>1.31</v>
+      </c>
+      <c r="AM28">
+        <v>1.53</v>
+      </c>
+      <c r="AN28">
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <v>0.5</v>
+      </c>
+      <c r="AP28">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28">
+        <v>1.33</v>
+      </c>
+      <c r="AR28">
+        <v>1.45</v>
+      </c>
+      <c r="AS28">
+        <v>1.66</v>
+      </c>
+      <c r="AT28">
+        <v>3.11</v>
+      </c>
+      <c r="AU28">
+        <v>2</v>
+      </c>
+      <c r="AV28">
+        <v>7</v>
+      </c>
+      <c r="AW28">
+        <v>8</v>
+      </c>
+      <c r="AX28">
+        <v>3</v>
+      </c>
+      <c r="AY28">
+        <v>10</v>
+      </c>
+      <c r="AZ28">
+        <v>10</v>
+      </c>
+      <c r="BA28">
+        <v>7</v>
+      </c>
+      <c r="BB28">
+        <v>6</v>
+      </c>
+      <c r="BC28">
+        <v>13</v>
+      </c>
+      <c r="BD28">
+        <v>2.14</v>
+      </c>
+      <c r="BE28">
+        <v>7.2</v>
+      </c>
+      <c r="BF28">
+        <v>2.03</v>
+      </c>
+      <c r="BG28">
+        <v>1.28</v>
+      </c>
+      <c r="BH28">
+        <v>3.18</v>
+      </c>
+      <c r="BI28">
+        <v>1.54</v>
+      </c>
+      <c r="BJ28">
+        <v>2.25</v>
+      </c>
+      <c r="BK28">
+        <v>1.94</v>
+      </c>
+      <c r="BL28">
+        <v>1.77</v>
+      </c>
+      <c r="BM28">
+        <v>2.54</v>
+      </c>
+      <c r="BN28">
+        <v>1.43</v>
+      </c>
+      <c r="BO28">
+        <v>3.48</v>
+      </c>
+      <c r="BP28">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7450983</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45549.625</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29">
+        <v>6.5</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>2.1</v>
+      </c>
+      <c r="T29">
+        <v>1.4</v>
+      </c>
+      <c r="U29">
+        <v>2.82</v>
+      </c>
+      <c r="V29">
+        <v>2.86</v>
+      </c>
+      <c r="W29">
+        <v>1.39</v>
+      </c>
+      <c r="X29">
+        <v>7.2</v>
+      </c>
+      <c r="Y29">
+        <v>1.07</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>3.7</v>
+      </c>
+      <c r="AB29">
+        <v>1.53</v>
+      </c>
+      <c r="AC29">
+        <v>1.02</v>
+      </c>
+      <c r="AD29">
+        <v>8.9</v>
+      </c>
+      <c r="AE29">
+        <v>1.28</v>
+      </c>
+      <c r="AF29">
+        <v>3.2</v>
+      </c>
+      <c r="AG29">
+        <v>2.05</v>
+      </c>
+      <c r="AH29">
+        <v>1.75</v>
+      </c>
+      <c r="AI29">
+        <v>2.1</v>
+      </c>
+      <c r="AJ29">
+        <v>1.67</v>
+      </c>
+      <c r="AK29">
+        <v>2.2</v>
+      </c>
+      <c r="AL29">
+        <v>1.24</v>
+      </c>
+      <c r="AM29">
+        <v>1.14</v>
+      </c>
+      <c r="AN29">
+        <v>1.67</v>
+      </c>
+      <c r="AO29">
+        <v>2</v>
+      </c>
+      <c r="AP29">
+        <v>1.25</v>
+      </c>
+      <c r="AQ29">
+        <v>2.33</v>
+      </c>
+      <c r="AR29">
+        <v>1.12</v>
+      </c>
+      <c r="AS29">
+        <v>1.08</v>
+      </c>
+      <c r="AT29">
+        <v>2.2</v>
+      </c>
+      <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29">
+        <v>7</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>3</v>
+      </c>
+      <c r="AY29">
+        <v>7</v>
+      </c>
+      <c r="AZ29">
+        <v>10</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>9</v>
+      </c>
+      <c r="BD29">
+        <v>4.36</v>
+      </c>
+      <c r="BE29">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF29">
+        <v>1.35</v>
+      </c>
+      <c r="BG29">
+        <v>1.28</v>
+      </c>
+      <c r="BH29">
+        <v>3.2</v>
+      </c>
+      <c r="BI29">
+        <v>1.8</v>
+      </c>
+      <c r="BJ29">
+        <v>2</v>
+      </c>
+      <c r="BK29">
+        <v>2.38</v>
+      </c>
+      <c r="BL29">
+        <v>1.78</v>
+      </c>
+      <c r="BM29">
+        <v>2.51</v>
+      </c>
+      <c r="BN29">
+        <v>1.44</v>
+      </c>
+      <c r="BO29">
+        <v>3.42</v>
+      </c>
+      <c r="BP29">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -732,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1281,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1609,7 +1612,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1815,7 +1818,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2099,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2227,7 +2230,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2433,7 +2436,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2639,7 +2642,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2717,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3257,7 +3260,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3463,7 +3466,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3544,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.27</v>
@@ -3669,7 +3672,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4081,7 +4084,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4493,7 +4496,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4699,7 +4702,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4905,7 +4908,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4983,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>2.33</v>
@@ -5111,7 +5114,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5317,7 +5320,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5729,7 +5732,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5810,7 +5813,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>1.8</v>
@@ -5935,7 +5938,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6141,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6347,7 +6350,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6553,7 +6556,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6664,13 +6667,13 @@
         <v>10</v>
       </c>
       <c r="BA29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29">
         <v>5</v>
       </c>
       <c r="BC29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD29">
         <v>4.36</v>
@@ -6710,6 +6713,418 @@
       </c>
       <c r="BP29">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7450981</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45550.52083333334</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2.38</v>
+      </c>
+      <c r="S30">
+        <v>6.5</v>
+      </c>
+      <c r="T30">
+        <v>1.3</v>
+      </c>
+      <c r="U30">
+        <v>3.4</v>
+      </c>
+      <c r="V30">
+        <v>2.5</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>1.13</v>
+      </c>
+      <c r="Z30">
+        <v>1.42</v>
+      </c>
+      <c r="AA30">
+        <v>4.5</v>
+      </c>
+      <c r="AB30">
+        <v>5.75</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>1.2</v>
+      </c>
+      <c r="AF30">
+        <v>4</v>
+      </c>
+      <c r="AG30">
+        <v>1.73</v>
+      </c>
+      <c r="AH30">
+        <v>2.08</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AJ30">
+        <v>1.73</v>
+      </c>
+      <c r="AK30">
+        <v>1.05</v>
+      </c>
+      <c r="AL30">
+        <v>1.14</v>
+      </c>
+      <c r="AM30">
+        <v>2.45</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0.75</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>1.82</v>
+      </c>
+      <c r="AS30">
+        <v>1.21</v>
+      </c>
+      <c r="AT30">
+        <v>3.03</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>11</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
+        <v>5</v>
+      </c>
+      <c r="BD30">
+        <v>1.29</v>
+      </c>
+      <c r="BE30">
+        <v>9.1</v>
+      </c>
+      <c r="BF30">
+        <v>4.86</v>
+      </c>
+      <c r="BG30">
+        <v>1.22</v>
+      </c>
+      <c r="BH30">
+        <v>3.65</v>
+      </c>
+      <c r="BI30">
+        <v>1.43</v>
+      </c>
+      <c r="BJ30">
+        <v>2.54</v>
+      </c>
+      <c r="BK30">
+        <v>2.38</v>
+      </c>
+      <c r="BL30">
+        <v>1.95</v>
+      </c>
+      <c r="BM30">
+        <v>2.23</v>
+      </c>
+      <c r="BN30">
+        <v>1.55</v>
+      </c>
+      <c r="BO30">
+        <v>2.98</v>
+      </c>
+      <c r="BP30">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7450979</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45550.625</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31">
+        <v>3.4</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>3.5</v>
+      </c>
+      <c r="T31">
+        <v>1.42</v>
+      </c>
+      <c r="U31">
+        <v>2.65</v>
+      </c>
+      <c r="V31">
+        <v>2.9</v>
+      </c>
+      <c r="W31">
+        <v>1.35</v>
+      </c>
+      <c r="X31">
+        <v>8.25</v>
+      </c>
+      <c r="Y31">
+        <v>1.07</v>
+      </c>
+      <c r="Z31">
+        <v>2.45</v>
+      </c>
+      <c r="AA31">
+        <v>3.1</v>
+      </c>
+      <c r="AB31">
+        <v>2.63</v>
+      </c>
+      <c r="AC31">
+        <v>1.07</v>
+      </c>
+      <c r="AD31">
+        <v>8</v>
+      </c>
+      <c r="AE31">
+        <v>1.4</v>
+      </c>
+      <c r="AF31">
+        <v>2.88</v>
+      </c>
+      <c r="AG31">
+        <v>2.25</v>
+      </c>
+      <c r="AH31">
+        <v>1.62</v>
+      </c>
+      <c r="AI31">
+        <v>1.91</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>1.4</v>
+      </c>
+      <c r="AL31">
+        <v>1.35</v>
+      </c>
+      <c r="AM31">
+        <v>1.4</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>1.33</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>1.25</v>
+      </c>
+      <c r="AR31">
+        <v>1.34</v>
+      </c>
+      <c r="AS31">
+        <v>1.71</v>
+      </c>
+      <c r="AT31">
+        <v>3.05</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>5</v>
+      </c>
+      <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>5</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>2</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>5</v>
+      </c>
+      <c r="BD31">
+        <v>2.16</v>
+      </c>
+      <c r="BE31">
+        <v>6.35</v>
+      </c>
+      <c r="BF31">
+        <v>2.06</v>
+      </c>
+      <c r="BG31">
+        <v>1.25</v>
+      </c>
+      <c r="BH31">
+        <v>3.42</v>
+      </c>
+      <c r="BI31">
+        <v>1.48</v>
+      </c>
+      <c r="BJ31">
+        <v>2.4</v>
+      </c>
+      <c r="BK31">
+        <v>2.38</v>
+      </c>
+      <c r="BL31">
+        <v>1.85</v>
+      </c>
+      <c r="BM31">
+        <v>2.38</v>
+      </c>
+      <c r="BN31">
+        <v>1.49</v>
+      </c>
+      <c r="BO31">
+        <v>3.2</v>
+      </c>
+      <c r="BP31">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -2600,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7450963</v>
+        <v>7450961</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -2615,70 +2615,70 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R10">
         <v>2.2</v>
       </c>
       <c r="S10">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T10">
+        <v>1.38</v>
+      </c>
+      <c r="U10">
+        <v>2.87</v>
+      </c>
+      <c r="V10">
+        <v>2.94</v>
+      </c>
+      <c r="W10">
         <v>1.36</v>
       </c>
-      <c r="U10">
-        <v>3.01</v>
-      </c>
-      <c r="V10">
-        <v>2.83</v>
-      </c>
-      <c r="W10">
-        <v>1.4</v>
-      </c>
       <c r="X10">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Y10">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z10">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="AA10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB10">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AC10">
         <v>1.03</v>
@@ -2687,10 +2687,10 @@
         <v>9</v>
       </c>
       <c r="AE10">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG10">
         <v>1.95</v>
@@ -2705,13 +2705,13 @@
         <v>1.83</v>
       </c>
       <c r="AK10">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AL10">
         <v>1.27</v>
       </c>
       <c r="AM10">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -2720,85 +2720,85 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR10">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
         <v>3</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
+        <v>8</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>7</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
         <v>6</v>
       </c>
-      <c r="AW10">
+      <c r="BC10">
+        <v>11</v>
+      </c>
+      <c r="BD10">
         <v>3</v>
       </c>
-      <c r="AX10">
-        <v>7</v>
-      </c>
-      <c r="AY10">
-        <v>6</v>
-      </c>
-      <c r="AZ10">
-        <v>13</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>7</v>
-      </c>
-      <c r="BC10">
-        <v>7</v>
-      </c>
-      <c r="BD10">
-        <v>2.81</v>
-      </c>
       <c r="BE10">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF10">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="BG10">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BH10">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BI10">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="BJ10">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BK10">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BL10">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="BM10">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="BN10">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BO10">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
       <c r="BP10">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -2806,7 +2806,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7450961</v>
+        <v>7450963</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2821,70 +2821,70 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="Q11">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R11">
         <v>2.2</v>
       </c>
       <c r="S11">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T11">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U11">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="V11">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="W11">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X11">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y11">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z11">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="AA11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB11">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AC11">
         <v>1.03</v>
@@ -2893,10 +2893,10 @@
         <v>9</v>
       </c>
       <c r="AE11">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG11">
         <v>1.95</v>
@@ -2911,100 +2911,100 @@
         <v>1.83</v>
       </c>
       <c r="AK11">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="AL11">
         <v>1.27</v>
       </c>
       <c r="AM11">
+        <v>1.22</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.75</v>
+      </c>
+      <c r="AQ11">
+        <v>2</v>
+      </c>
+      <c r="AR11">
+        <v>3.14</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3.14</v>
+      </c>
+      <c r="AU11">
+        <v>3</v>
+      </c>
+      <c r="AV11">
+        <v>6</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>7</v>
+      </c>
+      <c r="AY11">
+        <v>6</v>
+      </c>
+      <c r="AZ11">
+        <v>13</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>7</v>
+      </c>
+      <c r="BC11">
+        <v>7</v>
+      </c>
+      <c r="BD11">
+        <v>2.81</v>
+      </c>
+      <c r="BE11">
+        <v>8</v>
+      </c>
+      <c r="BF11">
+        <v>1.64</v>
+      </c>
+      <c r="BG11">
+        <v>1.33</v>
+      </c>
+      <c r="BH11">
+        <v>2.93</v>
+      </c>
+      <c r="BI11">
+        <v>1.61</v>
+      </c>
+      <c r="BJ11">
+        <v>2.12</v>
+      </c>
+      <c r="BK11">
+        <v>2.07</v>
+      </c>
+      <c r="BL11">
+        <v>1.67</v>
+      </c>
+      <c r="BM11">
+        <v>2.71</v>
+      </c>
+      <c r="BN11">
+        <v>1.38</v>
+      </c>
+      <c r="BO11">
+        <v>3.74</v>
+      </c>
+      <c r="BP11">
         <v>1.21</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>2</v>
-      </c>
-      <c r="AQ11">
-        <v>2.33</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>3</v>
-      </c>
-      <c r="AW11">
-        <v>8</v>
-      </c>
-      <c r="AX11">
-        <v>4</v>
-      </c>
-      <c r="AY11">
-        <v>8</v>
-      </c>
-      <c r="AZ11">
-        <v>7</v>
-      </c>
-      <c r="BA11">
-        <v>5</v>
-      </c>
-      <c r="BB11">
-        <v>6</v>
-      </c>
-      <c r="BC11">
-        <v>11</v>
-      </c>
-      <c r="BD11">
-        <v>3</v>
-      </c>
-      <c r="BE11">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF11">
-        <v>1.57</v>
-      </c>
-      <c r="BG11">
-        <v>1.28</v>
-      </c>
-      <c r="BH11">
-        <v>3.2</v>
-      </c>
-      <c r="BI11">
-        <v>1.53</v>
-      </c>
-      <c r="BJ11">
-        <v>2.28</v>
-      </c>
-      <c r="BK11">
-        <v>1.93</v>
-      </c>
-      <c r="BL11">
-        <v>1.78</v>
-      </c>
-      <c r="BM11">
-        <v>2.51</v>
-      </c>
-      <c r="BN11">
-        <v>1.44</v>
-      </c>
-      <c r="BO11">
-        <v>3.42</v>
-      </c>
-      <c r="BP11">
-        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -735,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1078,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1612,7 +1615,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1818,7 +1821,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2230,7 +2233,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2436,7 +2439,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2720,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
         <v>2.33</v>
@@ -2848,7 +2851,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3260,7 +3263,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3466,7 +3469,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3672,7 +3675,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3959,7 +3962,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>1.93</v>
@@ -4084,7 +4087,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4368,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4496,7 +4499,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4702,7 +4705,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4908,7 +4911,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5114,7 +5117,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5320,7 +5323,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5401,7 +5404,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -5732,7 +5735,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5938,7 +5941,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6144,7 +6147,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6350,7 +6353,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6556,7 +6559,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7125,6 +7128,212 @@
       </c>
       <c r="BP31">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7450988</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45555.54166666666</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32">
+        <v>2.5</v>
+      </c>
+      <c r="R32">
+        <v>2.05</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>1.45</v>
+      </c>
+      <c r="U32">
+        <v>2.63</v>
+      </c>
+      <c r="V32">
+        <v>3.14</v>
+      </c>
+      <c r="W32">
+        <v>1.33</v>
+      </c>
+      <c r="X32">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>1.06</v>
+      </c>
+      <c r="Z32">
+        <v>1.75</v>
+      </c>
+      <c r="AA32">
+        <v>3.3</v>
+      </c>
+      <c r="AB32">
+        <v>4.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
+        <v>1.3</v>
+      </c>
+      <c r="AF32">
+        <v>3.2</v>
+      </c>
+      <c r="AG32">
+        <v>2.2</v>
+      </c>
+      <c r="AH32">
+        <v>1.65</v>
+      </c>
+      <c r="AI32">
+        <v>2.1</v>
+      </c>
+      <c r="AJ32">
+        <v>1.67</v>
+      </c>
+      <c r="AK32">
+        <v>1.28</v>
+      </c>
+      <c r="AL32">
+        <v>1.25</v>
+      </c>
+      <c r="AM32">
+        <v>1.72</v>
+      </c>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>2.33</v>
+      </c>
+      <c r="AQ32">
+        <v>0.75</v>
+      </c>
+      <c r="AR32">
+        <v>1.2</v>
+      </c>
+      <c r="AS32">
+        <v>0.91</v>
+      </c>
+      <c r="AT32">
+        <v>2.11</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>3</v>
+      </c>
+      <c r="AW32">
+        <v>3</v>
+      </c>
+      <c r="AX32">
+        <v>4</v>
+      </c>
+      <c r="AY32">
+        <v>7</v>
+      </c>
+      <c r="AZ32">
+        <v>7</v>
+      </c>
+      <c r="BA32">
+        <v>4</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
+      <c r="BC32">
+        <v>5</v>
+      </c>
+      <c r="BD32">
+        <v>1.6</v>
+      </c>
+      <c r="BE32">
+        <v>7.5</v>
+      </c>
+      <c r="BF32">
+        <v>3.01</v>
+      </c>
+      <c r="BG32">
+        <v>1.38</v>
+      </c>
+      <c r="BH32">
+        <v>2.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.64</v>
+      </c>
+      <c r="BJ32">
+        <v>2.19</v>
+      </c>
+      <c r="BK32">
+        <v>2.05</v>
+      </c>
+      <c r="BL32">
+        <v>1.74</v>
+      </c>
+      <c r="BM32">
+        <v>2.6</v>
+      </c>
+      <c r="BN32">
+        <v>1.44</v>
+      </c>
+      <c r="BO32">
+        <v>3.4</v>
+      </c>
+      <c r="BP32">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,12 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['45+1', '67', '74', '77']</t>
+  </si>
+  <si>
+    <t>['11', '55', '71', '73']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -377,6 +383,12 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1627,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1821,7 +1833,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2233,7 +2245,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2439,7 +2451,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2851,7 +2863,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2932,7 +2944,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>3.14</v>
@@ -3263,7 +3275,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3341,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3469,7 +3481,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3675,7 +3687,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4087,7 +4099,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4499,7 +4511,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4705,7 +4717,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4911,7 +4923,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5117,7 +5129,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5323,7 +5335,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5401,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5735,7 +5747,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5941,7 +5953,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6022,7 +6034,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6147,7 +6159,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6353,7 +6365,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6559,7 +6571,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7334,6 +7346,418 @@
       </c>
       <c r="BP32">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7450986</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45556.52083333334</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>2.63</v>
+      </c>
+      <c r="S33">
+        <v>1.67</v>
+      </c>
+      <c r="T33">
+        <v>1.3</v>
+      </c>
+      <c r="U33">
+        <v>3.3</v>
+      </c>
+      <c r="V33">
+        <v>2.35</v>
+      </c>
+      <c r="W33">
+        <v>1.52</v>
+      </c>
+      <c r="X33">
+        <v>5.75</v>
+      </c>
+      <c r="Y33">
+        <v>1.13</v>
+      </c>
+      <c r="Z33">
+        <v>9.5</v>
+      </c>
+      <c r="AA33">
+        <v>5.5</v>
+      </c>
+      <c r="AB33">
+        <v>1.25</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>13</v>
+      </c>
+      <c r="AE33">
+        <v>1.14</v>
+      </c>
+      <c r="AF33">
+        <v>4.8</v>
+      </c>
+      <c r="AG33">
+        <v>1.6</v>
+      </c>
+      <c r="AH33">
+        <v>2.3</v>
+      </c>
+      <c r="AI33">
+        <v>2.1</v>
+      </c>
+      <c r="AJ33">
+        <v>1.67</v>
+      </c>
+      <c r="AK33">
+        <v>3.5</v>
+      </c>
+      <c r="AL33">
+        <v>1.11</v>
+      </c>
+      <c r="AM33">
+        <v>1.06</v>
+      </c>
+      <c r="AN33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>2</v>
+      </c>
+      <c r="AP33">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>1.4</v>
+      </c>
+      <c r="AS33">
+        <v>1.44</v>
+      </c>
+      <c r="AT33">
+        <v>2.84</v>
+      </c>
+      <c r="AU33">
+        <v>12</v>
+      </c>
+      <c r="AV33">
+        <v>7</v>
+      </c>
+      <c r="AW33">
+        <v>6</v>
+      </c>
+      <c r="AX33">
+        <v>10</v>
+      </c>
+      <c r="AY33">
+        <v>18</v>
+      </c>
+      <c r="AZ33">
+        <v>17</v>
+      </c>
+      <c r="BA33">
+        <v>8</v>
+      </c>
+      <c r="BB33">
+        <v>10</v>
+      </c>
+      <c r="BC33">
+        <v>18</v>
+      </c>
+      <c r="BD33">
+        <v>5.06</v>
+      </c>
+      <c r="BE33">
+        <v>9</v>
+      </c>
+      <c r="BF33">
+        <v>1.28</v>
+      </c>
+      <c r="BG33">
+        <v>1.31</v>
+      </c>
+      <c r="BH33">
+        <v>2.82</v>
+      </c>
+      <c r="BI33">
+        <v>1.69</v>
+      </c>
+      <c r="BJ33">
+        <v>2.11</v>
+      </c>
+      <c r="BK33">
+        <v>2.11</v>
+      </c>
+      <c r="BL33">
+        <v>1.69</v>
+      </c>
+      <c r="BM33">
+        <v>2.7</v>
+      </c>
+      <c r="BN33">
+        <v>1.36</v>
+      </c>
+      <c r="BO33">
+        <v>3.7</v>
+      </c>
+      <c r="BP33">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7450985</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45556.625</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34">
+        <v>1.73</v>
+      </c>
+      <c r="R34">
+        <v>2.5</v>
+      </c>
+      <c r="S34">
+        <v>8.5</v>
+      </c>
+      <c r="T34">
+        <v>1.3</v>
+      </c>
+      <c r="U34">
+        <v>3.34</v>
+      </c>
+      <c r="V34">
+        <v>2.46</v>
+      </c>
+      <c r="W34">
+        <v>1.52</v>
+      </c>
+      <c r="X34">
+        <v>5.6</v>
+      </c>
+      <c r="Y34">
+        <v>1.12</v>
+      </c>
+      <c r="Z34">
+        <v>1.27</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>9</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>13</v>
+      </c>
+      <c r="AE34">
+        <v>1.17</v>
+      </c>
+      <c r="AF34">
+        <v>4.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.67</v>
+      </c>
+      <c r="AH34">
+        <v>2.15</v>
+      </c>
+      <c r="AI34">
+        <v>2.2</v>
+      </c>
+      <c r="AJ34">
+        <v>1.62</v>
+      </c>
+      <c r="AK34">
+        <v>1.04</v>
+      </c>
+      <c r="AL34">
+        <v>1.14</v>
+      </c>
+      <c r="AM34">
+        <v>3.34</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1.39</v>
+      </c>
+      <c r="AS34">
+        <v>0.9</v>
+      </c>
+      <c r="AT34">
+        <v>2.29</v>
+      </c>
+      <c r="AU34">
+        <v>10</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>5</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>15</v>
+      </c>
+      <c r="AZ34">
+        <v>4</v>
+      </c>
+      <c r="BA34">
+        <v>5</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>1.22</v>
+      </c>
+      <c r="BE34">
+        <v>10.5</v>
+      </c>
+      <c r="BF34">
+        <v>5.67</v>
+      </c>
+      <c r="BG34">
+        <v>1.21</v>
+      </c>
+      <c r="BH34">
+        <v>3.44</v>
+      </c>
+      <c r="BI34">
+        <v>1.49</v>
+      </c>
+      <c r="BJ34">
+        <v>2.55</v>
+      </c>
+      <c r="BK34">
+        <v>2.38</v>
+      </c>
+      <c r="BL34">
+        <v>1.96</v>
+      </c>
+      <c r="BM34">
+        <v>2.33</v>
+      </c>
+      <c r="BN34">
+        <v>1.58</v>
+      </c>
+      <c r="BO34">
+        <v>2.97</v>
+      </c>
+      <c r="BP34">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>['11', '55', '71', '73']</t>
+  </si>
+  <si>
+    <t>['2', '19', '81']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -750,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1627,7 +1630,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1708,7 +1711,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1833,7 +1836,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2245,7 +2248,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2451,7 +2454,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2529,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -2863,7 +2866,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3150,7 +3153,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3275,7 +3278,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3481,7 +3484,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3687,7 +3690,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3768,7 +3771,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -3971,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
         <v>0.75</v>
@@ -4099,7 +4102,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4177,10 +4180,10 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -4511,7 +4514,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4717,7 +4720,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4923,7 +4926,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5129,7 +5132,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5210,7 +5213,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5335,7 +5338,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5622,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -5747,7 +5750,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5825,7 +5828,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -5953,7 +5956,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6031,7 +6034,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6159,7 +6162,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6365,7 +6368,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6571,7 +6574,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7395,7 +7398,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7601,7 +7604,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7703,13 +7706,13 @@
         <v>5</v>
       </c>
       <c r="AX34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY34">
         <v>15</v>
       </c>
       <c r="AZ34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -7758,6 +7761,418 @@
       </c>
       <c r="BP34">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7450987</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45557.52083333334</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35">
+        <v>3.5</v>
+      </c>
+      <c r="R35">
+        <v>2.2</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>1.37</v>
+      </c>
+      <c r="U35">
+        <v>2.85</v>
+      </c>
+      <c r="V35">
+        <v>2.7</v>
+      </c>
+      <c r="W35">
+        <v>1.41</v>
+      </c>
+      <c r="X35">
+        <v>6.45</v>
+      </c>
+      <c r="Y35">
+        <v>1.09</v>
+      </c>
+      <c r="Z35">
+        <v>2.88</v>
+      </c>
+      <c r="AA35">
+        <v>3.3</v>
+      </c>
+      <c r="AB35">
+        <v>2.3</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>9.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.28</v>
+      </c>
+      <c r="AF35">
+        <v>3.5</v>
+      </c>
+      <c r="AG35">
+        <v>1.85</v>
+      </c>
+      <c r="AH35">
+        <v>1.95</v>
+      </c>
+      <c r="AI35">
+        <v>1.67</v>
+      </c>
+      <c r="AJ35">
+        <v>2.1</v>
+      </c>
+      <c r="AK35">
+        <v>1.5</v>
+      </c>
+      <c r="AL35">
+        <v>1.25</v>
+      </c>
+      <c r="AM35">
+        <v>1.5</v>
+      </c>
+      <c r="AN35">
+        <v>0.33</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>0.25</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.65</v>
+      </c>
+      <c r="AS35">
+        <v>1.3</v>
+      </c>
+      <c r="AT35">
+        <v>2.95</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>4</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>10</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
+        <v>1.84</v>
+      </c>
+      <c r="BE35">
+        <v>7.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.42</v>
+      </c>
+      <c r="BG35">
+        <v>1.17</v>
+      </c>
+      <c r="BH35">
+        <v>3.82</v>
+      </c>
+      <c r="BI35">
+        <v>1.36</v>
+      </c>
+      <c r="BJ35">
+        <v>2.7</v>
+      </c>
+      <c r="BK35">
+        <v>2.1</v>
+      </c>
+      <c r="BL35">
+        <v>2.09</v>
+      </c>
+      <c r="BM35">
+        <v>2.12</v>
+      </c>
+      <c r="BN35">
+        <v>1.68</v>
+      </c>
+      <c r="BO35">
+        <v>2.69</v>
+      </c>
+      <c r="BP35">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7450984</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45557.625</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q36">
+        <v>1.83</v>
+      </c>
+      <c r="R36">
+        <v>2.5</v>
+      </c>
+      <c r="S36">
+        <v>7.5</v>
+      </c>
+      <c r="T36">
+        <v>1.32</v>
+      </c>
+      <c r="U36">
+        <v>3.22</v>
+      </c>
+      <c r="V36">
+        <v>2.48</v>
+      </c>
+      <c r="W36">
+        <v>1.5</v>
+      </c>
+      <c r="X36">
+        <v>5.85</v>
+      </c>
+      <c r="Y36">
+        <v>1.11</v>
+      </c>
+      <c r="Z36">
+        <v>1.33</v>
+      </c>
+      <c r="AA36">
+        <v>4.5</v>
+      </c>
+      <c r="AB36">
+        <v>7.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AE36">
+        <v>1.17</v>
+      </c>
+      <c r="AF36">
+        <v>4.5</v>
+      </c>
+      <c r="AG36">
+        <v>1.75</v>
+      </c>
+      <c r="AH36">
+        <v>2.05</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.73</v>
+      </c>
+      <c r="AK36">
+        <v>1.04</v>
+      </c>
+      <c r="AL36">
+        <v>1.12</v>
+      </c>
+      <c r="AM36">
+        <v>3.1</v>
+      </c>
+      <c r="AN36">
+        <v>2.33</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>2.5</v>
+      </c>
+      <c r="AQ36">
+        <v>1.2</v>
+      </c>
+      <c r="AR36">
+        <v>1.6</v>
+      </c>
+      <c r="AS36">
+        <v>0.93</v>
+      </c>
+      <c r="AT36">
+        <v>2.53</v>
+      </c>
+      <c r="AU36">
+        <v>8</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>8</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>16</v>
+      </c>
+      <c r="AZ36">
+        <v>7</v>
+      </c>
+      <c r="BA36">
+        <v>8</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <v>12</v>
+      </c>
+      <c r="BD36">
+        <v>1.19</v>
+      </c>
+      <c r="BE36">
+        <v>11</v>
+      </c>
+      <c r="BF36">
+        <v>6.27</v>
+      </c>
+      <c r="BG36">
+        <v>1.4</v>
+      </c>
+      <c r="BH36">
+        <v>2.7</v>
+      </c>
+      <c r="BI36">
+        <v>1.68</v>
+      </c>
+      <c r="BJ36">
+        <v>2.13</v>
+      </c>
+      <c r="BK36">
+        <v>2.12</v>
+      </c>
+      <c r="BL36">
+        <v>1.69</v>
+      </c>
+      <c r="BM36">
+        <v>2.62</v>
+      </c>
+      <c r="BN36">
+        <v>1.42</v>
+      </c>
+      <c r="BO36">
+        <v>3.6</v>
+      </c>
+      <c r="BP36">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -753,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1093,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>1.93</v>
@@ -5419,7 +5419,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -7064,7 +7064,7 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -7273,7 +7273,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -8173,6 +8173,212 @@
       </c>
       <c r="BP36">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7450989</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45562.54166666666</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q37">
+        <v>2.88</v>
+      </c>
+      <c r="R37">
+        <v>2.05</v>
+      </c>
+      <c r="S37">
+        <v>4.33</v>
+      </c>
+      <c r="T37">
+        <v>1.5</v>
+      </c>
+      <c r="U37">
+        <v>2.5</v>
+      </c>
+      <c r="V37">
+        <v>3.4</v>
+      </c>
+      <c r="W37">
+        <v>1.3</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>1.06</v>
+      </c>
+      <c r="Z37">
+        <v>2.05</v>
+      </c>
+      <c r="AA37">
+        <v>3.2</v>
+      </c>
+      <c r="AB37">
+        <v>3.5</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>1.33</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <v>2.25</v>
+      </c>
+      <c r="AH37">
+        <v>1.62</v>
+      </c>
+      <c r="AI37">
+        <v>1.91</v>
+      </c>
+      <c r="AJ37">
+        <v>1.8</v>
+      </c>
+      <c r="AK37">
+        <v>1.28</v>
+      </c>
+      <c r="AL37">
+        <v>1.27</v>
+      </c>
+      <c r="AM37">
+        <v>1.5</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>0.75</v>
+      </c>
+      <c r="AP37">
+        <v>1.67</v>
+      </c>
+      <c r="AQ37">
+        <v>0.8</v>
+      </c>
+      <c r="AR37">
+        <v>1.04</v>
+      </c>
+      <c r="AS37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT37">
+        <v>1.98</v>
+      </c>
+      <c r="AU37">
+        <v>4</v>
+      </c>
+      <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>7</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>11</v>
+      </c>
+      <c r="AZ37">
+        <v>5</v>
+      </c>
+      <c r="BA37">
+        <v>3</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>7</v>
+      </c>
+      <c r="BD37">
+        <v>1.75</v>
+      </c>
+      <c r="BE37">
+        <v>7.3</v>
+      </c>
+      <c r="BF37">
+        <v>2.62</v>
+      </c>
+      <c r="BG37">
+        <v>1.49</v>
+      </c>
+      <c r="BH37">
+        <v>2.44</v>
+      </c>
+      <c r="BI37">
+        <v>1.9</v>
+      </c>
+      <c r="BJ37">
+        <v>1.9</v>
+      </c>
+      <c r="BK37">
+        <v>2.35</v>
+      </c>
+      <c r="BL37">
+        <v>1.53</v>
+      </c>
+      <c r="BM37">
+        <v>3.1</v>
+      </c>
+      <c r="BN37">
+        <v>1.32</v>
+      </c>
+      <c r="BO37">
+        <v>4.3</v>
+      </c>
+      <c r="BP37">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,9 @@
     <t>['2', '19', '81']</t>
   </si>
   <si>
+    <t>['13', '34', '51', '90+1', '90+5']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1505,7 +1511,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1630,7 +1636,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1836,7 +1842,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2248,7 +2254,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2454,7 +2460,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2866,7 +2872,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3150,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
         <v>1.2</v>
@@ -3278,7 +3284,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3359,7 +3365,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3484,7 +3490,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3690,7 +3696,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4102,7 +4108,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4514,7 +4520,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4592,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4720,7 +4726,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4926,7 +4932,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5132,7 +5138,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5338,7 +5344,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5750,7 +5756,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5956,7 +5962,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6162,7 +6168,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6240,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ27">
         <v>1.67</v>
@@ -6368,7 +6374,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6449,7 +6455,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6574,7 +6580,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7398,7 +7404,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7604,7 +7610,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7810,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8379,6 +8385,212 @@
       </c>
       <c r="BP37">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7450991</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45563.625</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>105</v>
+      </c>
+      <c r="P38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q38">
+        <v>1.67</v>
+      </c>
+      <c r="R38">
+        <v>2.75</v>
+      </c>
+      <c r="S38">
+        <v>9.5</v>
+      </c>
+      <c r="T38">
+        <v>1.28</v>
+      </c>
+      <c r="U38">
+        <v>3.44</v>
+      </c>
+      <c r="V38">
+        <v>2.41</v>
+      </c>
+      <c r="W38">
+        <v>1.53</v>
+      </c>
+      <c r="X38">
+        <v>5.45</v>
+      </c>
+      <c r="Y38">
+        <v>1.13</v>
+      </c>
+      <c r="Z38">
+        <v>1.22</v>
+      </c>
+      <c r="AA38">
+        <v>6.5</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>13</v>
+      </c>
+      <c r="AE38">
+        <v>1.14</v>
+      </c>
+      <c r="AF38">
+        <v>4.8</v>
+      </c>
+      <c r="AG38">
+        <v>1.5</v>
+      </c>
+      <c r="AH38">
+        <v>2.5</v>
+      </c>
+      <c r="AI38">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>1.02</v>
+      </c>
+      <c r="AL38">
+        <v>1.11</v>
+      </c>
+      <c r="AM38">
+        <v>4</v>
+      </c>
+      <c r="AN38">
+        <v>2.25</v>
+      </c>
+      <c r="AO38">
+        <v>1.33</v>
+      </c>
+      <c r="AP38">
+        <v>2.4</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1.94</v>
+      </c>
+      <c r="AS38">
+        <v>1.6</v>
+      </c>
+      <c r="AT38">
+        <v>3.54</v>
+      </c>
+      <c r="AU38">
+        <v>10</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>5</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>15</v>
+      </c>
+      <c r="AZ38">
+        <v>7</v>
+      </c>
+      <c r="BA38">
+        <v>6</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
+        <v>12</v>
+      </c>
+      <c r="BD38">
+        <v>1.3</v>
+      </c>
+      <c r="BE38">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF38">
+        <v>4.86</v>
+      </c>
+      <c r="BG38">
+        <v>1.29</v>
+      </c>
+      <c r="BH38">
+        <v>3.4</v>
+      </c>
+      <c r="BI38">
+        <v>1.48</v>
+      </c>
+      <c r="BJ38">
+        <v>2.5</v>
+      </c>
+      <c r="BK38">
+        <v>2.2</v>
+      </c>
+      <c r="BL38">
+        <v>2.01</v>
+      </c>
+      <c r="BM38">
+        <v>2.23</v>
+      </c>
+      <c r="BN38">
+        <v>1.62</v>
+      </c>
+      <c r="BO38">
+        <v>2.8</v>
+      </c>
+      <c r="BP38">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,9 @@
     <t>['13', '34', '51', '90+1', '90+5']</t>
   </si>
   <si>
+    <t>['16', '21']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -398,6 +401,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,7 +1311,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1636,7 +1642,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1714,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -1842,7 +1848,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2254,7 +2260,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2460,7 +2466,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2541,7 +2547,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2872,7 +2878,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2950,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3284,7 +3290,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3490,7 +3496,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3571,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.27</v>
@@ -3696,7 +3702,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3980,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ16">
         <v>0.8</v>
@@ -4108,7 +4114,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4520,7 +4526,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4726,7 +4732,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4807,7 +4813,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -4932,7 +4938,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5010,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>2.33</v>
@@ -5138,7 +5144,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5344,7 +5350,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5756,7 +5762,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5837,7 +5843,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.8</v>
@@ -5962,7 +5968,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6040,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6168,7 +6174,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6249,7 +6255,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6374,7 +6380,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6580,7 +6586,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6864,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7073,7 +7079,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.34</v>
@@ -7404,7 +7410,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7610,7 +7616,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7816,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8100,7 +8106,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
         <v>1.2</v>
@@ -8434,7 +8440,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8591,6 +8597,418 @@
       </c>
       <c r="BP38">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7450990</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45564.52083333334</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q39">
+        <v>2.63</v>
+      </c>
+      <c r="R39">
+        <v>2.1</v>
+      </c>
+      <c r="S39">
+        <v>4.33</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39">
+        <v>2.75</v>
+      </c>
+      <c r="V39">
+        <v>2.75</v>
+      </c>
+      <c r="W39">
+        <v>1.4</v>
+      </c>
+      <c r="X39">
+        <v>8</v>
+      </c>
+      <c r="Y39">
+        <v>1.08</v>
+      </c>
+      <c r="Z39">
+        <v>1.9</v>
+      </c>
+      <c r="AA39">
+        <v>3.3</v>
+      </c>
+      <c r="AB39">
+        <v>3.75</v>
+      </c>
+      <c r="AC39">
+        <v>1.03</v>
+      </c>
+      <c r="AD39">
+        <v>9</v>
+      </c>
+      <c r="AE39">
+        <v>1.25</v>
+      </c>
+      <c r="AF39">
+        <v>3.6</v>
+      </c>
+      <c r="AG39">
+        <v>2</v>
+      </c>
+      <c r="AH39">
+        <v>1.8</v>
+      </c>
+      <c r="AI39">
+        <v>1.83</v>
+      </c>
+      <c r="AJ39">
+        <v>1.83</v>
+      </c>
+      <c r="AK39">
+        <v>1.2</v>
+      </c>
+      <c r="AL39">
+        <v>1.3</v>
+      </c>
+      <c r="AM39">
+        <v>1.85</v>
+      </c>
+      <c r="AN39">
+        <v>0.75</v>
+      </c>
+      <c r="AO39">
+        <v>1.25</v>
+      </c>
+      <c r="AP39">
+        <v>1.2</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1.73</v>
+      </c>
+      <c r="AS39">
+        <v>1.58</v>
+      </c>
+      <c r="AT39">
+        <v>3.31</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>5</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>7</v>
+      </c>
+      <c r="AY39">
+        <v>6</v>
+      </c>
+      <c r="AZ39">
+        <v>12</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
+        <v>10</v>
+      </c>
+      <c r="BD39">
+        <v>1.62</v>
+      </c>
+      <c r="BE39">
+        <v>8.1</v>
+      </c>
+      <c r="BF39">
+        <v>2.86</v>
+      </c>
+      <c r="BG39">
+        <v>1.29</v>
+      </c>
+      <c r="BH39">
+        <v>3.4</v>
+      </c>
+      <c r="BI39">
+        <v>1.42</v>
+      </c>
+      <c r="BJ39">
+        <v>2.65</v>
+      </c>
+      <c r="BK39">
+        <v>2.2</v>
+      </c>
+      <c r="BL39">
+        <v>2.01</v>
+      </c>
+      <c r="BM39">
+        <v>2.22</v>
+      </c>
+      <c r="BN39">
+        <v>1.62</v>
+      </c>
+      <c r="BO39">
+        <v>3</v>
+      </c>
+      <c r="BP39">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7450993</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45564.625</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
+        <v>3.75</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40">
+        <v>2.75</v>
+      </c>
+      <c r="V40">
+        <v>2.75</v>
+      </c>
+      <c r="W40">
+        <v>1.4</v>
+      </c>
+      <c r="X40">
+        <v>8</v>
+      </c>
+      <c r="Y40">
+        <v>1.08</v>
+      </c>
+      <c r="Z40">
+        <v>2.2</v>
+      </c>
+      <c r="AA40">
+        <v>3.1</v>
+      </c>
+      <c r="AB40">
+        <v>3.1</v>
+      </c>
+      <c r="AC40">
+        <v>1.03</v>
+      </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
+        <v>1.25</v>
+      </c>
+      <c r="AF40">
+        <v>3.6</v>
+      </c>
+      <c r="AG40">
+        <v>2.2</v>
+      </c>
+      <c r="AH40">
+        <v>1.65</v>
+      </c>
+      <c r="AI40">
+        <v>1.83</v>
+      </c>
+      <c r="AJ40">
+        <v>1.83</v>
+      </c>
+      <c r="AK40">
+        <v>1.35</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.62</v>
+      </c>
+      <c r="AN40">
+        <v>2.5</v>
+      </c>
+      <c r="AO40">
+        <v>1.67</v>
+      </c>
+      <c r="AP40">
+        <v>2.2</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.7</v>
+      </c>
+      <c r="AS40">
+        <v>1.54</v>
+      </c>
+      <c r="AT40">
+        <v>3.24</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>8</v>
+      </c>
+      <c r="AZ40">
+        <v>6</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>9</v>
+      </c>
+      <c r="BC40">
+        <v>15</v>
+      </c>
+      <c r="BD40">
+        <v>1.6</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>3.01</v>
+      </c>
+      <c r="BG40">
+        <v>1.33</v>
+      </c>
+      <c r="BH40">
+        <v>3</v>
+      </c>
+      <c r="BI40">
+        <v>1.8</v>
+      </c>
+      <c r="BJ40">
+        <v>2</v>
+      </c>
+      <c r="BK40">
+        <v>1.98</v>
+      </c>
+      <c r="BL40">
+        <v>1.82</v>
+      </c>
+      <c r="BM40">
+        <v>2.52</v>
+      </c>
+      <c r="BN40">
+        <v>1.49</v>
+      </c>
+      <c r="BO40">
+        <v>3.2</v>
+      </c>
+      <c r="BP40">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>['16', '21']</t>
+  </si>
+  <si>
+    <t>['28', '90+4']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -765,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1642,7 +1645,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1848,7 +1851,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2260,7 +2263,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2466,7 +2469,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2878,7 +2881,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3290,7 +3293,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3496,7 +3499,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3702,7 +3705,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3780,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4114,7 +4117,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4526,7 +4529,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4732,7 +4735,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4938,7 +4941,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5144,7 +5147,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5222,7 +5225,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5350,7 +5353,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5762,7 +5765,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5968,7 +5971,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6174,7 +6177,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6380,7 +6383,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6586,7 +6589,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6664,7 +6667,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
         <v>2.33</v>
@@ -7410,7 +7413,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7616,7 +7619,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7822,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8440,7 +8443,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8646,7 +8649,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9009,6 +9012,212 @@
       </c>
       <c r="BP40">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7450992</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45565.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41">
+        <v>3.1</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>3.6</v>
+      </c>
+      <c r="T41">
+        <v>1.47</v>
+      </c>
+      <c r="U41">
+        <v>2.5</v>
+      </c>
+      <c r="V41">
+        <v>3.05</v>
+      </c>
+      <c r="W41">
+        <v>1.33</v>
+      </c>
+      <c r="X41">
+        <v>7.9</v>
+      </c>
+      <c r="Y41">
+        <v>1.05</v>
+      </c>
+      <c r="Z41">
+        <v>2.35</v>
+      </c>
+      <c r="AA41">
+        <v>3.2</v>
+      </c>
+      <c r="AB41">
+        <v>2.88</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>1.3</v>
+      </c>
+      <c r="AF41">
+        <v>3.2</v>
+      </c>
+      <c r="AG41">
+        <v>2.08</v>
+      </c>
+      <c r="AH41">
+        <v>1.73</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.83</v>
+      </c>
+      <c r="AK41">
+        <v>1.4</v>
+      </c>
+      <c r="AL41">
+        <v>1.28</v>
+      </c>
+      <c r="AM41">
+        <v>1.52</v>
+      </c>
+      <c r="AN41">
+        <v>1.25</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1.6</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1.08</v>
+      </c>
+      <c r="AS41">
+        <v>1.36</v>
+      </c>
+      <c r="AT41">
+        <v>2.44</v>
+      </c>
+      <c r="AU41">
+        <v>8</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>9</v>
+      </c>
+      <c r="AZ41">
+        <v>13</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>3</v>
+      </c>
+      <c r="BC41">
+        <v>8</v>
+      </c>
+      <c r="BD41">
+        <v>2.13</v>
+      </c>
+      <c r="BE41">
+        <v>6.1</v>
+      </c>
+      <c r="BF41">
+        <v>2.12</v>
+      </c>
+      <c r="BG41">
+        <v>1.36</v>
+      </c>
+      <c r="BH41">
+        <v>2.9</v>
+      </c>
+      <c r="BI41">
+        <v>1.95</v>
+      </c>
+      <c r="BJ41">
+        <v>1.85</v>
+      </c>
+      <c r="BK41">
+        <v>2.07</v>
+      </c>
+      <c r="BL41">
+        <v>1.72</v>
+      </c>
+      <c r="BM41">
+        <v>3.05</v>
+      </c>
+      <c r="BN41">
+        <v>1.33</v>
+      </c>
+      <c r="BO41">
+        <v>3.6</v>
+      </c>
+      <c r="BP41">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -1132,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="AY2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1338,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="AY3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA3">
         <v>4</v>
@@ -1544,10 +1544,10 @@
         <v>4</v>
       </c>
       <c r="AY4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA4">
         <v>2</v>
@@ -1750,10 +1750,10 @@
         <v>1</v>
       </c>
       <c r="AY5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AZ5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA5">
         <v>16</v>
@@ -1956,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -2162,10 +2162,10 @@
         <v>8</v>
       </c>
       <c r="AY7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -2368,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="AY8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ8">
         <v>7</v>
@@ -2574,10 +2574,10 @@
         <v>4</v>
       </c>
       <c r="AY9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA9">
         <v>13</v>
@@ -2780,10 +2780,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -2986,10 +2986,10 @@
         <v>7</v>
       </c>
       <c r="AY11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA12">
         <v>5</v>
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="AY13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -3810,10 +3810,10 @@
         <v>8</v>
       </c>
       <c r="AY15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4016,10 +4016,10 @@
         <v>6</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA16">
         <v>5</v>
@@ -4222,10 +4222,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA17">
         <v>13</v>
@@ -4428,10 +4428,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA18">
         <v>2</v>
@@ -4634,10 +4634,10 @@
         <v>2</v>
       </c>
       <c r="AY19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -4840,10 +4840,10 @@
         <v>5</v>
       </c>
       <c r="AY20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA20">
         <v>2</v>
@@ -5046,10 +5046,10 @@
         <v>3</v>
       </c>
       <c r="AY21">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ21">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA21">
         <v>11</v>
@@ -5252,10 +5252,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>6</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA23">
         <v>4</v>
@@ -5664,10 +5664,10 @@
         <v>1</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -5870,10 +5870,10 @@
         <v>10</v>
       </c>
       <c r="AY25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6076,10 +6076,10 @@
         <v>6</v>
       </c>
       <c r="AY26">
+        <v>14</v>
+      </c>
+      <c r="AZ26">
         <v>9</v>
-      </c>
-      <c r="AZ26">
-        <v>8</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6282,10 +6282,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA27">
         <v>8</v>
@@ -6488,10 +6488,10 @@
         <v>3</v>
       </c>
       <c r="AY28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA28">
         <v>7</v>
@@ -6694,10 +6694,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -6900,10 +6900,10 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7106,10 +7106,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA31">
         <v>2</v>
@@ -7312,10 +7312,10 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -7518,10 +7518,10 @@
         <v>10</v>
       </c>
       <c r="AY33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA33">
         <v>8</v>
@@ -7724,7 +7724,7 @@
         <v>2</v>
       </c>
       <c r="AY34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ34">
         <v>5</v>
@@ -7933,7 +7933,7 @@
         <v>8</v>
       </c>
       <c r="AZ35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8136,10 +8136,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA36">
         <v>8</v>
@@ -8342,10 +8342,10 @@
         <v>2</v>
       </c>
       <c r="AY37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA37">
         <v>3</v>
@@ -8548,10 +8548,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA38">
         <v>6</v>
@@ -8754,10 +8754,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ39">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -8960,10 +8960,10 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9166,10 +9166,10 @@
         <v>8</v>
       </c>
       <c r="AY41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ41">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA41">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['28', '90+4']</t>
   </si>
   <si>
+    <t>['12', '22']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -407,6 +410,9 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -768,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1651,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1851,7 +1857,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2263,7 +2269,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2341,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2469,7 +2475,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2881,7 +2887,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3293,7 +3299,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3499,7 +3505,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3705,7 +3711,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3786,7 +3792,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4117,7 +4123,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4529,7 +4535,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4735,7 +4741,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4813,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -4941,7 +4947,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5147,7 +5153,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5353,7 +5359,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5640,7 +5646,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -5765,7 +5771,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5971,7 +5977,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6177,7 +6183,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6383,7 +6389,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6461,7 +6467,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6589,7 +6595,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7413,7 +7419,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7619,7 +7625,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7825,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -7906,7 +7912,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8443,7 +8449,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8649,7 +8655,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9061,7 +9067,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9218,6 +9224,212 @@
       </c>
       <c r="BP41">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7450998</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45569.54166666666</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>2.05</v>
+      </c>
+      <c r="S42">
+        <v>2.88</v>
+      </c>
+      <c r="T42">
+        <v>1.45</v>
+      </c>
+      <c r="U42">
+        <v>2.55</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1.33</v>
+      </c>
+      <c r="X42">
+        <v>8.1</v>
+      </c>
+      <c r="Y42">
+        <v>1.06</v>
+      </c>
+      <c r="Z42">
+        <v>3.2</v>
+      </c>
+      <c r="AA42">
+        <v>3.3</v>
+      </c>
+      <c r="AB42">
+        <v>2.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>8</v>
+      </c>
+      <c r="AE42">
+        <v>1.33</v>
+      </c>
+      <c r="AF42">
+        <v>3</v>
+      </c>
+      <c r="AG42">
+        <v>2.05</v>
+      </c>
+      <c r="AH42">
+        <v>1.75</v>
+      </c>
+      <c r="AI42">
+        <v>1.83</v>
+      </c>
+      <c r="AJ42">
+        <v>1.83</v>
+      </c>
+      <c r="AK42">
+        <v>1.7</v>
+      </c>
+      <c r="AL42">
+        <v>1.28</v>
+      </c>
+      <c r="AM42">
+        <v>1.28</v>
+      </c>
+      <c r="AN42">
+        <v>1.33</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
+        <v>1.75</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.41</v>
+      </c>
+      <c r="AS42">
+        <v>1.33</v>
+      </c>
+      <c r="AT42">
+        <v>2.74</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>6</v>
+      </c>
+      <c r="AX42">
+        <v>6</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>9</v>
+      </c>
+      <c r="BC42">
+        <v>12</v>
+      </c>
+      <c r="BD42">
+        <v>2.3</v>
+      </c>
+      <c r="BE42">
+        <v>7</v>
+      </c>
+      <c r="BF42">
+        <v>1.92</v>
+      </c>
+      <c r="BG42">
+        <v>1.33</v>
+      </c>
+      <c r="BH42">
+        <v>2.81</v>
+      </c>
+      <c r="BI42">
+        <v>1.66</v>
+      </c>
+      <c r="BJ42">
+        <v>2.09</v>
+      </c>
+      <c r="BK42">
+        <v>2.07</v>
+      </c>
+      <c r="BL42">
+        <v>1.61</v>
+      </c>
+      <c r="BM42">
+        <v>2.73</v>
+      </c>
+      <c r="BN42">
+        <v>1.33</v>
+      </c>
+      <c r="BO42">
+        <v>3.9</v>
+      </c>
+      <c r="BP42">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>['12', '22']</t>
+  </si>
+  <si>
+    <t>['26', '85']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -774,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1654,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1857,7 +1860,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2269,7 +2272,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2475,7 +2478,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2553,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2762,7 +2765,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2887,7 +2890,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3299,7 +3302,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3377,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3505,7 +3508,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3711,7 +3714,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4123,7 +4126,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4201,7 +4204,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
         <v>1.2</v>
@@ -4535,7 +4538,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4741,7 +4744,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4947,7 +4950,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5028,7 +5031,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5153,7 +5156,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5359,7 +5362,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5437,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -5771,7 +5774,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5849,7 +5852,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -5977,7 +5980,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6183,7 +6186,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6389,7 +6392,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6595,7 +6598,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6676,7 +6679,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7419,7 +7422,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7497,7 +7500,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -7625,7 +7628,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7831,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -7909,7 +7912,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8449,7 +8452,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8655,7 +8658,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9067,7 +9070,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9273,7 +9276,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9430,6 +9433,418 @@
       </c>
       <c r="BP42">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7450996</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q43">
+        <v>2.38</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>1.34</v>
+      </c>
+      <c r="U43">
+        <v>3.14</v>
+      </c>
+      <c r="V43">
+        <v>2.72</v>
+      </c>
+      <c r="W43">
+        <v>1.43</v>
+      </c>
+      <c r="X43">
+        <v>6.6</v>
+      </c>
+      <c r="Y43">
+        <v>1.09</v>
+      </c>
+      <c r="Z43">
+        <v>1.7</v>
+      </c>
+      <c r="AA43">
+        <v>3.4</v>
+      </c>
+      <c r="AB43">
+        <v>4.75</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>10</v>
+      </c>
+      <c r="AE43">
+        <v>1.22</v>
+      </c>
+      <c r="AF43">
+        <v>3.8</v>
+      </c>
+      <c r="AG43">
+        <v>2.1</v>
+      </c>
+      <c r="AH43">
+        <v>1.7</v>
+      </c>
+      <c r="AI43">
+        <v>1.91</v>
+      </c>
+      <c r="AJ43">
+        <v>1.8</v>
+      </c>
+      <c r="AK43">
+        <v>1.21</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.99</v>
+      </c>
+      <c r="AN43">
+        <v>0.25</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0.8</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>1.56</v>
+      </c>
+      <c r="AS43">
+        <v>0.84</v>
+      </c>
+      <c r="AT43">
+        <v>2.4</v>
+      </c>
+      <c r="AU43">
+        <v>6</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>8</v>
+      </c>
+      <c r="AY43">
+        <v>14</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>1.37</v>
+      </c>
+      <c r="BE43">
+        <v>8.4</v>
+      </c>
+      <c r="BF43">
+        <v>4.16</v>
+      </c>
+      <c r="BG43">
+        <v>1.21</v>
+      </c>
+      <c r="BH43">
+        <v>3.44</v>
+      </c>
+      <c r="BI43">
+        <v>1.42</v>
+      </c>
+      <c r="BJ43">
+        <v>2.49</v>
+      </c>
+      <c r="BK43">
+        <v>1.95</v>
+      </c>
+      <c r="BL43">
+        <v>1.85</v>
+      </c>
+      <c r="BM43">
+        <v>2.22</v>
+      </c>
+      <c r="BN43">
+        <v>1.62</v>
+      </c>
+      <c r="BO43">
+        <v>2.92</v>
+      </c>
+      <c r="BP43">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7450995</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q44">
+        <v>5.5</v>
+      </c>
+      <c r="R44">
+        <v>2.25</v>
+      </c>
+      <c r="S44">
+        <v>2.25</v>
+      </c>
+      <c r="T44">
+        <v>1.36</v>
+      </c>
+      <c r="U44">
+        <v>2.98</v>
+      </c>
+      <c r="V44">
+        <v>2.7</v>
+      </c>
+      <c r="W44">
+        <v>1.43</v>
+      </c>
+      <c r="X44">
+        <v>6.7</v>
+      </c>
+      <c r="Y44">
+        <v>1.09</v>
+      </c>
+      <c r="Z44">
+        <v>5</v>
+      </c>
+      <c r="AA44">
+        <v>3.6</v>
+      </c>
+      <c r="AB44">
+        <v>1.62</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>10</v>
+      </c>
+      <c r="AE44">
+        <v>1.22</v>
+      </c>
+      <c r="AF44">
+        <v>3.34</v>
+      </c>
+      <c r="AG44">
+        <v>1.95</v>
+      </c>
+      <c r="AH44">
+        <v>1.85</v>
+      </c>
+      <c r="AI44">
+        <v>1.83</v>
+      </c>
+      <c r="AJ44">
+        <v>1.83</v>
+      </c>
+      <c r="AK44">
+        <v>2.32</v>
+      </c>
+      <c r="AL44">
+        <v>1.22</v>
+      </c>
+      <c r="AM44">
+        <v>1.13</v>
+      </c>
+      <c r="AN44">
+        <v>1.33</v>
+      </c>
+      <c r="AO44">
+        <v>2.33</v>
+      </c>
+      <c r="AP44">
+        <v>1.25</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.77</v>
+      </c>
+      <c r="AS44">
+        <v>1.22</v>
+      </c>
+      <c r="AT44">
+        <v>2.99</v>
+      </c>
+      <c r="AU44">
+        <v>2</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>10</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>4</v>
+      </c>
+      <c r="BB44">
+        <v>2</v>
+      </c>
+      <c r="BC44">
+        <v>6</v>
+      </c>
+      <c r="BD44">
+        <v>3</v>
+      </c>
+      <c r="BE44">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF44">
+        <v>1.57</v>
+      </c>
+      <c r="BG44">
+        <v>1.27</v>
+      </c>
+      <c r="BH44">
+        <v>3.04</v>
+      </c>
+      <c r="BI44">
+        <v>1.58</v>
+      </c>
+      <c r="BJ44">
+        <v>2.29</v>
+      </c>
+      <c r="BK44">
+        <v>1.96</v>
+      </c>
+      <c r="BL44">
+        <v>1.83</v>
+      </c>
+      <c r="BM44">
+        <v>2.47</v>
+      </c>
+      <c r="BN44">
+        <v>1.51</v>
+      </c>
+      <c r="BO44">
+        <v>3.35</v>
+      </c>
+      <c r="BP44">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['26', '85']</t>
   </si>
   <si>
+    <t>['2', '17', '62', '88']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -416,6 +419,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,7 +1660,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1735,7 +1741,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1860,7 +1866,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2272,7 +2278,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2478,7 +2484,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2762,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -2890,7 +2896,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2971,7 +2977,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>3.14</v>
@@ -3177,7 +3183,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3302,7 +3308,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3508,7 +3514,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3714,7 +3720,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4126,7 +4132,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4207,7 +4213,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -4410,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4538,7 +4544,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4744,7 +4750,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4950,7 +4956,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5156,7 +5162,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5237,7 +5243,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5362,7 +5368,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5774,7 +5780,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5980,7 +5986,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6061,7 +6067,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6186,7 +6192,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6392,7 +6398,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6598,7 +6604,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7294,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7422,7 +7428,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7503,7 +7509,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -7628,7 +7634,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7834,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8121,7 +8127,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -8452,7 +8458,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8658,7 +8664,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9070,7 +9076,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9276,7 +9282,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9845,6 +9851,418 @@
       </c>
       <c r="BP44">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7450997</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>2.2</v>
+      </c>
+      <c r="S45">
+        <v>2.2</v>
+      </c>
+      <c r="T45">
+        <v>1.34</v>
+      </c>
+      <c r="U45">
+        <v>3.11</v>
+      </c>
+      <c r="V45">
+        <v>2.74</v>
+      </c>
+      <c r="W45">
+        <v>1.42</v>
+      </c>
+      <c r="X45">
+        <v>6.6</v>
+      </c>
+      <c r="Y45">
+        <v>1.09</v>
+      </c>
+      <c r="Z45">
+        <v>5.5</v>
+      </c>
+      <c r="AA45">
+        <v>3.6</v>
+      </c>
+      <c r="AB45">
+        <v>1.57</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.22</v>
+      </c>
+      <c r="AF45">
+        <v>3.8</v>
+      </c>
+      <c r="AG45">
+        <v>2.08</v>
+      </c>
+      <c r="AH45">
+        <v>1.73</v>
+      </c>
+      <c r="AI45">
+        <v>2.1</v>
+      </c>
+      <c r="AJ45">
+        <v>1.67</v>
+      </c>
+      <c r="AK45">
+        <v>2.39</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.12</v>
+      </c>
+      <c r="AN45">
+        <v>2.33</v>
+      </c>
+      <c r="AO45">
+        <v>1.33</v>
+      </c>
+      <c r="AP45">
+        <v>1.75</v>
+      </c>
+      <c r="AQ45">
+        <v>1.75</v>
+      </c>
+      <c r="AR45">
+        <v>1.19</v>
+      </c>
+      <c r="AS45">
+        <v>1.66</v>
+      </c>
+      <c r="AT45">
+        <v>2.85</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>7</v>
+      </c>
+      <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
+        <v>3</v>
+      </c>
+      <c r="AY45">
+        <v>8</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>2.91</v>
+      </c>
+      <c r="BE45">
+        <v>7.7</v>
+      </c>
+      <c r="BF45">
+        <v>1.62</v>
+      </c>
+      <c r="BG45">
+        <v>1.26</v>
+      </c>
+      <c r="BH45">
+        <v>3.08</v>
+      </c>
+      <c r="BI45">
+        <v>1.56</v>
+      </c>
+      <c r="BJ45">
+        <v>2.35</v>
+      </c>
+      <c r="BK45">
+        <v>1.93</v>
+      </c>
+      <c r="BL45">
+        <v>1.87</v>
+      </c>
+      <c r="BM45">
+        <v>2.41</v>
+      </c>
+      <c r="BN45">
+        <v>1.53</v>
+      </c>
+      <c r="BO45">
+        <v>3.28</v>
+      </c>
+      <c r="BP45">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7450994</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45571.5625</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>110</v>
+      </c>
+      <c r="P46" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q46">
+        <v>1.8</v>
+      </c>
+      <c r="R46">
+        <v>2.4</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3.15</v>
+      </c>
+      <c r="V46">
+        <v>2.54</v>
+      </c>
+      <c r="W46">
+        <v>1.48</v>
+      </c>
+      <c r="X46">
+        <v>6.1</v>
+      </c>
+      <c r="Y46">
+        <v>1.1</v>
+      </c>
+      <c r="Z46">
+        <v>1.27</v>
+      </c>
+      <c r="AA46">
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <v>10</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>11</v>
+      </c>
+      <c r="AE46">
+        <v>1.2</v>
+      </c>
+      <c r="AF46">
+        <v>4</v>
+      </c>
+      <c r="AG46">
+        <v>1.85</v>
+      </c>
+      <c r="AH46">
+        <v>1.95</v>
+      </c>
+      <c r="AI46">
+        <v>2.5</v>
+      </c>
+      <c r="AJ46">
+        <v>1.5</v>
+      </c>
+      <c r="AK46">
+        <v>1.03</v>
+      </c>
+      <c r="AL46">
+        <v>1.14</v>
+      </c>
+      <c r="AM46">
+        <v>3.48</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>1.2</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.57</v>
+      </c>
+      <c r="AS46">
+        <v>0.95</v>
+      </c>
+      <c r="AT46">
+        <v>2.52</v>
+      </c>
+      <c r="AU46">
+        <v>7</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>17</v>
+      </c>
+      <c r="AZ46">
+        <v>6</v>
+      </c>
+      <c r="BA46">
+        <v>11</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>15</v>
+      </c>
+      <c r="BD46">
+        <v>1.21</v>
+      </c>
+      <c r="BE46">
+        <v>10.5</v>
+      </c>
+      <c r="BF46">
+        <v>5.96</v>
+      </c>
+      <c r="BG46">
+        <v>1.33</v>
+      </c>
+      <c r="BH46">
+        <v>3</v>
+      </c>
+      <c r="BI46">
+        <v>1.57</v>
+      </c>
+      <c r="BJ46">
+        <v>2.25</v>
+      </c>
+      <c r="BK46">
+        <v>2</v>
+      </c>
+      <c r="BL46">
+        <v>1.8</v>
+      </c>
+      <c r="BM46">
+        <v>2.47</v>
+      </c>
+      <c r="BN46">
+        <v>1.48</v>
+      </c>
+      <c r="BO46">
+        <v>3.3</v>
+      </c>
+      <c r="BP46">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,9 @@
     <t>['2', '17', '62', '88']</t>
   </si>
   <si>
+    <t>['26', '67']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['23', '90']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1666,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1866,7 +1872,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2278,7 +2284,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2484,7 +2490,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2562,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2771,7 +2777,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2896,7 +2902,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3308,7 +3314,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3514,7 +3520,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3720,7 +3726,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4132,7 +4138,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4210,7 +4216,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4544,7 +4550,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4750,7 +4756,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4956,7 +4962,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5037,7 +5043,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5162,7 +5168,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5368,7 +5374,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5780,7 +5786,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5858,7 +5864,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -5986,7 +5992,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6192,7 +6198,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6398,7 +6404,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6604,7 +6610,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6685,7 +6691,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7428,7 +7434,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7634,7 +7640,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7840,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -7918,7 +7924,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8458,7 +8464,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8664,7 +8670,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9076,7 +9082,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9282,7 +9288,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9566,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9775,7 +9781,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -9900,7 +9906,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10262,6 +10268,212 @@
         <v>3.3</v>
       </c>
       <c r="BP46">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7451002</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45583.54166666666</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q47">
+        <v>4.5</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>2.75</v>
+      </c>
+      <c r="T47">
+        <v>1.45</v>
+      </c>
+      <c r="U47">
+        <v>2.6</v>
+      </c>
+      <c r="V47">
+        <v>2.9</v>
+      </c>
+      <c r="W47">
+        <v>1.37</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.07</v>
+      </c>
+      <c r="Z47">
+        <v>3.8</v>
+      </c>
+      <c r="AA47">
+        <v>3.1</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>1.03</v>
+      </c>
+      <c r="AD47">
+        <v>9</v>
+      </c>
+      <c r="AE47">
+        <v>1.33</v>
+      </c>
+      <c r="AF47">
+        <v>3.1</v>
+      </c>
+      <c r="AG47">
+        <v>2.35</v>
+      </c>
+      <c r="AH47">
+        <v>1.57</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.73</v>
+      </c>
+      <c r="AK47">
+        <v>1.9</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.17</v>
+      </c>
+      <c r="AN47">
+        <v>0.8</v>
+      </c>
+      <c r="AO47">
+        <v>2</v>
+      </c>
+      <c r="AP47">
+        <v>0.83</v>
+      </c>
+      <c r="AQ47">
+        <v>1.8</v>
+      </c>
+      <c r="AR47">
+        <v>1.56</v>
+      </c>
+      <c r="AS47">
+        <v>1.19</v>
+      </c>
+      <c r="AT47">
+        <v>2.75</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>9</v>
+      </c>
+      <c r="AW47">
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <v>8</v>
+      </c>
+      <c r="AY47">
+        <v>11</v>
+      </c>
+      <c r="AZ47">
+        <v>27</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>8</v>
+      </c>
+      <c r="BC47">
+        <v>9</v>
+      </c>
+      <c r="BD47">
+        <v>2.52</v>
+      </c>
+      <c r="BE47">
+        <v>8</v>
+      </c>
+      <c r="BF47">
+        <v>1.75</v>
+      </c>
+      <c r="BG47">
+        <v>1.32</v>
+      </c>
+      <c r="BH47">
+        <v>3.2</v>
+      </c>
+      <c r="BI47">
+        <v>1.56</v>
+      </c>
+      <c r="BJ47">
+        <v>2.32</v>
+      </c>
+      <c r="BK47">
+        <v>2</v>
+      </c>
+      <c r="BL47">
+        <v>1.81</v>
+      </c>
+      <c r="BM47">
+        <v>2.5</v>
+      </c>
+      <c r="BN47">
+        <v>1.49</v>
+      </c>
+      <c r="BO47">
+        <v>3.35</v>
+      </c>
+      <c r="BP47">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,12 @@
     <t>['26', '67']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['43', '53']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -428,6 +434,12 @@
   </si>
   <si>
     <t>['23', '90']</t>
+  </si>
+  <si>
+    <t>['45+5', '61', '81']</t>
+  </si>
+  <si>
+    <t>['52', '80']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1678,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1872,7 +1884,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2156,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2284,7 +2296,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2362,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2490,7 +2502,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2902,7 +2914,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2983,7 +2995,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>3.14</v>
@@ -3314,7 +3326,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3520,7 +3532,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3726,7 +3738,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3807,7 +3819,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4138,7 +4150,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4550,7 +4562,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4756,7 +4768,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4834,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -4962,7 +4974,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5168,7 +5180,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5374,7 +5386,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5661,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -5786,7 +5798,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5992,7 +6004,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6073,7 +6085,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6198,7 +6210,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6404,7 +6416,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6482,7 +6494,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6610,7 +6622,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7100,7 +7112,7 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7434,7 +7446,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7515,7 +7527,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -7640,7 +7652,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7846,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -7927,7 +7939,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8336,7 +8348,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8464,7 +8476,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8670,7 +8682,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9082,7 +9094,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9288,7 +9300,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9366,10 +9378,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9906,7 +9918,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9987,7 +9999,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10318,7 +10330,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10475,6 +10487,418 @@
       </c>
       <c r="BP47">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7450999</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>112</v>
+      </c>
+      <c r="P48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q48">
+        <v>4.5</v>
+      </c>
+      <c r="R48">
+        <v>2.05</v>
+      </c>
+      <c r="S48">
+        <v>2.63</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.25</v>
+      </c>
+      <c r="W48">
+        <v>1.33</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>3.9</v>
+      </c>
+      <c r="AA48">
+        <v>3.25</v>
+      </c>
+      <c r="AB48">
+        <v>1.91</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>2.15</v>
+      </c>
+      <c r="AH48">
+        <v>1.67</v>
+      </c>
+      <c r="AI48">
+        <v>1.91</v>
+      </c>
+      <c r="AJ48">
+        <v>1.8</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1.67</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>1.25</v>
+      </c>
+      <c r="AQ48">
+        <v>1.4</v>
+      </c>
+      <c r="AR48">
+        <v>1.2</v>
+      </c>
+      <c r="AS48">
+        <v>1.33</v>
+      </c>
+      <c r="AT48">
+        <v>2.53</v>
+      </c>
+      <c r="AU48">
+        <v>2</v>
+      </c>
+      <c r="AV48">
+        <v>8</v>
+      </c>
+      <c r="AW48">
+        <v>5</v>
+      </c>
+      <c r="AX48">
+        <v>10</v>
+      </c>
+      <c r="AY48">
+        <v>9</v>
+      </c>
+      <c r="AZ48">
+        <v>19</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>8</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7451000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45584.5625</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>113</v>
+      </c>
+      <c r="P49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q49">
+        <v>6.5</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>2.05</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>5.75</v>
+      </c>
+      <c r="AA49">
+        <v>4.5</v>
+      </c>
+      <c r="AB49">
+        <v>1.44</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>11.4</v>
+      </c>
+      <c r="AE49">
+        <v>1.24</v>
+      </c>
+      <c r="AF49">
+        <v>3.22</v>
+      </c>
+      <c r="AG49">
+        <v>1.95</v>
+      </c>
+      <c r="AH49">
+        <v>1.85</v>
+      </c>
+      <c r="AI49">
+        <v>2.1</v>
+      </c>
+      <c r="AJ49">
+        <v>1.67</v>
+      </c>
+      <c r="AK49">
+        <v>2.75</v>
+      </c>
+      <c r="AL49">
+        <v>1.16</v>
+      </c>
+      <c r="AM49">
+        <v>1.06</v>
+      </c>
+      <c r="AN49">
+        <v>1.75</v>
+      </c>
+      <c r="AO49">
+        <v>1.75</v>
+      </c>
+      <c r="AP49">
+        <v>1.6</v>
+      </c>
+      <c r="AQ49">
+        <v>1.6</v>
+      </c>
+      <c r="AR49">
+        <v>1.37</v>
+      </c>
+      <c r="AS49">
+        <v>1.63</v>
+      </c>
+      <c r="AT49">
+        <v>3</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>17</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>4</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>4.55</v>
+      </c>
+      <c r="BE49">
+        <v>7.5</v>
+      </c>
+      <c r="BF49">
+        <v>1.33</v>
+      </c>
+      <c r="BG49">
+        <v>1.31</v>
+      </c>
+      <c r="BH49">
+        <v>2.82</v>
+      </c>
+      <c r="BI49">
+        <v>1.73</v>
+      </c>
+      <c r="BJ49">
+        <v>2</v>
+      </c>
+      <c r="BK49">
+        <v>2.08</v>
+      </c>
+      <c r="BL49">
+        <v>1.67</v>
+      </c>
+      <c r="BM49">
+        <v>2.7</v>
+      </c>
+      <c r="BN49">
+        <v>1.36</v>
+      </c>
+      <c r="BO49">
+        <v>3.72</v>
+      </c>
+      <c r="BP49">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,9 @@
     <t>['43', '53']</t>
   </si>
   <si>
+    <t>['19', '51']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -440,6 +443,9 @@
   </si>
   <si>
     <t>['52', '80']</t>
+  </si>
+  <si>
+    <t>['39', '45']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1678,7 +1684,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1884,7 +1890,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2296,7 +2302,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2502,7 +2508,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2583,7 +2589,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2786,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.8</v>
@@ -2914,7 +2920,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3326,7 +3332,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3404,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3532,7 +3538,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3738,7 +3744,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4150,7 +4156,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4434,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4562,7 +4568,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4768,7 +4774,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4849,7 +4855,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -4974,7 +4980,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5180,7 +5186,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5386,7 +5392,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5464,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -5798,7 +5804,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6004,7 +6010,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6210,7 +6216,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6291,7 +6297,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6416,7 +6422,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6622,7 +6628,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7318,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7446,7 +7452,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7524,7 +7530,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.6</v>
@@ -7652,7 +7658,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7858,7 +7864,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8476,7 +8482,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8682,7 +8688,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8969,7 +8975,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9094,7 +9100,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9300,7 +9306,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9790,7 +9796,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.8</v>
@@ -9918,7 +9924,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9996,7 +10002,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10330,7 +10336,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10536,7 +10542,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10742,7 +10748,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10899,6 +10905,418 @@
       </c>
       <c r="BP49">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7451003</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45585.45833333334</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P50" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q50">
+        <v>5.5</v>
+      </c>
+      <c r="R50">
+        <v>2.2</v>
+      </c>
+      <c r="S50">
+        <v>2.25</v>
+      </c>
+      <c r="T50">
+        <v>1.36</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>5.5</v>
+      </c>
+      <c r="AA50">
+        <v>3.5</v>
+      </c>
+      <c r="AB50">
+        <v>1.67</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>1.25</v>
+      </c>
+      <c r="AF50">
+        <v>3.75</v>
+      </c>
+      <c r="AG50">
+        <v>1.95</v>
+      </c>
+      <c r="AH50">
+        <v>1.85</v>
+      </c>
+      <c r="AI50">
+        <v>1.83</v>
+      </c>
+      <c r="AJ50">
+        <v>1.83</v>
+      </c>
+      <c r="AK50">
+        <v>2.4</v>
+      </c>
+      <c r="AL50">
+        <v>1.18</v>
+      </c>
+      <c r="AM50">
+        <v>1.1</v>
+      </c>
+      <c r="AN50">
+        <v>1.25</v>
+      </c>
+      <c r="AO50">
+        <v>1.5</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>1.8</v>
+      </c>
+      <c r="AR50">
+        <v>1.52</v>
+      </c>
+      <c r="AS50">
+        <v>1.36</v>
+      </c>
+      <c r="AT50">
+        <v>2.88</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>13</v>
+      </c>
+      <c r="AZ50">
+        <v>13</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>3.16</v>
+      </c>
+      <c r="BE50">
+        <v>8.5</v>
+      </c>
+      <c r="BF50">
+        <v>1.51</v>
+      </c>
+      <c r="BG50">
+        <v>1.3</v>
+      </c>
+      <c r="BH50">
+        <v>3.32</v>
+      </c>
+      <c r="BI50">
+        <v>1.53</v>
+      </c>
+      <c r="BJ50">
+        <v>2.4</v>
+      </c>
+      <c r="BK50">
+        <v>2.2</v>
+      </c>
+      <c r="BL50">
+        <v>1.85</v>
+      </c>
+      <c r="BM50">
+        <v>2.42</v>
+      </c>
+      <c r="BN50">
+        <v>1.52</v>
+      </c>
+      <c r="BO50">
+        <v>3.25</v>
+      </c>
+      <c r="BP50">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7451001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45585.5625</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P51" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q51">
+        <v>2.2</v>
+      </c>
+      <c r="R51">
+        <v>2.2</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>1.4</v>
+      </c>
+      <c r="U51">
+        <v>2.75</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>1.36</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51">
+        <v>1.08</v>
+      </c>
+      <c r="Z51">
+        <v>1.57</v>
+      </c>
+      <c r="AA51">
+        <v>3.9</v>
+      </c>
+      <c r="AB51">
+        <v>5.5</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>8.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.3</v>
+      </c>
+      <c r="AF51">
+        <v>3.3</v>
+      </c>
+      <c r="AG51">
+        <v>2.05</v>
+      </c>
+      <c r="AH51">
+        <v>1.75</v>
+      </c>
+      <c r="AI51">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.67</v>
+      </c>
+      <c r="AK51">
+        <v>1.12</v>
+      </c>
+      <c r="AL51">
+        <v>1.2</v>
+      </c>
+      <c r="AM51">
+        <v>2.2</v>
+      </c>
+      <c r="AN51">
+        <v>1.75</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1.18</v>
+      </c>
+      <c r="AS51">
+        <v>0.85</v>
+      </c>
+      <c r="AT51">
+        <v>2.03</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>18</v>
+      </c>
+      <c r="AZ51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
+        <v>2</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>4</v>
+      </c>
+      <c r="BD51">
+        <v>1.48</v>
+      </c>
+      <c r="BE51">
+        <v>7.5</v>
+      </c>
+      <c r="BF51">
+        <v>3.55</v>
+      </c>
+      <c r="BG51">
+        <v>1.38</v>
+      </c>
+      <c r="BH51">
+        <v>2.88</v>
+      </c>
+      <c r="BI51">
+        <v>1.67</v>
+      </c>
+      <c r="BJ51">
+        <v>2.13</v>
+      </c>
+      <c r="BK51">
+        <v>2.1</v>
+      </c>
+      <c r="BL51">
+        <v>1.68</v>
+      </c>
+      <c r="BM51">
+        <v>2.77</v>
+      </c>
+      <c r="BN51">
+        <v>1.41</v>
+      </c>
+      <c r="BO51">
+        <v>3.78</v>
+      </c>
+      <c r="BP51">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,9 @@
     <t>['19', '51']</t>
   </si>
   <si>
+    <t>['30', '57']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
   </si>
   <si>
     <t>['39', '45']</t>
+  </si>
+  <si>
+    <t>['20', '88']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,7 +1690,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1890,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2302,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2508,7 +2514,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2920,7 +2926,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3332,7 +3338,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3538,7 +3544,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3744,7 +3750,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4156,7 +4162,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4568,7 +4574,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4774,7 +4780,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4980,7 +4986,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5186,7 +5192,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5392,7 +5398,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5804,7 +5810,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6010,7 +6016,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6216,7 +6222,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6422,7 +6428,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6628,7 +6634,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7452,7 +7458,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7658,7 +7664,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7864,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8482,7 +8488,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8688,7 +8694,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9100,7 +9106,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9306,7 +9312,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9924,7 +9930,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10336,7 +10342,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10542,7 +10548,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10748,7 +10754,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10954,7 +10960,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11317,6 +11323,212 @@
       </c>
       <c r="BP51">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7451004</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45590.54166666666</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>115</v>
+      </c>
+      <c r="P52" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q52">
+        <v>2.3</v>
+      </c>
+      <c r="R52">
+        <v>2.2</v>
+      </c>
+      <c r="S52">
+        <v>5.5</v>
+      </c>
+      <c r="T52">
+        <v>1.41</v>
+      </c>
+      <c r="U52">
+        <v>2.79</v>
+      </c>
+      <c r="V52">
+        <v>3.1</v>
+      </c>
+      <c r="W52">
+        <v>1.35</v>
+      </c>
+      <c r="X52">
+        <v>7.9</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>1.65</v>
+      </c>
+      <c r="AA52">
+        <v>3.5</v>
+      </c>
+      <c r="AB52">
+        <v>5</v>
+      </c>
+      <c r="AC52">
+        <v>1.05</v>
+      </c>
+      <c r="AD52">
+        <v>8</v>
+      </c>
+      <c r="AE52">
+        <v>1.33</v>
+      </c>
+      <c r="AF52">
+        <v>3</v>
+      </c>
+      <c r="AG52">
+        <v>2.05</v>
+      </c>
+      <c r="AH52">
+        <v>1.75</v>
+      </c>
+      <c r="AI52">
+        <v>2</v>
+      </c>
+      <c r="AJ52">
+        <v>1.73</v>
+      </c>
+      <c r="AK52">
+        <v>1.26</v>
+      </c>
+      <c r="AL52">
+        <v>1.31</v>
+      </c>
+      <c r="AM52">
+        <v>1.73</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1.48</v>
+      </c>
+      <c r="AS52">
+        <v>0.93</v>
+      </c>
+      <c r="AT52">
+        <v>2.41</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>5</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>13</v>
+      </c>
+      <c r="AZ52">
+        <v>11</v>
+      </c>
+      <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>12</v>
+      </c>
+      <c r="BD52">
+        <v>1.44</v>
+      </c>
+      <c r="BE52">
+        <v>7</v>
+      </c>
+      <c r="BF52">
+        <v>3.72</v>
+      </c>
+      <c r="BG52">
+        <v>1.26</v>
+      </c>
+      <c r="BH52">
+        <v>3.08</v>
+      </c>
+      <c r="BI52">
+        <v>1.51</v>
+      </c>
+      <c r="BJ52">
+        <v>2.26</v>
+      </c>
+      <c r="BK52">
+        <v>1.92</v>
+      </c>
+      <c r="BL52">
+        <v>1.79</v>
+      </c>
+      <c r="BM52">
+        <v>2.43</v>
+      </c>
+      <c r="BN52">
+        <v>1.44</v>
+      </c>
+      <c r="BO52">
+        <v>3.28</v>
+      </c>
+      <c r="BP52">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['30', '57']</t>
   </si>
   <si>
+    <t>['7', '76']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -452,6 +455,12 @@
   </si>
   <si>
     <t>['20', '88']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1562,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1690,7 +1699,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1896,7 +1905,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2308,7 +2317,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2514,7 +2523,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2926,7 +2935,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3338,7 +3347,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3419,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3544,7 +3553,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3750,7 +3759,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4034,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.8</v>
@@ -4162,7 +4171,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4574,7 +4583,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4780,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4986,7 +4995,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5192,7 +5201,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5398,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5810,7 +5819,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6016,7 +6025,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6094,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.6</v>
@@ -6222,7 +6231,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6428,7 +6437,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6509,7 +6518,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6634,7 +6643,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7458,7 +7467,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7664,7 +7673,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7870,7 +7879,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8154,7 +8163,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8488,7 +8497,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8569,7 +8578,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.94</v>
@@ -8694,7 +8703,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8978,7 +8987,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.8</v>
@@ -9106,7 +9115,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9312,7 +9321,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9930,7 +9939,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10342,7 +10351,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10548,7 +10557,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10754,7 +10763,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10960,7 +10969,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11372,7 +11381,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11529,6 +11538,418 @@
       </c>
       <c r="BP52">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7451005</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>116</v>
+      </c>
+      <c r="P53" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q53">
+        <v>1.8</v>
+      </c>
+      <c r="R53">
+        <v>2.6</v>
+      </c>
+      <c r="S53">
+        <v>7.5</v>
+      </c>
+      <c r="T53">
+        <v>1.3</v>
+      </c>
+      <c r="U53">
+        <v>3.4</v>
+      </c>
+      <c r="V53">
+        <v>2.38</v>
+      </c>
+      <c r="W53">
+        <v>1.53</v>
+      </c>
+      <c r="X53">
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>1.13</v>
+      </c>
+      <c r="Z53">
+        <v>1.3</v>
+      </c>
+      <c r="AA53">
+        <v>4.75</v>
+      </c>
+      <c r="AB53">
+        <v>8</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>10</v>
+      </c>
+      <c r="AE53">
+        <v>1.19</v>
+      </c>
+      <c r="AF53">
+        <v>4.22</v>
+      </c>
+      <c r="AG53">
+        <v>1.6</v>
+      </c>
+      <c r="AH53">
+        <v>2.3</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.04</v>
+      </c>
+      <c r="AL53">
+        <v>1.14</v>
+      </c>
+      <c r="AM53">
+        <v>2.75</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>3</v>
+      </c>
+      <c r="AQ53">
+        <v>0.8</v>
+      </c>
+      <c r="AR53">
+        <v>1.65</v>
+      </c>
+      <c r="AS53">
+        <v>1.46</v>
+      </c>
+      <c r="AT53">
+        <v>3.11</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>7</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>2</v>
+      </c>
+      <c r="AY53">
+        <v>11</v>
+      </c>
+      <c r="AZ53">
+        <v>9</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>6</v>
+      </c>
+      <c r="BD53">
+        <v>1.22</v>
+      </c>
+      <c r="BE53">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF53">
+        <v>5.85</v>
+      </c>
+      <c r="BG53">
+        <v>1.28</v>
+      </c>
+      <c r="BH53">
+        <v>3.3</v>
+      </c>
+      <c r="BI53">
+        <v>1.53</v>
+      </c>
+      <c r="BJ53">
+        <v>2.45</v>
+      </c>
+      <c r="BK53">
+        <v>2.38</v>
+      </c>
+      <c r="BL53">
+        <v>1.91</v>
+      </c>
+      <c r="BM53">
+        <v>2.41</v>
+      </c>
+      <c r="BN53">
+        <v>1.54</v>
+      </c>
+      <c r="BO53">
+        <v>3</v>
+      </c>
+      <c r="BP53">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7451006</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45591.5625</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>100</v>
+      </c>
+      <c r="P54" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q54">
+        <v>2.1</v>
+      </c>
+      <c r="R54">
+        <v>2.2</v>
+      </c>
+      <c r="S54">
+        <v>6.5</v>
+      </c>
+      <c r="T54">
+        <v>1.39</v>
+      </c>
+      <c r="U54">
+        <v>2.88</v>
+      </c>
+      <c r="V54">
+        <v>3.01</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>7.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>1.5</v>
+      </c>
+      <c r="AA54">
+        <v>3.75</v>
+      </c>
+      <c r="AB54">
+        <v>6.25</v>
+      </c>
+      <c r="AC54">
+        <v>1.03</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>1.29</v>
+      </c>
+      <c r="AF54">
+        <v>3.3</v>
+      </c>
+      <c r="AG54">
+        <v>2.08</v>
+      </c>
+      <c r="AH54">
+        <v>1.73</v>
+      </c>
+      <c r="AI54">
+        <v>2.2</v>
+      </c>
+      <c r="AJ54">
+        <v>1.62</v>
+      </c>
+      <c r="AK54">
+        <v>1.06</v>
+      </c>
+      <c r="AL54">
+        <v>1.19</v>
+      </c>
+      <c r="AM54">
+        <v>2.82</v>
+      </c>
+      <c r="AN54">
+        <v>2.2</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1.59</v>
+      </c>
+      <c r="AS54">
+        <v>1.6</v>
+      </c>
+      <c r="AT54">
+        <v>3.19</v>
+      </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>9</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>16</v>
+      </c>
+      <c r="AZ54">
+        <v>11</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>1</v>
+      </c>
+      <c r="BC54">
+        <v>3</v>
+      </c>
+      <c r="BD54">
+        <v>1.39</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>4.06</v>
+      </c>
+      <c r="BG54">
+        <v>1.27</v>
+      </c>
+      <c r="BH54">
+        <v>3.04</v>
+      </c>
+      <c r="BI54">
+        <v>1.53</v>
+      </c>
+      <c r="BJ54">
+        <v>2.21</v>
+      </c>
+      <c r="BK54">
+        <v>2.38</v>
+      </c>
+      <c r="BL54">
+        <v>1.76</v>
+      </c>
+      <c r="BM54">
+        <v>2.49</v>
+      </c>
+      <c r="BN54">
+        <v>1.42</v>
+      </c>
+      <c r="BO54">
+        <v>3.35</v>
+      </c>
+      <c r="BP54">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -11683,19 +11683,19 @@
         <v>7</v>
       </c>
       <c r="AV53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
         <v>4</v>
       </c>
-      <c r="AX53">
-        <v>2</v>
-      </c>
       <c r="AY53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ53">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA53">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,15 +367,18 @@
     <t>['7', '76']</t>
   </si>
   <si>
+    <t>['18', '51']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -461,6 +464,9 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['22', '40', '55', '89']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1365,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1699,7 +1705,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1905,7 +1911,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2317,7 +2323,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2523,7 +2529,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2935,7 +2941,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3219,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3347,7 +3353,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3553,7 +3559,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3759,7 +3765,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3837,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4046,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>1.93</v>
@@ -4171,7 +4177,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4583,7 +4589,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4661,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4789,7 +4795,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4995,7 +5001,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5201,7 +5207,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5279,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5407,7 +5413,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5488,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -5694,7 +5700,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -5819,7 +5825,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6025,7 +6031,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6231,7 +6237,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6309,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>1.8</v>
@@ -6437,7 +6443,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6643,7 +6649,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6721,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>1.8</v>
@@ -7342,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7467,7 +7473,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7673,7 +7679,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7879,7 +7885,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -7960,7 +7966,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8372,7 +8378,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.04</v>
@@ -8497,7 +8503,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8575,7 +8581,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.8</v>
@@ -8703,7 +8709,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9115,7 +9121,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9193,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9321,7 +9327,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9402,7 +9408,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9939,7 +9945,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10351,7 +10357,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10557,7 +10563,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10638,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -10763,7 +10769,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10969,7 +10975,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11381,7 +11387,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11587,7 +11593,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11793,7 +11799,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -11950,6 +11956,418 @@
       </c>
       <c r="BP54">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7451008</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45592.5</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>6</v>
+      </c>
+      <c r="O55" t="s">
+        <v>117</v>
+      </c>
+      <c r="P55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55">
+        <v>1.8</v>
+      </c>
+      <c r="R55">
+        <v>2.5</v>
+      </c>
+      <c r="S55">
+        <v>7.5</v>
+      </c>
+      <c r="T55">
+        <v>1.31</v>
+      </c>
+      <c r="U55">
+        <v>3.28</v>
+      </c>
+      <c r="V55">
+        <v>2.48</v>
+      </c>
+      <c r="W55">
+        <v>1.51</v>
+      </c>
+      <c r="X55">
+        <v>5.7</v>
+      </c>
+      <c r="Y55">
+        <v>1.12</v>
+      </c>
+      <c r="Z55">
+        <v>1.3</v>
+      </c>
+      <c r="AA55">
+        <v>4.5</v>
+      </c>
+      <c r="AB55">
+        <v>8</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>13</v>
+      </c>
+      <c r="AE55">
+        <v>1.14</v>
+      </c>
+      <c r="AF55">
+        <v>4.8</v>
+      </c>
+      <c r="AG55">
+        <v>1.65</v>
+      </c>
+      <c r="AH55">
+        <v>2.2</v>
+      </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.73</v>
+      </c>
+      <c r="AK55">
+        <v>1.01</v>
+      </c>
+      <c r="AL55">
+        <v>1.1</v>
+      </c>
+      <c r="AM55">
+        <v>2.85</v>
+      </c>
+      <c r="AN55">
+        <v>2.4</v>
+      </c>
+      <c r="AO55">
+        <v>1.4</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+      <c r="AQ55">
+        <v>1.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.97</v>
+      </c>
+      <c r="AS55">
+        <v>1.5</v>
+      </c>
+      <c r="AT55">
+        <v>3.47</v>
+      </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>5</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>17</v>
+      </c>
+      <c r="AZ55">
+        <v>11</v>
+      </c>
+      <c r="BA55">
+        <v>4</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>6</v>
+      </c>
+      <c r="BD55">
+        <v>1.34</v>
+      </c>
+      <c r="BE55">
+        <v>8.4</v>
+      </c>
+      <c r="BF55">
+        <v>4.46</v>
+      </c>
+      <c r="BG55">
+        <v>1.24</v>
+      </c>
+      <c r="BH55">
+        <v>3.22</v>
+      </c>
+      <c r="BI55">
+        <v>1.48</v>
+      </c>
+      <c r="BJ55">
+        <v>2.33</v>
+      </c>
+      <c r="BK55">
+        <v>1.87</v>
+      </c>
+      <c r="BL55">
+        <v>1.83</v>
+      </c>
+      <c r="BM55">
+        <v>2.35</v>
+      </c>
+      <c r="BN55">
+        <v>1.47</v>
+      </c>
+      <c r="BO55">
+        <v>3.14</v>
+      </c>
+      <c r="BP55">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7451007</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45592.60416666666</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>118</v>
+      </c>
+      <c r="P56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q56">
+        <v>3.4</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>3.5</v>
+      </c>
+      <c r="T56">
+        <v>1.44</v>
+      </c>
+      <c r="U56">
+        <v>2.62</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>1.36</v>
+      </c>
+      <c r="X56">
+        <v>7.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>2.55</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>2.63</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.36</v>
+      </c>
+      <c r="AF56">
+        <v>2.88</v>
+      </c>
+      <c r="AG56">
+        <v>2.25</v>
+      </c>
+      <c r="AH56">
+        <v>1.62</v>
+      </c>
+      <c r="AI56">
+        <v>1.83</v>
+      </c>
+      <c r="AJ56">
+        <v>1.83</v>
+      </c>
+      <c r="AK56">
+        <v>1.44</v>
+      </c>
+      <c r="AL56">
+        <v>1.35</v>
+      </c>
+      <c r="AM56">
+        <v>1.44</v>
+      </c>
+      <c r="AN56">
+        <v>1.6</v>
+      </c>
+      <c r="AO56">
+        <v>0.8</v>
+      </c>
+      <c r="AP56">
+        <v>1.83</v>
+      </c>
+      <c r="AQ56">
+        <v>0.67</v>
+      </c>
+      <c r="AR56">
+        <v>1.17</v>
+      </c>
+      <c r="AS56">
+        <v>0.93</v>
+      </c>
+      <c r="AT56">
+        <v>2.1</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>6</v>
+      </c>
+      <c r="AX56">
+        <v>10</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>17</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>10</v>
+      </c>
+      <c r="BC56">
+        <v>14</v>
+      </c>
+      <c r="BD56">
+        <v>1.92</v>
+      </c>
+      <c r="BE56">
+        <v>7</v>
+      </c>
+      <c r="BF56">
+        <v>2.3</v>
+      </c>
+      <c r="BG56">
+        <v>1.43</v>
+      </c>
+      <c r="BH56">
+        <v>2.6</v>
+      </c>
+      <c r="BI56">
+        <v>1.75</v>
+      </c>
+      <c r="BJ56">
+        <v>1.96</v>
+      </c>
+      <c r="BK56">
+        <v>2.24</v>
+      </c>
+      <c r="BL56">
+        <v>1.57</v>
+      </c>
+      <c r="BM56">
+        <v>2.98</v>
+      </c>
+      <c r="BN56">
+        <v>1.34</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>['22', '40', '55', '89']</t>
+  </si>
+  <si>
+    <t>['11', '45+2', '50', '86']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2195,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2693,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7450961</v>
+        <v>7450963</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -2708,70 +2711,70 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="Q10">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R10">
         <v>2.2</v>
       </c>
       <c r="S10">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T10">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U10">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="V10">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="W10">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X10">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y10">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z10">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="AA10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB10">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AC10">
         <v>1.03</v>
@@ -2780,10 +2783,10 @@
         <v>9</v>
       </c>
       <c r="AE10">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF10">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG10">
         <v>1.95</v>
@@ -2798,100 +2801,100 @@
         <v>1.83</v>
       </c>
       <c r="AK10">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="AL10">
         <v>1.27</v>
       </c>
       <c r="AM10">
+        <v>1.22</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1.2</v>
+      </c>
+      <c r="AQ10">
+        <v>1.83</v>
+      </c>
+      <c r="AR10">
+        <v>3.14</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3.14</v>
+      </c>
+      <c r="AU10">
+        <v>3</v>
+      </c>
+      <c r="AV10">
+        <v>6</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>7</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>18</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>7</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>2.81</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>1.64</v>
+      </c>
+      <c r="BG10">
+        <v>1.33</v>
+      </c>
+      <c r="BH10">
+        <v>2.93</v>
+      </c>
+      <c r="BI10">
+        <v>1.61</v>
+      </c>
+      <c r="BJ10">
+        <v>2.12</v>
+      </c>
+      <c r="BK10">
+        <v>2.07</v>
+      </c>
+      <c r="BL10">
+        <v>1.67</v>
+      </c>
+      <c r="BM10">
+        <v>2.71</v>
+      </c>
+      <c r="BN10">
+        <v>1.38</v>
+      </c>
+      <c r="BO10">
+        <v>3.74</v>
+      </c>
+      <c r="BP10">
         <v>1.21</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>2</v>
-      </c>
-      <c r="AQ10">
-        <v>1.8</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>3</v>
-      </c>
-      <c r="AW10">
-        <v>8</v>
-      </c>
-      <c r="AX10">
-        <v>4</v>
-      </c>
-      <c r="AY10">
-        <v>10</v>
-      </c>
-      <c r="AZ10">
-        <v>12</v>
-      </c>
-      <c r="BA10">
-        <v>5</v>
-      </c>
-      <c r="BB10">
-        <v>6</v>
-      </c>
-      <c r="BC10">
-        <v>11</v>
-      </c>
-      <c r="BD10">
-        <v>3</v>
-      </c>
-      <c r="BE10">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF10">
-        <v>1.57</v>
-      </c>
-      <c r="BG10">
-        <v>1.28</v>
-      </c>
-      <c r="BH10">
-        <v>3.2</v>
-      </c>
-      <c r="BI10">
-        <v>1.53</v>
-      </c>
-      <c r="BJ10">
-        <v>2.28</v>
-      </c>
-      <c r="BK10">
-        <v>1.93</v>
-      </c>
-      <c r="BL10">
-        <v>1.78</v>
-      </c>
-      <c r="BM10">
-        <v>2.51</v>
-      </c>
-      <c r="BN10">
-        <v>1.44</v>
-      </c>
-      <c r="BO10">
-        <v>3.42</v>
-      </c>
-      <c r="BP10">
-        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -2899,7 +2902,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7450963</v>
+        <v>7450961</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2914,70 +2917,70 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R11">
         <v>2.2</v>
       </c>
       <c r="S11">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T11">
+        <v>1.38</v>
+      </c>
+      <c r="U11">
+        <v>2.87</v>
+      </c>
+      <c r="V11">
+        <v>2.94</v>
+      </c>
+      <c r="W11">
         <v>1.36</v>
       </c>
-      <c r="U11">
-        <v>3.01</v>
-      </c>
-      <c r="V11">
-        <v>2.83</v>
-      </c>
-      <c r="W11">
-        <v>1.4</v>
-      </c>
       <c r="X11">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Y11">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z11">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="AA11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB11">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AC11">
         <v>1.03</v>
@@ -2986,10 +2989,10 @@
         <v>9</v>
       </c>
       <c r="AE11">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF11">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG11">
         <v>1.95</v>
@@ -3004,13 +3007,13 @@
         <v>1.83</v>
       </c>
       <c r="AK11">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AL11">
         <v>1.27</v>
       </c>
       <c r="AM11">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -3019,85 +3022,85 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
         <v>3</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
+        <v>8</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>10</v>
+      </c>
+      <c r="AZ11">
+        <v>12</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
         <v>6</v>
       </c>
-      <c r="AW11">
+      <c r="BC11">
+        <v>11</v>
+      </c>
+      <c r="BD11">
         <v>3</v>
       </c>
-      <c r="AX11">
-        <v>7</v>
-      </c>
-      <c r="AY11">
-        <v>8</v>
-      </c>
-      <c r="AZ11">
-        <v>18</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>7</v>
-      </c>
-      <c r="BC11">
-        <v>7</v>
-      </c>
-      <c r="BD11">
-        <v>2.81</v>
-      </c>
       <c r="BE11">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF11">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="BG11">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BH11">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BI11">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="BJ11">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BK11">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BL11">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="BM11">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="BN11">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BO11">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
       <c r="BP11">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -6112,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -7139,7 +7142,7 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7554,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8375,7 +8378,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -10026,7 +10029,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10641,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -10850,7 +10853,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -12368,6 +12371,212 @@
       </c>
       <c r="BP56">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7451009</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45597.58333333334</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q57">
+        <v>8.5</v>
+      </c>
+      <c r="R57">
+        <v>2.5</v>
+      </c>
+      <c r="S57">
+        <v>1.8</v>
+      </c>
+      <c r="T57">
+        <v>1.32</v>
+      </c>
+      <c r="U57">
+        <v>3.23</v>
+      </c>
+      <c r="V57">
+        <v>2.51</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>5.2</v>
+      </c>
+      <c r="Y57">
+        <v>1.12</v>
+      </c>
+      <c r="Z57">
+        <v>9</v>
+      </c>
+      <c r="AA57">
+        <v>5.25</v>
+      </c>
+      <c r="AB57">
+        <v>1.3</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>13</v>
+      </c>
+      <c r="AE57">
+        <v>1.17</v>
+      </c>
+      <c r="AF57">
+        <v>4.5</v>
+      </c>
+      <c r="AG57">
+        <v>1.67</v>
+      </c>
+      <c r="AH57">
+        <v>2.15</v>
+      </c>
+      <c r="AI57">
+        <v>2.1</v>
+      </c>
+      <c r="AJ57">
+        <v>1.67</v>
+      </c>
+      <c r="AK57">
+        <v>3.7</v>
+      </c>
+      <c r="AL57">
+        <v>1.14</v>
+      </c>
+      <c r="AM57">
+        <v>1.04</v>
+      </c>
+      <c r="AN57">
+        <v>1.25</v>
+      </c>
+      <c r="AO57">
+        <v>1.6</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1.83</v>
+      </c>
+      <c r="AR57">
+        <v>1.11</v>
+      </c>
+      <c r="AS57">
+        <v>1.58</v>
+      </c>
+      <c r="AT57">
+        <v>2.69</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>1</v>
+      </c>
+      <c r="AZ57">
+        <v>14</v>
+      </c>
+      <c r="BA57">
+        <v>1</v>
+      </c>
+      <c r="BB57">
+        <v>5</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>4.86</v>
+      </c>
+      <c r="BE57">
+        <v>9.1</v>
+      </c>
+      <c r="BF57">
+        <v>1.29</v>
+      </c>
+      <c r="BG57">
+        <v>1.3</v>
+      </c>
+      <c r="BH57">
+        <v>3.2</v>
+      </c>
+      <c r="BI57">
+        <v>1.46</v>
+      </c>
+      <c r="BJ57">
+        <v>2.52</v>
+      </c>
+      <c r="BK57">
+        <v>1.98</v>
+      </c>
+      <c r="BL57">
+        <v>1.82</v>
+      </c>
+      <c r="BM57">
+        <v>2.37</v>
+      </c>
+      <c r="BN57">
+        <v>1.51</v>
+      </c>
+      <c r="BO57">
+        <v>3.2</v>
+      </c>
+      <c r="BP57">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['34', '90']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -470,6 +476,9 @@
   </si>
   <si>
     <t>['11', '45+2', '50', '86']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1717,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1786,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1914,7 +1923,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -1995,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2201,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2404,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2532,7 +2541,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2610,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2738,7 +2747,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.83</v>
@@ -3022,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3356,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3562,7 +3571,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3768,7 +3777,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4180,7 +4189,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4258,7 +4267,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4464,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>0.8100000000000001</v>
@@ -4592,7 +4601,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4798,7 +4807,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4876,10 +4885,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -5004,7 +5013,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5082,10 +5091,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5210,7 +5219,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5416,7 +5425,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5828,7 +5837,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5906,7 +5915,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6034,7 +6043,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6240,7 +6249,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6321,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6446,7 +6455,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6524,7 +6533,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -6652,7 +6661,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6733,7 +6742,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -6936,10 +6945,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.82</v>
@@ -7348,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7476,7 +7485,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7682,7 +7691,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7888,7 +7897,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -7966,7 +7975,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8506,7 +8515,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8712,7 +8721,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8790,7 +8799,7 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8999,7 +9008,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9124,7 +9133,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9205,7 +9214,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9330,7 +9339,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9408,7 +9417,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>1.67</v>
@@ -9614,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9823,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -9948,7 +9957,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10026,7 +10035,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ45">
         <v>1.83</v>
@@ -10360,7 +10369,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10438,10 +10447,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10566,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10772,7 +10781,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10850,7 +10859,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1.83</v>
@@ -10978,7 +10987,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11059,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -11262,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11390,7 +11399,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11596,7 +11605,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11802,7 +11811,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12008,7 +12017,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12420,7 +12429,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12577,6 +12586,830 @@
       </c>
       <c r="BP57">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7451013</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45598.45833333334</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q58">
+        <v>2.6</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>4.33</v>
+      </c>
+      <c r="T58">
+        <v>1.35</v>
+      </c>
+      <c r="U58">
+        <v>3.07</v>
+      </c>
+      <c r="V58">
+        <v>2.78</v>
+      </c>
+      <c r="W58">
+        <v>1.41</v>
+      </c>
+      <c r="X58">
+        <v>6.75</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>1.91</v>
+      </c>
+      <c r="AA58">
+        <v>3.4</v>
+      </c>
+      <c r="AB58">
+        <v>4</v>
+      </c>
+      <c r="AC58">
+        <v>1.02</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>3.8</v>
+      </c>
+      <c r="AG58">
+        <v>1.9</v>
+      </c>
+      <c r="AH58">
+        <v>1.9</v>
+      </c>
+      <c r="AI58">
+        <v>1.73</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>1.28</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.78</v>
+      </c>
+      <c r="AN58">
+        <v>0.83</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0.71</v>
+      </c>
+      <c r="AQ58">
+        <v>0.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.49</v>
+      </c>
+      <c r="AS58">
+        <v>1.4</v>
+      </c>
+      <c r="AT58">
+        <v>2.89</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>6</v>
+      </c>
+      <c r="AY58">
+        <v>20</v>
+      </c>
+      <c r="AZ58">
+        <v>16</v>
+      </c>
+      <c r="BA58">
+        <v>9</v>
+      </c>
+      <c r="BB58">
+        <v>6</v>
+      </c>
+      <c r="BC58">
+        <v>15</v>
+      </c>
+      <c r="BD58">
+        <v>1.57</v>
+      </c>
+      <c r="BE58">
+        <v>7.6</v>
+      </c>
+      <c r="BF58">
+        <v>3.1</v>
+      </c>
+      <c r="BG58">
+        <v>1.29</v>
+      </c>
+      <c r="BH58">
+        <v>3.25</v>
+      </c>
+      <c r="BI58">
+        <v>1.52</v>
+      </c>
+      <c r="BJ58">
+        <v>2.36</v>
+      </c>
+      <c r="BK58">
+        <v>1.87</v>
+      </c>
+      <c r="BL58">
+        <v>1.83</v>
+      </c>
+      <c r="BM58">
+        <v>2.39</v>
+      </c>
+      <c r="BN58">
+        <v>1.51</v>
+      </c>
+      <c r="BO58">
+        <v>3.2</v>
+      </c>
+      <c r="BP58">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7451010</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45598.5625</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>119</v>
+      </c>
+      <c r="P59" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q59">
+        <v>1.8</v>
+      </c>
+      <c r="R59">
+        <v>2.5</v>
+      </c>
+      <c r="S59">
+        <v>8</v>
+      </c>
+      <c r="T59">
+        <v>1.35</v>
+      </c>
+      <c r="U59">
+        <v>2.95</v>
+      </c>
+      <c r="V59">
+        <v>2.55</v>
+      </c>
+      <c r="W59">
+        <v>1.45</v>
+      </c>
+      <c r="X59">
+        <v>5.95</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>1.33</v>
+      </c>
+      <c r="AA59">
+        <v>5</v>
+      </c>
+      <c r="AB59">
+        <v>9</v>
+      </c>
+      <c r="AC59">
+        <v>1.01</v>
+      </c>
+      <c r="AD59">
+        <v>11</v>
+      </c>
+      <c r="AE59">
+        <v>1.25</v>
+      </c>
+      <c r="AF59">
+        <v>3.75</v>
+      </c>
+      <c r="AG59">
+        <v>1.67</v>
+      </c>
+      <c r="AH59">
+        <v>2.15</v>
+      </c>
+      <c r="AI59">
+        <v>2.1</v>
+      </c>
+      <c r="AJ59">
+        <v>1.67</v>
+      </c>
+      <c r="AK59">
+        <v>1.06</v>
+      </c>
+      <c r="AL59">
+        <v>1.16</v>
+      </c>
+      <c r="AM59">
+        <v>2.7</v>
+      </c>
+      <c r="AN59">
+        <v>1.2</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>1.61</v>
+      </c>
+      <c r="AS59">
+        <v>0.84</v>
+      </c>
+      <c r="AT59">
+        <v>2.45</v>
+      </c>
+      <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>17</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>1.29</v>
+      </c>
+      <c r="BE59">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF59">
+        <v>4.97</v>
+      </c>
+      <c r="BG59">
+        <v>1.27</v>
+      </c>
+      <c r="BH59">
+        <v>3.04</v>
+      </c>
+      <c r="BI59">
+        <v>1.53</v>
+      </c>
+      <c r="BJ59">
+        <v>2.21</v>
+      </c>
+      <c r="BK59">
+        <v>1.96</v>
+      </c>
+      <c r="BL59">
+        <v>1.75</v>
+      </c>
+      <c r="BM59">
+        <v>2.52</v>
+      </c>
+      <c r="BN59">
+        <v>1.41</v>
+      </c>
+      <c r="BO59">
+        <v>3.35</v>
+      </c>
+      <c r="BP59">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7451011</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45599.45833333334</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
+        <v>2.5</v>
+      </c>
+      <c r="T60">
+        <v>1.45</v>
+      </c>
+      <c r="U60">
+        <v>2.55</v>
+      </c>
+      <c r="V60">
+        <v>3.05</v>
+      </c>
+      <c r="W60">
+        <v>1.33</v>
+      </c>
+      <c r="X60">
+        <v>7.9</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>4.75</v>
+      </c>
+      <c r="AA60">
+        <v>3.3</v>
+      </c>
+      <c r="AB60">
+        <v>1.8</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.36</v>
+      </c>
+      <c r="AF60">
+        <v>2.95</v>
+      </c>
+      <c r="AG60">
+        <v>2.2</v>
+      </c>
+      <c r="AH60">
+        <v>1.65</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
+        <v>1.73</v>
+      </c>
+      <c r="AK60">
+        <v>2</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.15</v>
+      </c>
+      <c r="AN60">
+        <v>1.6</v>
+      </c>
+      <c r="AO60">
+        <v>1.8</v>
+      </c>
+      <c r="AP60">
+        <v>1.33</v>
+      </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
+      <c r="AR60">
+        <v>1.28</v>
+      </c>
+      <c r="AS60">
+        <v>1.37</v>
+      </c>
+      <c r="AT60">
+        <v>2.65</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>9</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>5</v>
+      </c>
+      <c r="BD60">
+        <v>2.91</v>
+      </c>
+      <c r="BE60">
+        <v>7.7</v>
+      </c>
+      <c r="BF60">
+        <v>1.62</v>
+      </c>
+      <c r="BG60">
+        <v>1.48</v>
+      </c>
+      <c r="BH60">
+        <v>2.48</v>
+      </c>
+      <c r="BI60">
+        <v>1.82</v>
+      </c>
+      <c r="BJ60">
+        <v>1.88</v>
+      </c>
+      <c r="BK60">
+        <v>2.35</v>
+      </c>
+      <c r="BL60">
+        <v>1.53</v>
+      </c>
+      <c r="BM60">
+        <v>3.15</v>
+      </c>
+      <c r="BN60">
+        <v>1.31</v>
+      </c>
+      <c r="BO60">
+        <v>3.85</v>
+      </c>
+      <c r="BP60">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7451012</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45599.5625</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>120</v>
+      </c>
+      <c r="P61" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>2.1</v>
+      </c>
+      <c r="S61">
+        <v>2.5</v>
+      </c>
+      <c r="T61">
+        <v>1.4</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>1.36</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>1.08</v>
+      </c>
+      <c r="Z61">
+        <v>4.5</v>
+      </c>
+      <c r="AA61">
+        <v>3.5</v>
+      </c>
+      <c r="AB61">
+        <v>1.8</v>
+      </c>
+      <c r="AC61">
+        <v>1.05</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.3</v>
+      </c>
+      <c r="AF61">
+        <v>3.2</v>
+      </c>
+      <c r="AG61">
+        <v>2.2</v>
+      </c>
+      <c r="AH61">
+        <v>1.65</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.73</v>
+      </c>
+      <c r="AK61">
+        <v>1.85</v>
+      </c>
+      <c r="AL61">
+        <v>1.3</v>
+      </c>
+      <c r="AM61">
+        <v>1.22</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1.8</v>
+      </c>
+      <c r="AP61">
+        <v>2.17</v>
+      </c>
+      <c r="AQ61">
+        <v>1.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.34</v>
+      </c>
+      <c r="AS61">
+        <v>1.32</v>
+      </c>
+      <c r="AT61">
+        <v>2.66</v>
+      </c>
+      <c r="AU61">
+        <v>7</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>5</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>15</v>
+      </c>
+      <c r="AZ61">
+        <v>12</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61">
+        <v>2.47</v>
+      </c>
+      <c r="BE61">
+        <v>7.4</v>
+      </c>
+      <c r="BF61">
+        <v>1.82</v>
+      </c>
+      <c r="BG61">
+        <v>1.31</v>
+      </c>
+      <c r="BH61">
+        <v>3.15</v>
+      </c>
+      <c r="BI61">
+        <v>1.55</v>
+      </c>
+      <c r="BJ61">
+        <v>2.29</v>
+      </c>
+      <c r="BK61">
+        <v>1.92</v>
+      </c>
+      <c r="BL61">
+        <v>1.79</v>
+      </c>
+      <c r="BM61">
+        <v>2.47</v>
+      </c>
+      <c r="BN61">
+        <v>1.48</v>
+      </c>
+      <c r="BO61">
+        <v>3.3</v>
+      </c>
+      <c r="BP61">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['50', '79', '84']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1592,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2207,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -3446,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -6536,7 +6539,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -7151,7 +7154,7 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -8387,7 +8390,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8596,7 +8599,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.94</v>
@@ -10653,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11686,7 +11689,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12507,7 +12510,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ57">
         <v>1.83</v>
@@ -13410,6 +13413,212 @@
       </c>
       <c r="BP61">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7450969</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45604.58333333334</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P62" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q62">
+        <v>4</v>
+      </c>
+      <c r="R62">
+        <v>2.05</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>1.38</v>
+      </c>
+      <c r="U62">
+        <v>2.92</v>
+      </c>
+      <c r="V62">
+        <v>2.94</v>
+      </c>
+      <c r="W62">
+        <v>1.38</v>
+      </c>
+      <c r="X62">
+        <v>7</v>
+      </c>
+      <c r="Y62">
+        <v>1.07</v>
+      </c>
+      <c r="Z62">
+        <v>3.2</v>
+      </c>
+      <c r="AA62">
+        <v>3</v>
+      </c>
+      <c r="AB62">
+        <v>2.2</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>9</v>
+      </c>
+      <c r="AE62">
+        <v>1.29</v>
+      </c>
+      <c r="AF62">
+        <v>3.3</v>
+      </c>
+      <c r="AG62">
+        <v>2.1</v>
+      </c>
+      <c r="AH62">
+        <v>1.7</v>
+      </c>
+      <c r="AI62">
+        <v>1.83</v>
+      </c>
+      <c r="AJ62">
+        <v>1.83</v>
+      </c>
+      <c r="AK62">
+        <v>1.56</v>
+      </c>
+      <c r="AL62">
+        <v>1.35</v>
+      </c>
+      <c r="AM62">
+        <v>1.37</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>0.8</v>
+      </c>
+      <c r="AP62">
+        <v>0.83</v>
+      </c>
+      <c r="AQ62">
+        <v>1.17</v>
+      </c>
+      <c r="AR62">
+        <v>0.93</v>
+      </c>
+      <c r="AS62">
+        <v>1.51</v>
+      </c>
+      <c r="AT62">
+        <v>2.44</v>
+      </c>
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>8</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>13</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>6</v>
+      </c>
+      <c r="BD62">
+        <v>2.38</v>
+      </c>
+      <c r="BE62">
+        <v>7.4</v>
+      </c>
+      <c r="BF62">
+        <v>1.87</v>
+      </c>
+      <c r="BG62">
+        <v>1.25</v>
+      </c>
+      <c r="BH62">
+        <v>3.58</v>
+      </c>
+      <c r="BI62">
+        <v>1.45</v>
+      </c>
+      <c r="BJ62">
+        <v>2.55</v>
+      </c>
+      <c r="BK62">
+        <v>2.2</v>
+      </c>
+      <c r="BL62">
+        <v>1.96</v>
+      </c>
+      <c r="BM62">
+        <v>2.21</v>
+      </c>
+      <c r="BN62">
+        <v>1.59</v>
+      </c>
+      <c r="BO62">
+        <v>2.9</v>
+      </c>
+      <c r="BP62">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,9 @@
     <t>['43']</t>
   </si>
   <si>
+    <t>['13', '62']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -482,6 +485,12 @@
   </si>
   <si>
     <t>['50', '79', '84']</t>
+  </si>
+  <si>
+    <t>['45', '86']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1386,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1720,7 +1729,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1926,7 +1935,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2004,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2544,7 +2553,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2750,7 +2759,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2831,7 +2840,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR10">
         <v>3.14</v>
@@ -3368,7 +3377,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3574,7 +3583,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3652,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3780,7 +3789,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3858,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -4067,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR16">
         <v>1.93</v>
@@ -4192,7 +4201,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4604,7 +4613,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4810,7 +4819,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5016,7 +5025,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5222,7 +5231,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5300,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5428,7 +5437,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5509,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -5712,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -5840,7 +5849,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6046,7 +6055,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6127,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6252,7 +6261,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6458,7 +6467,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6664,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6742,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7363,7 +7372,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7488,7 +7497,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7569,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -7694,7 +7703,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7772,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7900,7 +7909,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8393,7 +8402,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR37">
         <v>1.04</v>
@@ -8518,7 +8527,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8724,7 +8733,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9136,7 +9145,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9214,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9342,7 +9351,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9960,7 +9969,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10041,7 +10050,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10244,7 +10253,7 @@
         <v>1.2</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10372,7 +10381,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10578,7 +10587,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10784,7 +10793,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10865,7 +10874,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -10990,7 +10999,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11402,7 +11411,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11608,7 +11617,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11686,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -11814,7 +11823,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12020,7 +12029,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12304,10 +12313,10 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
         <v>1.17</v>
@@ -12432,7 +12441,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12513,7 +12522,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ57">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR57">
         <v>1.11</v>
@@ -12638,7 +12647,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13050,7 +13059,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13462,7 +13471,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13619,6 +13628,418 @@
       </c>
       <c r="BP62">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7451018</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45605.45833333334</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>121</v>
+      </c>
+      <c r="P63" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q63">
+        <v>9.5</v>
+      </c>
+      <c r="R63">
+        <v>2.5</v>
+      </c>
+      <c r="S63">
+        <v>1.73</v>
+      </c>
+      <c r="T63">
+        <v>1.27</v>
+      </c>
+      <c r="U63">
+        <v>3.54</v>
+      </c>
+      <c r="V63">
+        <v>2.47</v>
+      </c>
+      <c r="W63">
+        <v>1.5</v>
+      </c>
+      <c r="X63">
+        <v>5.3</v>
+      </c>
+      <c r="Y63">
+        <v>1.14</v>
+      </c>
+      <c r="Z63">
+        <v>9.5</v>
+      </c>
+      <c r="AA63">
+        <v>5.5</v>
+      </c>
+      <c r="AB63">
+        <v>1.25</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>13</v>
+      </c>
+      <c r="AE63">
+        <v>1.13</v>
+      </c>
+      <c r="AF63">
+        <v>5.2</v>
+      </c>
+      <c r="AG63">
+        <v>1.75</v>
+      </c>
+      <c r="AH63">
+        <v>2.05</v>
+      </c>
+      <c r="AI63">
+        <v>2.25</v>
+      </c>
+      <c r="AJ63">
+        <v>1.57</v>
+      </c>
+      <c r="AK63">
+        <v>3.34</v>
+      </c>
+      <c r="AL63">
+        <v>1.13</v>
+      </c>
+      <c r="AM63">
+        <v>1.05</v>
+      </c>
+      <c r="AN63">
+        <v>1.83</v>
+      </c>
+      <c r="AO63">
+        <v>1.83</v>
+      </c>
+      <c r="AP63">
+        <v>1.71</v>
+      </c>
+      <c r="AQ63">
+        <v>1.71</v>
+      </c>
+      <c r="AR63">
+        <v>1.18</v>
+      </c>
+      <c r="AS63">
+        <v>1.58</v>
+      </c>
+      <c r="AT63">
+        <v>2.76</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>10</v>
+      </c>
+      <c r="AY63">
+        <v>4</v>
+      </c>
+      <c r="AZ63">
+        <v>35</v>
+      </c>
+      <c r="BA63">
+        <v>1</v>
+      </c>
+      <c r="BB63">
+        <v>13</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
+      </c>
+      <c r="BD63">
+        <v>5.06</v>
+      </c>
+      <c r="BE63">
+        <v>9</v>
+      </c>
+      <c r="BF63">
+        <v>1.28</v>
+      </c>
+      <c r="BG63">
+        <v>1.3</v>
+      </c>
+      <c r="BH63">
+        <v>2.88</v>
+      </c>
+      <c r="BI63">
+        <v>1.57</v>
+      </c>
+      <c r="BJ63">
+        <v>2.14</v>
+      </c>
+      <c r="BK63">
+        <v>2.03</v>
+      </c>
+      <c r="BL63">
+        <v>1.7</v>
+      </c>
+      <c r="BM63">
+        <v>2.62</v>
+      </c>
+      <c r="BN63">
+        <v>1.38</v>
+      </c>
+      <c r="BO63">
+        <v>3.6</v>
+      </c>
+      <c r="BP63">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7451016</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45605.5625</v>
+      </c>
+      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>118</v>
+      </c>
+      <c r="P64" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q64">
+        <v>1.91</v>
+      </c>
+      <c r="R64">
+        <v>2.38</v>
+      </c>
+      <c r="S64">
+        <v>8</v>
+      </c>
+      <c r="T64">
+        <v>1.36</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>2.62</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>6</v>
+      </c>
+      <c r="Y64">
+        <v>1.11</v>
+      </c>
+      <c r="Z64">
+        <v>1.36</v>
+      </c>
+      <c r="AA64">
+        <v>4.75</v>
+      </c>
+      <c r="AB64">
+        <v>7</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>11</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>4</v>
+      </c>
+      <c r="AG64">
+        <v>1.85</v>
+      </c>
+      <c r="AH64">
+        <v>1.95</v>
+      </c>
+      <c r="AI64">
+        <v>2.2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.62</v>
+      </c>
+      <c r="AK64">
+        <v>1.06</v>
+      </c>
+      <c r="AL64">
+        <v>1.2</v>
+      </c>
+      <c r="AM64">
+        <v>2.88</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>0.67</v>
+      </c>
+      <c r="AP64">
+        <v>2.71</v>
+      </c>
+      <c r="AQ64">
+        <v>0.71</v>
+      </c>
+      <c r="AR64">
+        <v>1.63</v>
+      </c>
+      <c r="AS64">
+        <v>1.02</v>
+      </c>
+      <c r="AT64">
+        <v>2.65</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>9</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>18</v>
+      </c>
+      <c r="AZ64">
+        <v>9</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>5</v>
+      </c>
+      <c r="BD64">
+        <v>1.31</v>
+      </c>
+      <c r="BE64">
+        <v>8.6</v>
+      </c>
+      <c r="BF64">
+        <v>4.76</v>
+      </c>
+      <c r="BG64">
+        <v>1.28</v>
+      </c>
+      <c r="BH64">
+        <v>2.94</v>
+      </c>
+      <c r="BI64">
+        <v>1.56</v>
+      </c>
+      <c r="BJ64">
+        <v>2.16</v>
+      </c>
+      <c r="BK64">
+        <v>2</v>
+      </c>
+      <c r="BL64">
+        <v>1.72</v>
+      </c>
+      <c r="BM64">
+        <v>2.59</v>
+      </c>
+      <c r="BN64">
+        <v>1.39</v>
+      </c>
+      <c r="BO64">
+        <v>3.54</v>
+      </c>
+      <c r="BP64">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,12 @@
     <t>['13', '62']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -419,9 +425,6 @@
   </si>
   <si>
     <t>['30']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['22']</t>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1601,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
         <v>1.17</v>
@@ -1729,7 +1732,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1935,7 +1938,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2553,7 +2556,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2759,7 +2762,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3377,7 +3380,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3583,7 +3586,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3789,7 +3792,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3870,7 +3873,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4073,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
         <v>0.71</v>
@@ -4201,7 +4204,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4613,7 +4616,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4819,7 +4822,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5025,7 +5028,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5231,7 +5234,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5437,7 +5440,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5724,7 +5727,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -5849,7 +5852,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6055,7 +6058,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6133,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6261,7 +6264,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6467,7 +6470,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6673,7 +6676,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7497,7 +7500,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7703,7 +7706,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7909,7 +7912,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -7990,7 +7993,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8193,7 +8196,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8527,7 +8530,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8733,7 +8736,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9017,7 +9020,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9145,7 +9148,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9351,7 +9354,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9432,7 +9435,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9969,7 +9972,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10381,7 +10384,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10587,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10668,7 +10671,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -10793,7 +10796,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10999,7 +11002,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11411,7 +11414,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11617,7 +11620,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11823,7 +11826,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -11901,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12029,7 +12032,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12110,7 +12113,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR55">
         <v>1.97</v>
@@ -12441,7 +12444,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12647,7 +12650,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13059,7 +13062,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13471,7 +13474,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13677,7 +13680,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13883,7 +13886,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14040,6 +14043,418 @@
       </c>
       <c r="BP64">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7451015</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45606.45833333334</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>122</v>
+      </c>
+      <c r="P65" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q65">
+        <v>3.1</v>
+      </c>
+      <c r="R65">
+        <v>2.1</v>
+      </c>
+      <c r="S65">
+        <v>3.5</v>
+      </c>
+      <c r="T65">
+        <v>1.4</v>
+      </c>
+      <c r="U65">
+        <v>2.75</v>
+      </c>
+      <c r="V65">
+        <v>3</v>
+      </c>
+      <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>2.45</v>
+      </c>
+      <c r="AA65">
+        <v>2.88</v>
+      </c>
+      <c r="AB65">
+        <v>2.88</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>8</v>
+      </c>
+      <c r="AE65">
+        <v>1.29</v>
+      </c>
+      <c r="AF65">
+        <v>3.3</v>
+      </c>
+      <c r="AG65">
+        <v>2.08</v>
+      </c>
+      <c r="AH65">
+        <v>1.73</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>1.33</v>
+      </c>
+      <c r="AL65">
+        <v>1.33</v>
+      </c>
+      <c r="AM65">
+        <v>1.6</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.5</v>
+      </c>
+      <c r="AS65">
+        <v>1.53</v>
+      </c>
+      <c r="AT65">
+        <v>3.03</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>13</v>
+      </c>
+      <c r="BA65">
+        <v>7</v>
+      </c>
+      <c r="BB65">
+        <v>1</v>
+      </c>
+      <c r="BC65">
+        <v>8</v>
+      </c>
+      <c r="BD65">
+        <v>1.9</v>
+      </c>
+      <c r="BE65">
+        <v>7.3</v>
+      </c>
+      <c r="BF65">
+        <v>2.35</v>
+      </c>
+      <c r="BG65">
+        <v>1.31</v>
+      </c>
+      <c r="BH65">
+        <v>3.15</v>
+      </c>
+      <c r="BI65">
+        <v>1.55</v>
+      </c>
+      <c r="BJ65">
+        <v>2.29</v>
+      </c>
+      <c r="BK65">
+        <v>1.92</v>
+      </c>
+      <c r="BL65">
+        <v>1.79</v>
+      </c>
+      <c r="BM65">
+        <v>2.47</v>
+      </c>
+      <c r="BN65">
+        <v>1.48</v>
+      </c>
+      <c r="BO65">
+        <v>3.3</v>
+      </c>
+      <c r="BP65">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7451017</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45606.57291666666</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>123</v>
+      </c>
+      <c r="P66" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q66">
+        <v>2.63</v>
+      </c>
+      <c r="R66">
+        <v>2.1</v>
+      </c>
+      <c r="S66">
+        <v>4.33</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.75</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>7</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>1.95</v>
+      </c>
+      <c r="AA66">
+        <v>3.3</v>
+      </c>
+      <c r="AB66">
+        <v>3.7</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>9</v>
+      </c>
+      <c r="AE66">
+        <v>1.29</v>
+      </c>
+      <c r="AF66">
+        <v>3.3</v>
+      </c>
+      <c r="AG66">
+        <v>2.05</v>
+      </c>
+      <c r="AH66">
+        <v>1.75</v>
+      </c>
+      <c r="AI66">
+        <v>1.83</v>
+      </c>
+      <c r="AJ66">
+        <v>1.83</v>
+      </c>
+      <c r="AK66">
+        <v>1.2</v>
+      </c>
+      <c r="AL66">
+        <v>1.3</v>
+      </c>
+      <c r="AM66">
+        <v>1.85</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>1.67</v>
+      </c>
+      <c r="AP66">
+        <v>1.86</v>
+      </c>
+      <c r="AQ66">
+        <v>1.57</v>
+      </c>
+      <c r="AR66">
+        <v>1.64</v>
+      </c>
+      <c r="AS66">
+        <v>1.44</v>
+      </c>
+      <c r="AT66">
+        <v>3.08</v>
+      </c>
+      <c r="AU66">
+        <v>8</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
+        <v>2</v>
+      </c>
+      <c r="AY66">
+        <v>15</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>10</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>14</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
+        <v>8</v>
+      </c>
+      <c r="BF66">
+        <v>2.81</v>
+      </c>
+      <c r="BG66">
+        <v>1.37</v>
+      </c>
+      <c r="BH66">
+        <v>2.83</v>
+      </c>
+      <c r="BI66">
+        <v>1.65</v>
+      </c>
+      <c r="BJ66">
+        <v>2.1</v>
+      </c>
+      <c r="BK66">
+        <v>2.08</v>
+      </c>
+      <c r="BL66">
+        <v>1.67</v>
+      </c>
+      <c r="BM66">
+        <v>2.73</v>
+      </c>
+      <c r="BN66">
+        <v>1.4</v>
+      </c>
+      <c r="BO66">
+        <v>3.7</v>
+      </c>
+      <c r="BP66">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
